--- a/Measurements/template_mastersheet.xlsx
+++ b/Measurements/template_mastersheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Michiel/Dimple - Working Documents/DimpleTech/10 Technology development/01 The Hill/03 Usage/Measurement files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Michiel/Dimple - Working Documents/DimpleTech/10 Technology development/01 The Hill/03 Usage/Measurements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A56EB1-2569-7E48-A3AC-B9CAAE1EE0A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E58EEA5-6C4C-4346-9DCE-9E5F0D0E9EA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7020" yWindow="-21140" windowWidth="38400" windowHeight="19600" xr2:uid="{E12EEECC-AC3A-F945-9F00-751131698F74}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19600" xr2:uid="{E12EEECC-AC3A-F945-9F00-751131698F74}"/>
   </bookViews>
   <sheets>
     <sheet name="Measurements" sheetId="1" r:id="rId1"/>
@@ -753,7 +753,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0D57EA5C-1A4F-0145-8A61-4E1C87C46D31}" name="Table2" displayName="Table2" ref="B3:P178" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0D57EA5C-1A4F-0145-8A61-4E1C87C46D31}" name="Table2" displayName="Table2" ref="B3:P179" totalsRowShown="0">
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{6DFEB069-213E-4C41-A41E-B4525AFCB2C5}" name="Id" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{87672AE0-6118-BA4E-80BF-19BC32FE0220}" name="Date" dataDxfId="12"/>
@@ -1110,10 +1110,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD142BB9-230F-7B49-905A-C5597AFD6720}">
-  <dimension ref="B1:P178"/>
+  <dimension ref="B1:P179"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1192,7 +1192,7 @@
     </row>
     <row r="4" spans="2:16">
       <c r="B4" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="5">
         <v>43831</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="5" spans="2:16">
       <c r="B5" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="49"/>
       <c r="D5" s="50"/>
@@ -1253,7 +1253,7 @@
     </row>
     <row r="6" spans="2:16">
       <c r="B6" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="49"/>
       <c r="D6" s="50"/>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="7" spans="2:16">
       <c r="B7" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="49"/>
       <c r="D7" s="50"/>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="8" spans="2:16">
       <c r="B8" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="49"/>
       <c r="D8" s="50"/>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="9" spans="2:16">
       <c r="B9" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="49"/>
       <c r="D9" s="50"/>
@@ -1337,7 +1337,7 @@
     </row>
     <row r="10" spans="2:16">
       <c r="B10" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="45"/>
       <c r="D10" s="46"/>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="11" spans="2:16">
       <c r="B11" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="49"/>
       <c r="D11" s="50"/>
@@ -1379,7 +1379,7 @@
     </row>
     <row r="12" spans="2:16">
       <c r="B12" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="49"/>
       <c r="D12" s="50"/>
@@ -1404,7 +1404,7 @@
     </row>
     <row r="13" spans="2:16">
       <c r="B13" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="49"/>
       <c r="D13" s="50"/>
@@ -1429,7 +1429,7 @@
     </row>
     <row r="14" spans="2:16">
       <c r="B14" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="49"/>
       <c r="D14" s="50"/>
@@ -1454,7 +1454,7 @@
     </row>
     <row r="15" spans="2:16">
       <c r="B15" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="49"/>
       <c r="D15" s="50"/>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="16" spans="2:16">
       <c r="B16" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="49"/>
       <c r="D16" s="50"/>
@@ -1504,7 +1504,7 @@
     </row>
     <row r="17" spans="2:16">
       <c r="B17" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="49"/>
       <c r="D17" s="50"/>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="18" spans="2:16">
       <c r="B18" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="49"/>
       <c r="D18" s="50"/>
@@ -1550,7 +1550,7 @@
     </row>
     <row r="19" spans="2:16">
       <c r="B19" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="45"/>
       <c r="D19" s="46"/>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="20" spans="2:16">
       <c r="B20" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="49"/>
       <c r="D20" s="50"/>
@@ -1600,7 +1600,7 @@
     </row>
     <row r="21" spans="2:16">
       <c r="B21" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="45"/>
       <c r="D21" s="46"/>
@@ -1625,7 +1625,7 @@
     </row>
     <row r="22" spans="2:16">
       <c r="B22" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="49"/>
       <c r="D22" s="50"/>
@@ -1650,7 +1650,7 @@
     </row>
     <row r="23" spans="2:16">
       <c r="B23" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="49"/>
       <c r="D23" s="50"/>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="24" spans="2:16">
       <c r="B24" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="45"/>
       <c r="D24" s="46"/>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="25" spans="2:16">
       <c r="B25" s="4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="49"/>
       <c r="D25" s="50"/>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="26" spans="2:16">
       <c r="B26" s="4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" s="49"/>
       <c r="D26" s="50"/>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="27" spans="2:16">
       <c r="B27" s="4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="49"/>
       <c r="D27" s="50"/>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="28" spans="2:16">
       <c r="B28" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="49"/>
       <c r="D28" s="50"/>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="29" spans="2:16">
       <c r="B29" s="4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="49"/>
       <c r="D29" s="50"/>
@@ -1825,7 +1825,7 @@
     </row>
     <row r="30" spans="2:16">
       <c r="B30" s="4">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="49"/>
       <c r="D30" s="50"/>
@@ -1850,7 +1850,7 @@
     </row>
     <row r="31" spans="2:16">
       <c r="B31" s="4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" s="49"/>
       <c r="D31" s="50"/>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="32" spans="2:16">
       <c r="B32" s="4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" s="49"/>
       <c r="D32" s="50"/>
@@ -1900,7 +1900,7 @@
     </row>
     <row r="33" spans="2:16">
       <c r="B33" s="4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H33"/>
       <c r="M33" s="28"/>
@@ -1916,7 +1916,7 @@
     </row>
     <row r="34" spans="2:16">
       <c r="B34" s="4">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H34"/>
       <c r="M34" s="28"/>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="35" spans="2:16">
       <c r="B35" s="4">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H35"/>
       <c r="M35" s="28"/>
@@ -1948,7 +1948,7 @@
     </row>
     <row r="36" spans="2:16">
       <c r="B36" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H36"/>
       <c r="M36" s="28"/>
@@ -1964,7 +1964,7 @@
     </row>
     <row r="37" spans="2:16">
       <c r="B37" s="4">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H37"/>
       <c r="M37" s="28"/>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="38" spans="2:16">
       <c r="B38" s="4">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H38"/>
       <c r="M38" s="28"/>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="39" spans="2:16">
       <c r="B39" s="4">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H39"/>
       <c r="M39" s="28"/>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="40" spans="2:16">
       <c r="B40" s="4">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H40"/>
       <c r="M40" s="28"/>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="41" spans="2:16">
       <c r="B41" s="4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H41"/>
       <c r="M41" s="28"/>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="42" spans="2:16">
       <c r="B42" s="4">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M42" s="28"/>
       <c r="N42">
@@ -2059,7 +2059,7 @@
     </row>
     <row r="43" spans="2:16">
       <c r="B43" s="4">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C43" s="45"/>
       <c r="D43" s="46"/>
@@ -2084,7 +2084,7 @@
     </row>
     <row r="44" spans="2:16">
       <c r="B44" s="4">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M44" s="28"/>
       <c r="N44">
@@ -2099,7 +2099,7 @@
     </row>
     <row r="45" spans="2:16">
       <c r="B45" s="4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M45" s="28"/>
       <c r="N45">
@@ -2114,7 +2114,7 @@
     </row>
     <row r="46" spans="2:16">
       <c r="B46" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M46" s="28"/>
       <c r="N46">
@@ -2129,7 +2129,7 @@
     </row>
     <row r="47" spans="2:16">
       <c r="B47" s="4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M47" s="28"/>
       <c r="N47">
@@ -2144,7 +2144,7 @@
     </row>
     <row r="48" spans="2:16">
       <c r="B48" s="4">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M48" s="28"/>
       <c r="O48" s="28"/>
@@ -2154,7 +2154,7 @@
     </row>
     <row r="49" spans="2:16">
       <c r="B49" s="4">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M49" s="28"/>
       <c r="O49" s="28"/>
@@ -2164,7 +2164,7 @@
     </row>
     <row r="50" spans="2:16">
       <c r="B50" s="4">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M50" s="28"/>
       <c r="O50" s="28"/>
@@ -2174,7 +2174,7 @@
     </row>
     <row r="51" spans="2:16">
       <c r="B51" s="4">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M51" s="28"/>
       <c r="O51" s="28"/>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="52" spans="2:16">
       <c r="B52" s="4">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M52" s="28"/>
       <c r="O52" s="28"/>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="53" spans="2:16">
       <c r="B53" s="4">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M53" s="28"/>
       <c r="O53" s="28"/>
@@ -2204,7 +2204,7 @@
     </row>
     <row r="54" spans="2:16">
       <c r="B54" s="4">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M54" s="28"/>
       <c r="O54" s="28"/>
@@ -2214,7 +2214,7 @@
     </row>
     <row r="55" spans="2:16">
       <c r="B55" s="4">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M55" s="28"/>
       <c r="O55" s="28"/>
@@ -2224,614 +2224,614 @@
     </row>
     <row r="56" spans="2:16" ht="17" customHeight="1">
       <c r="B56" s="4">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M56" s="28"/>
       <c r="O56" s="28"/>
     </row>
     <row r="57" spans="2:16" ht="17" customHeight="1">
       <c r="B57" s="4">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M57" s="28"/>
       <c r="O57" s="28"/>
     </row>
     <row r="58" spans="2:16">
       <c r="B58" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M58" s="28"/>
       <c r="O58" s="28"/>
     </row>
     <row r="59" spans="2:16">
       <c r="B59" s="4">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M59" s="28"/>
       <c r="O59" s="28"/>
     </row>
     <row r="60" spans="2:16">
       <c r="B60" s="4">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M60" s="28"/>
       <c r="O60" s="28"/>
     </row>
     <row r="61" spans="2:16">
       <c r="B61" s="4">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M61" s="28"/>
       <c r="O61" s="28"/>
     </row>
     <row r="62" spans="2:16">
       <c r="B62" s="4">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M62" s="28"/>
       <c r="O62" s="28"/>
     </row>
     <row r="63" spans="2:16">
       <c r="B63" s="4">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M63" s="28"/>
       <c r="O63" s="28"/>
     </row>
     <row r="64" spans="2:16">
       <c r="B64" s="4">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M64" s="28"/>
     </row>
     <row r="65" spans="2:13" ht="17" customHeight="1">
       <c r="B65" s="4">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M65" s="28"/>
     </row>
     <row r="66" spans="2:13" ht="17" customHeight="1">
       <c r="B66" s="4">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M66" s="28"/>
     </row>
     <row r="67" spans="2:13">
       <c r="B67" s="4">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M67" s="28"/>
     </row>
     <row r="68" spans="2:13">
       <c r="B68" s="4">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M68" s="28"/>
     </row>
     <row r="69" spans="2:13">
       <c r="B69" s="4">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M69" s="28"/>
     </row>
     <row r="70" spans="2:13">
       <c r="B70" s="4">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M70" s="28"/>
     </row>
     <row r="71" spans="2:13">
       <c r="B71" s="4">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M71" s="28"/>
     </row>
     <row r="72" spans="2:13">
       <c r="B72" s="4">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M72" s="28"/>
     </row>
     <row r="73" spans="2:13">
       <c r="B73" s="4">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M73" s="28"/>
     </row>
     <row r="74" spans="2:13">
       <c r="B74" s="4">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M74" s="28"/>
     </row>
     <row r="75" spans="2:13">
       <c r="B75" s="4">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M75" s="28"/>
     </row>
     <row r="76" spans="2:13">
       <c r="B76" s="4">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M76" s="28"/>
     </row>
     <row r="77" spans="2:13">
       <c r="B77" s="4">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M77" s="28"/>
     </row>
     <row r="78" spans="2:13">
       <c r="B78" s="4">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M78" s="28"/>
     </row>
     <row r="79" spans="2:13">
       <c r="B79" s="4">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M79" s="28"/>
     </row>
     <row r="80" spans="2:13">
       <c r="B80" s="4">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M80" s="28"/>
     </row>
     <row r="81" spans="2:13">
       <c r="B81" s="4">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M81" s="28"/>
     </row>
     <row r="82" spans="2:13">
       <c r="B82" s="4">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M82" s="28"/>
     </row>
     <row r="83" spans="2:13">
       <c r="B83" s="4">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M83" s="28"/>
     </row>
     <row r="84" spans="2:13">
       <c r="B84" s="4">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M84" s="28"/>
     </row>
     <row r="85" spans="2:13">
       <c r="B85" s="4">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M85" s="28"/>
     </row>
     <row r="86" spans="2:13">
       <c r="B86" s="4">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M86" s="28"/>
     </row>
     <row r="87" spans="2:13">
       <c r="B87" s="4">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M87" s="28"/>
     </row>
     <row r="88" spans="2:13">
       <c r="B88" s="4">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M88" s="28"/>
     </row>
     <row r="89" spans="2:13">
       <c r="B89" s="4">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M89" s="28"/>
     </row>
     <row r="90" spans="2:13">
       <c r="B90" s="4">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M90" s="28"/>
     </row>
     <row r="91" spans="2:13">
       <c r="B91" s="4">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M91" s="28"/>
     </row>
     <row r="92" spans="2:13">
       <c r="B92" s="4">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M92" s="28"/>
     </row>
     <row r="93" spans="2:13">
       <c r="B93" s="4">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M93" s="28"/>
     </row>
     <row r="94" spans="2:13">
       <c r="B94" s="4">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M94" s="28"/>
     </row>
     <row r="95" spans="2:13">
       <c r="B95" s="4">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M95" s="28"/>
     </row>
     <row r="96" spans="2:13">
       <c r="B96" s="4">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M96" s="28"/>
     </row>
     <row r="97" spans="2:13">
       <c r="B97" s="4">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M97" s="28"/>
     </row>
     <row r="98" spans="2:13">
       <c r="B98" s="4">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M98" s="28"/>
     </row>
     <row r="99" spans="2:13">
       <c r="B99" s="4">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M99" s="28"/>
     </row>
     <row r="100" spans="2:13">
       <c r="B100" s="4">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M100" s="28"/>
     </row>
     <row r="101" spans="2:13">
       <c r="B101" s="4">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I101" s="55"/>
       <c r="M101" s="28"/>
     </row>
     <row r="102" spans="2:13">
       <c r="B102" s="4">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M102" s="28"/>
     </row>
     <row r="103" spans="2:13">
       <c r="B103" s="4">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M103" s="28"/>
     </row>
     <row r="104" spans="2:13">
       <c r="B104" s="4">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M104" s="28"/>
     </row>
     <row r="105" spans="2:13">
       <c r="B105" s="4">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M105" s="28"/>
     </row>
     <row r="106" spans="2:13">
       <c r="B106" s="4">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M106" s="28"/>
     </row>
     <row r="107" spans="2:13">
       <c r="B107" s="4">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M107" s="28"/>
     </row>
     <row r="108" spans="2:13">
       <c r="B108" s="4">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M108" s="28"/>
     </row>
     <row r="109" spans="2:13">
       <c r="B109" s="4">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M109" s="28"/>
     </row>
     <row r="110" spans="2:13">
       <c r="B110" s="4">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M110" s="28"/>
     </row>
     <row r="111" spans="2:13">
       <c r="B111" s="4">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M111" s="28"/>
     </row>
     <row r="112" spans="2:13">
       <c r="B112" s="4">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M112" s="28"/>
     </row>
     <row r="113" spans="2:13">
       <c r="B113" s="4">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M113" s="28"/>
     </row>
     <row r="114" spans="2:13">
       <c r="B114" s="4">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M114" s="28"/>
     </row>
     <row r="115" spans="2:13">
       <c r="B115" s="4">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M115" s="28"/>
     </row>
     <row r="116" spans="2:13">
       <c r="B116" s="4">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M116" s="28"/>
     </row>
     <row r="117" spans="2:13">
       <c r="B117" s="4">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M117" s="28"/>
     </row>
     <row r="118" spans="2:13">
       <c r="B118" s="4">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M118" s="28"/>
     </row>
     <row r="119" spans="2:13">
       <c r="B119" s="4">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M119" s="28"/>
     </row>
     <row r="120" spans="2:13">
       <c r="B120" s="4">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M120" s="28"/>
     </row>
     <row r="121" spans="2:13">
       <c r="B121" s="4">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M121" s="28"/>
     </row>
     <row r="122" spans="2:13">
       <c r="B122" s="4">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M122" s="28"/>
     </row>
     <row r="123" spans="2:13">
       <c r="B123" s="4">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M123" s="28"/>
     </row>
     <row r="124" spans="2:13">
       <c r="B124" s="4">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M124" s="28"/>
     </row>
     <row r="125" spans="2:13">
       <c r="B125" s="4">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M125" s="28"/>
     </row>
     <row r="126" spans="2:13">
       <c r="B126" s="4">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M126" s="28"/>
     </row>
     <row r="127" spans="2:13">
       <c r="B127" s="4">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M127" s="28"/>
     </row>
     <row r="128" spans="2:13">
       <c r="B128" s="4">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M128" s="28"/>
     </row>
     <row r="129" spans="2:13">
       <c r="B129" s="4">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M129" s="28"/>
     </row>
     <row r="130" spans="2:13">
       <c r="B130" s="4">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M130" s="28"/>
     </row>
     <row r="131" spans="2:13">
       <c r="B131" s="4">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M131" s="28"/>
     </row>
     <row r="132" spans="2:13">
       <c r="B132" s="4">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M132" s="28"/>
     </row>
     <row r="133" spans="2:13">
       <c r="B133" s="4">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M133" s="28"/>
     </row>
     <row r="134" spans="2:13">
       <c r="B134" s="4">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M134" s="28"/>
     </row>
     <row r="135" spans="2:13">
       <c r="B135" s="4">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M135" s="28"/>
     </row>
     <row r="136" spans="2:13">
       <c r="B136" s="4">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M136" s="28"/>
     </row>
     <row r="137" spans="2:13">
       <c r="B137" s="4">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M137" s="28"/>
     </row>
     <row r="138" spans="2:13">
       <c r="B138" s="4">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M138" s="28"/>
     </row>
     <row r="139" spans="2:13">
       <c r="B139" s="4">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M139" s="28"/>
     </row>
     <row r="140" spans="2:13">
       <c r="B140" s="4">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M140" s="28"/>
     </row>
     <row r="141" spans="2:13">
       <c r="B141" s="4">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M141" s="28"/>
     </row>
     <row r="142" spans="2:13">
       <c r="B142" s="4">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M142" s="28"/>
     </row>
     <row r="143" spans="2:13">
       <c r="B143" s="4">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M143" s="28"/>
     </row>
     <row r="144" spans="2:13">
       <c r="B144" s="4">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E144" s="55"/>
       <c r="M144" s="28"/>
     </row>
     <row r="145" spans="2:13">
       <c r="B145" s="4">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E145" s="55"/>
       <c r="M145" s="28"/>
     </row>
     <row r="146" spans="2:13">
       <c r="B146" s="4">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E146" s="55"/>
       <c r="M146" s="28"/>
     </row>
     <row r="147" spans="2:13">
       <c r="B147" s="4">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E147" s="55"/>
       <c r="M147" s="28"/>
     </row>
     <row r="148" spans="2:13">
       <c r="B148" s="4">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E148" s="55"/>
       <c r="M148" s="28"/>
     </row>
     <row r="149" spans="2:13">
       <c r="B149" s="4">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E149" s="55"/>
       <c r="M149" s="28"/>
     </row>
     <row r="150" spans="2:13">
       <c r="B150" s="4">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E150" s="55"/>
       <c r="M150" s="28"/>
     </row>
     <row r="151" spans="2:13">
       <c r="B151" s="4">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E151" s="55"/>
       <c r="M151" s="28"/>
     </row>
     <row r="152" spans="2:13">
       <c r="B152" s="4">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E152" s="55"/>
       <c r="M152" s="28"/>
     </row>
     <row r="153" spans="2:13">
       <c r="B153" s="4">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E153" s="55"/>
       <c r="M153" s="28"/>
     </row>
     <row r="154" spans="2:13">
       <c r="B154" s="4">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E154" s="55"/>
       <c r="F154" s="55"/>
@@ -2839,49 +2839,49 @@
     </row>
     <row r="155" spans="2:13">
       <c r="B155" s="4">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E155" s="55"/>
       <c r="M155" s="28"/>
     </row>
     <row r="156" spans="2:13">
       <c r="B156" s="4">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E156" s="55"/>
       <c r="M156" s="28"/>
     </row>
     <row r="157" spans="2:13">
       <c r="B157" s="4">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E157" s="55"/>
       <c r="M157" s="28"/>
     </row>
     <row r="158" spans="2:13">
       <c r="B158" s="4">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E158" s="55"/>
       <c r="M158" s="28"/>
     </row>
     <row r="159" spans="2:13">
       <c r="B159" s="4">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E159" s="55"/>
       <c r="M159" s="28"/>
     </row>
     <row r="160" spans="2:13">
       <c r="B160" s="4">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E160" s="55"/>
       <c r="M160" s="28"/>
     </row>
     <row r="161" spans="2:13">
       <c r="B161" s="4">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E161" s="55"/>
       <c r="F161" s="55"/>
@@ -2889,19 +2889,19 @@
     </row>
     <row r="162" spans="2:13">
       <c r="B162" s="4">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M162" s="28"/>
     </row>
     <row r="163" spans="2:13">
       <c r="B163" s="4">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M163" s="28"/>
     </row>
     <row r="164" spans="2:13">
       <c r="B164" s="4">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E164" s="55"/>
       <c r="F164" s="55"/>
@@ -2909,88 +2909,94 @@
     </row>
     <row r="165" spans="2:13">
       <c r="B165" s="4">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E165" s="55"/>
       <c r="M165" s="28"/>
     </row>
     <row r="166" spans="2:13">
       <c r="B166" s="4">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M166" s="28"/>
     </row>
     <row r="167" spans="2:13">
       <c r="B167" s="4">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M167" s="28"/>
     </row>
     <row r="168" spans="2:13">
       <c r="B168" s="4">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M168" s="28"/>
     </row>
     <row r="169" spans="2:13">
       <c r="B169" s="4">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M169" s="28"/>
     </row>
     <row r="170" spans="2:13">
       <c r="B170" s="4">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M170" s="28"/>
     </row>
     <row r="171" spans="2:13">
       <c r="B171" s="4">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M171" s="28"/>
     </row>
     <row r="172" spans="2:13">
       <c r="B172" s="4">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M172" s="28"/>
     </row>
     <row r="173" spans="2:13">
       <c r="B173" s="4">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M173" s="28"/>
     </row>
     <row r="174" spans="2:13">
       <c r="B174" s="4">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M174" s="28"/>
     </row>
     <row r="175" spans="2:13">
       <c r="B175" s="4">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M175" s="28"/>
     </row>
     <row r="176" spans="2:13">
       <c r="B176" s="4">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M176" s="28"/>
     </row>
     <row r="177" spans="2:13">
       <c r="B177" s="4">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M177" s="28"/>
     </row>
     <row r="178" spans="2:13">
       <c r="B178" s="4">
+        <v>174</v>
+      </c>
+      <c r="M178" s="28"/>
+    </row>
+    <row r="179" spans="2:13">
+      <c r="B179" s="4">
         <v>175</v>
       </c>
-      <c r="M178" s="28"/>
+      <c r="M179" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3004,19 +3010,19 @@
           <x14:formula1>
             <xm:f>Windtunnels!$B$3:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>J4:K178</xm:sqref>
+          <xm:sqref>J4:K179</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{12AD86CE-9E6E-9F48-AEEE-7D1143C58B30}">
           <x14:formula1>
             <xm:f>Windtunnels!$D$3:$D$4</xm:f>
           </x14:formula1>
-          <xm:sqref>L4:L178 G4:G178</xm:sqref>
+          <xm:sqref>L4:L179 G4:G179</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BE1AFB58-885D-224A-A057-9669FDA4BA0C}">
           <x14:formula1>
             <xm:f>'Pressure layouts'!$I$2:$M$2</xm:f>
           </x14:formula1>
-          <xm:sqref>M4:M178</xm:sqref>
+          <xm:sqref>M4:M179</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Measurements/template_mastersheet.xlsx
+++ b/Measurements/template_mastersheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Michiel/Dimple - Working Documents/DimpleTech/10 Technology development/01 The Hill/03 Usage/Measurements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E58EEA5-6C4C-4346-9DCE-9E5F0D0E9EA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A250AAC-EF32-6B4C-B291-0EDEA4FC1C45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19600" xr2:uid="{E12EEECC-AC3A-F945-9F00-751131698F74}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19600" activeTab="2" xr2:uid="{E12EEECC-AC3A-F945-9F00-751131698F74}"/>
   </bookViews>
   <sheets>
     <sheet name="Measurements" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="65">
   <si>
     <t>Description</t>
   </si>
@@ -238,6 +238,12 @@
   </si>
   <si>
     <t>Rename this file to "mastersheet"</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>36x RSC</t>
   </si>
 </sst>
 </file>
@@ -632,7 +638,10 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -707,16 +716,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>312964</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>755195</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>376464</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>43995</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>317993</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>381493</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>26363</xdr:rowOff>
+      <xdr:rowOff>77163</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -739,8 +748,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12477750" y="1231445"/>
-          <a:ext cx="2515547" cy="3979239"/>
+          <a:off x="13381264" y="1288595"/>
+          <a:ext cx="2519629" cy="4109868"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -755,21 +764,21 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0D57EA5C-1A4F-0145-8A61-4E1C87C46D31}" name="Table2" displayName="Table2" ref="B3:P179" totalsRowShown="0">
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{6DFEB069-213E-4C41-A41E-B4525AFCB2C5}" name="Id" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{87672AE0-6118-BA4E-80BF-19BC32FE0220}" name="Date" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{6DFEB069-213E-4C41-A41E-B4525AFCB2C5}" name="Id" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{87672AE0-6118-BA4E-80BF-19BC32FE0220}" name="Date" dataDxfId="13"/>
     <tableColumn id="3" xr3:uid="{52BA862C-27CE-674B-9CD3-5E4429C9669C}" name="Name (no special char.)"/>
     <tableColumn id="11" xr3:uid="{95B20B57-5110-3C4A-9DFD-CA76DA8CF6F7}" name="Ref."/>
     <tableColumn id="9" xr3:uid="{09EC14DE-98CA-AA4D-B6AF-DE382F069FAF}" name="Target"/>
     <tableColumn id="12" xr3:uid="{BE796C7F-68D0-6645-94AA-B7002E72A59F}" name="Warm-up"/>
-    <tableColumn id="4" xr3:uid="{D1E2BBE1-2BC0-DA4F-8A85-91FFBBD7761C}" name="Description" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{D1E2BBE1-2BC0-DA4F-8A85-91FFBBD7761C}" name="Description" dataDxfId="12"/>
     <tableColumn id="5" xr3:uid="{6AC83ACA-4067-CA4C-B370-09E7180994D2}" name="Folder"/>
     <tableColumn id="6" xr3:uid="{10E836C4-1B84-7B47-BF7E-13EB73A5C4BE}" name="Tunnel automation"/>
     <tableColumn id="7" xr3:uid="{DEF9CE85-2D37-5140-98E7-8F596283D160}" name="Tunnel data"/>
     <tableColumn id="8" xr3:uid="{D1756B5F-31B9-864B-91FB-E569CC7771D5}" name="Use tunnel data"/>
-    <tableColumn id="10" xr3:uid="{EBF77888-AC1D-6148-862B-ECBE66202C2A}" name="Pressure config." dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{EBF77888-AC1D-6148-862B-ECBE66202C2A}" name="Pressure config." dataDxfId="11"/>
     <tableColumn id="13" xr3:uid="{13BEB114-0413-C148-9ED5-91291A5FA7B3}" name="p-channels"/>
     <tableColumn id="14" xr3:uid="{0922AE5D-D814-114F-B0A8-ACCE925BC7E9}" name="pitot channel"/>
-    <tableColumn id="15" xr3:uid="{7E8D49BF-CD66-4945-B81B-0552B1F6A806}" name="Pitot correct" dataDxfId="9" dataCellStyle="Percent"/>
+    <tableColumn id="15" xr3:uid="{7E8D49BF-CD66-4945-B81B-0552B1F6A806}" name="Pitot correct" dataDxfId="10" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -785,17 +794,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{38D08E86-0ADB-A042-863B-1132DA5621D6}" name="Table3" displayName="Table3" ref="D2:D4" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{38D08E86-0ADB-A042-863B-1132DA5621D6}" name="Table3" displayName="Table3" ref="D2:D4" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{9A1272F3-10CD-AA44-B7E0-F68FD351534B}" name="Use tunnel data?" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{9A1272F3-10CD-AA44-B7E0-F68FD351534B}" name="Use tunnel data?" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B8FA7679-22F8-BD4B-93AE-D90E20B4EA27}" name="Table46" displayName="Table46" ref="B2:M44" totalsRowShown="0" headerRowDxfId="5">
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B8FA7679-22F8-BD4B-93AE-D90E20B4EA27}" name="Table46" displayName="Table46" ref="B2:N44" totalsRowShown="0" headerRowDxfId="6">
+  <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{97DCEB29-EB01-5243-A78E-742014BA2D22}" name="Id"/>
     <tableColumn id="12" xr3:uid="{B180BC18-C432-FA48-81A4-D190A45717D0}" name=" "/>
     <tableColumn id="11" xr3:uid="{B322D8FF-A7B1-4846-B2C8-645E0BAE2B4E}" name="  "/>
@@ -803,11 +812,12 @@
     <tableColumn id="9" xr3:uid="{8D2A9EBF-0B1F-9D43-8CE2-9A744D3AEC6B}" name="    "/>
     <tableColumn id="8" xr3:uid="{9AABFB41-6943-AD42-8C3F-93E09B253B30}" name="     "/>
     <tableColumn id="7" xr3:uid="{A1F0A29F-12F2-9B47-BBFF-FC955A2F7D37}" name="        "/>
-    <tableColumn id="2" xr3:uid="{4AF53202-BBD5-424D-9EA7-05556A059C24}" name="1" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{705DBEB1-426E-3648-9DF3-A189389E8557}" name="2" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{397A62C7-6707-DF4F-8DDE-16066A85C00B}" name="3" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{10784330-8FAE-2346-8490-16F7F7CE6B31}" name="4" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{D40F3563-8485-AE45-8F1F-BB3B1F18E98D}" name="5" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{4AF53202-BBD5-424D-9EA7-05556A059C24}" name="1" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{705DBEB1-426E-3648-9DF3-A189389E8557}" name="2" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{397A62C7-6707-DF4F-8DDE-16066A85C00B}" name="3" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{10784330-8FAE-2346-8490-16F7F7CE6B31}" name="4" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{D40F3563-8485-AE45-8F1F-BB3B1F18E98D}" name="5" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{9DD5C194-C7C4-3F49-92AE-8F12CB585810}" name="6" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1112,7 +1122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD142BB9-230F-7B49-905A-C5597AFD6720}">
   <dimension ref="B1:P179"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="110" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -3094,10 +3104,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0A10DB1-E37C-5244-B63B-8274B8B3FC20}">
-  <dimension ref="B1:M44"/>
+  <dimension ref="B1:N44"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -3106,8 +3116,8 @@
     <col min="6" max="10" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="22" customHeight="1"/>
-    <row r="2" spans="2:13" s="9" customFormat="1">
+    <row r="1" spans="2:14" ht="22" customHeight="1"/>
+    <row r="2" spans="2:14" s="9" customFormat="1">
       <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
@@ -3144,8 +3154,11 @@
       <c r="M2" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="2:13" s="7" customFormat="1" ht="60" customHeight="1">
+      <c r="N2" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" s="7" customFormat="1" ht="60" customHeight="1">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
@@ -3170,8 +3183,11 @@
       <c r="M3" s="11" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="4" spans="2:13" s="7" customFormat="1" ht="17">
+      <c r="N3" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" s="7" customFormat="1" ht="17">
       <c r="B4" s="8" t="s">
         <v>23</v>
       </c>
@@ -3208,8 +3224,11 @@
       <c r="M4" s="14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="2:13">
+      <c r="N4" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
       <c r="B5" s="15" t="s">
         <v>44</v>
       </c>
@@ -3231,8 +3250,11 @@
       <c r="M5" s="22">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:13">
+      <c r="N5" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
       <c r="B6">
         <v>1</v>
       </c>
@@ -3259,8 +3281,11 @@
         <v>20</v>
       </c>
       <c r="M6" s="22"/>
-    </row>
-    <row r="7" spans="2:13">
+      <c r="N6" s="22">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
       <c r="B7">
         <v>2</v>
       </c>
@@ -3285,8 +3310,11 @@
       <c r="K7" s="22"/>
       <c r="L7" s="22"/>
       <c r="M7" s="22"/>
-    </row>
-    <row r="8" spans="2:13">
+      <c r="N7" s="22">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
       <c r="B8">
         <v>3</v>
       </c>
@@ -3311,8 +3339,9 @@
       <c r="K8" s="22"/>
       <c r="L8" s="22"/>
       <c r="M8" s="22"/>
-    </row>
-    <row r="9" spans="2:13">
+      <c r="N8" s="22"/>
+    </row>
+    <row r="9" spans="2:14">
       <c r="B9">
         <v>4</v>
       </c>
@@ -3337,8 +3366,9 @@
       <c r="K9" s="22"/>
       <c r="L9" s="22"/>
       <c r="M9" s="22"/>
-    </row>
-    <row r="10" spans="2:13">
+      <c r="N9" s="22"/>
+    </row>
+    <row r="10" spans="2:14">
       <c r="B10">
         <v>5</v>
       </c>
@@ -3363,8 +3393,9 @@
       <c r="K10" s="22"/>
       <c r="L10" s="22"/>
       <c r="M10" s="22"/>
-    </row>
-    <row r="11" spans="2:13">
+      <c r="N10" s="22"/>
+    </row>
+    <row r="11" spans="2:14">
       <c r="B11">
         <v>6</v>
       </c>
@@ -3389,8 +3420,9 @@
       <c r="K11" s="22"/>
       <c r="L11" s="22"/>
       <c r="M11" s="22"/>
-    </row>
-    <row r="12" spans="2:13">
+      <c r="N11" s="22"/>
+    </row>
+    <row r="12" spans="2:14">
       <c r="B12">
         <v>7</v>
       </c>
@@ -3415,8 +3447,11 @@
       <c r="K12" s="22"/>
       <c r="L12" s="22"/>
       <c r="M12" s="22"/>
-    </row>
-    <row r="13" spans="2:13">
+      <c r="N12" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
       <c r="B13">
         <v>8</v>
       </c>
@@ -3441,8 +3476,11 @@
       <c r="K13" s="22"/>
       <c r="L13" s="22"/>
       <c r="M13" s="22"/>
-    </row>
-    <row r="14" spans="2:13">
+      <c r="N13" s="22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
       <c r="B14">
         <v>9</v>
       </c>
@@ -3477,8 +3515,11 @@
         <v>11</v>
       </c>
       <c r="M14" s="22"/>
-    </row>
-    <row r="15" spans="2:13">
+      <c r="N14" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
       <c r="B15">
         <v>10</v>
       </c>
@@ -3507,8 +3548,11 @@
         <v>12</v>
       </c>
       <c r="M15" s="22"/>
-    </row>
-    <row r="16" spans="2:13">
+      <c r="N15" s="22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14">
       <c r="B16">
         <v>11</v>
       </c>
@@ -3537,8 +3581,11 @@
         <v>13</v>
       </c>
       <c r="M16" s="22"/>
-    </row>
-    <row r="17" spans="2:13">
+      <c r="N16" s="22">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14">
       <c r="B17">
         <v>12</v>
       </c>
@@ -3573,8 +3620,11 @@
         <v>14</v>
       </c>
       <c r="M17" s="22"/>
-    </row>
-    <row r="18" spans="2:13">
+      <c r="N17" s="22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14">
       <c r="B18">
         <v>13</v>
       </c>
@@ -3603,8 +3653,11 @@
         <v>15</v>
       </c>
       <c r="M18" s="22"/>
-    </row>
-    <row r="19" spans="2:13">
+      <c r="N18" s="22">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14">
       <c r="B19">
         <v>14</v>
       </c>
@@ -3635,8 +3688,11 @@
         <v>16</v>
       </c>
       <c r="M19" s="22"/>
-    </row>
-    <row r="20" spans="2:13">
+      <c r="N19" s="22">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14">
       <c r="B20">
         <v>15</v>
       </c>
@@ -3671,8 +3727,11 @@
         <v>17</v>
       </c>
       <c r="M20" s="22"/>
-    </row>
-    <row r="21" spans="2:13">
+      <c r="N20" s="22">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14">
       <c r="B21">
         <v>16</v>
       </c>
@@ -3706,8 +3765,11 @@
         <v>1</v>
       </c>
       <c r="M21" s="22"/>
-    </row>
-    <row r="22" spans="2:13">
+      <c r="N21" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14">
       <c r="B22">
         <v>17</v>
       </c>
@@ -3736,8 +3798,11 @@
         <v>2</v>
       </c>
       <c r="M22" s="22"/>
-    </row>
-    <row r="23" spans="2:13">
+      <c r="N22" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14">
       <c r="B23">
         <v>18</v>
       </c>
@@ -3766,8 +3831,11 @@
         <v>3</v>
       </c>
       <c r="M23" s="22"/>
-    </row>
-    <row r="24" spans="2:13">
+      <c r="N23" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14">
       <c r="B24">
         <v>19</v>
       </c>
@@ -3803,8 +3871,11 @@
         <v>6</v>
       </c>
       <c r="M24" s="22"/>
-    </row>
-    <row r="25" spans="2:13">
+      <c r="N24" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14">
       <c r="B25">
         <v>20</v>
       </c>
@@ -3840,8 +3911,11 @@
         <v>5</v>
       </c>
       <c r="M25" s="22"/>
-    </row>
-    <row r="26" spans="2:13">
+      <c r="N25" s="22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14">
       <c r="B26">
         <v>21</v>
       </c>
@@ -3870,8 +3944,11 @@
         <v>7</v>
       </c>
       <c r="M26" s="22"/>
-    </row>
-    <row r="27" spans="2:13">
+      <c r="N26" s="22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14">
       <c r="B27">
         <v>22</v>
       </c>
@@ -3900,8 +3977,11 @@
         <v>8</v>
       </c>
       <c r="M27" s="22"/>
-    </row>
-    <row r="28" spans="2:13">
+      <c r="N27" s="22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14">
       <c r="B28">
         <v>23</v>
       </c>
@@ -3935,8 +4015,11 @@
         <v>9</v>
       </c>
       <c r="M28" s="22"/>
-    </row>
-    <row r="29" spans="2:13">
+      <c r="N28" s="22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14">
       <c r="B29">
         <v>24</v>
       </c>
@@ -3961,8 +4044,11 @@
       <c r="K29" s="22"/>
       <c r="L29" s="22"/>
       <c r="M29" s="22"/>
-    </row>
-    <row r="30" spans="2:13">
+      <c r="N29" s="22">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14">
       <c r="B30">
         <v>25</v>
       </c>
@@ -3991,8 +4077,11 @@
         <v>18</v>
       </c>
       <c r="M30" s="22"/>
-    </row>
-    <row r="31" spans="2:13">
+      <c r="N30" s="22">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14">
       <c r="B31">
         <v>26</v>
       </c>
@@ -4017,8 +4106,11 @@
       <c r="K31" s="22"/>
       <c r="L31" s="22"/>
       <c r="M31" s="22"/>
-    </row>
-    <row r="32" spans="2:13">
+      <c r="N31" s="22">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14">
       <c r="B32">
         <v>27</v>
       </c>
@@ -4047,8 +4139,11 @@
         <v>19</v>
       </c>
       <c r="M32" s="22"/>
-    </row>
-    <row r="33" spans="2:13">
+      <c r="N32" s="22">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14">
       <c r="B33">
         <v>28</v>
       </c>
@@ -4073,8 +4168,9 @@
       <c r="K33" s="22"/>
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
-    </row>
-    <row r="34" spans="2:13">
+      <c r="N33" s="22"/>
+    </row>
+    <row r="34" spans="2:14">
       <c r="B34">
         <v>29</v>
       </c>
@@ -4101,8 +4197,9 @@
       <c r="K34" s="22"/>
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
-    </row>
-    <row r="35" spans="2:13">
+      <c r="N34" s="22"/>
+    </row>
+    <row r="35" spans="2:14">
       <c r="B35">
         <v>30</v>
       </c>
@@ -4127,8 +4224,11 @@
       <c r="K35" s="22"/>
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
-    </row>
-    <row r="36" spans="2:13">
+      <c r="N35" s="22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14">
       <c r="B36">
         <v>31</v>
       </c>
@@ -4155,8 +4255,11 @@
       <c r="K36" s="22"/>
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
-    </row>
-    <row r="37" spans="2:13">
+      <c r="N36" s="22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14">
       <c r="B37">
         <v>32</v>
       </c>
@@ -4181,8 +4284,11 @@
       <c r="K37" s="22"/>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
-    </row>
-    <row r="38" spans="2:13">
+      <c r="N37" s="22">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14">
       <c r="B38">
         <v>33</v>
       </c>
@@ -4209,8 +4315,11 @@
       <c r="K38" s="22"/>
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
-    </row>
-    <row r="39" spans="2:13">
+      <c r="N38" s="22">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14">
       <c r="B39">
         <v>34</v>
       </c>
@@ -4235,8 +4344,11 @@
       <c r="K39" s="22"/>
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
-    </row>
-    <row r="40" spans="2:13">
+      <c r="N39" s="22">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14">
       <c r="B40">
         <v>35</v>
       </c>
@@ -4263,8 +4375,11 @@
       <c r="K40" s="22"/>
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
-    </row>
-    <row r="41" spans="2:13">
+      <c r="N40" s="22">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14">
       <c r="B41">
         <v>36</v>
       </c>
@@ -4289,8 +4404,11 @@
       <c r="K41" s="22"/>
       <c r="L41" s="22"/>
       <c r="M41" s="22"/>
-    </row>
-    <row r="42" spans="2:13">
+      <c r="N41" s="22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14">
       <c r="B42">
         <v>37</v>
       </c>
@@ -4317,8 +4435,11 @@
       <c r="K42" s="22"/>
       <c r="L42" s="22"/>
       <c r="M42" s="22"/>
-    </row>
-    <row r="43" spans="2:13">
+      <c r="N42" s="22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14">
       <c r="B43">
         <v>38</v>
       </c>
@@ -4343,8 +4464,11 @@
       <c r="K43" s="22"/>
       <c r="L43" s="22"/>
       <c r="M43" s="22"/>
-    </row>
-    <row r="44" spans="2:13">
+      <c r="N43" s="22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14">
       <c r="B44">
         <v>39</v>
       </c>
@@ -4371,6 +4495,9 @@
       <c r="K44" s="22"/>
       <c r="L44" s="22"/>
       <c r="M44" s="22"/>
+      <c r="N44" s="22">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Measurements/template_mastersheet.xlsx
+++ b/Measurements/template_mastersheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Michiel/Dimple - Working Documents/DimpleTech/10 Technology development/01 The Hill/03 Usage/Measurements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A250AAC-EF32-6B4C-B291-0EDEA4FC1C45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD30F57-78B5-F144-AC10-56D3FCC6926D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19600" activeTab="2" xr2:uid="{E12EEECC-AC3A-F945-9F00-751131698F74}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19600" xr2:uid="{E12EEECC-AC3A-F945-9F00-751131698F74}"/>
   </bookViews>
   <sheets>
     <sheet name="Measurements" sheetId="1" r:id="rId1"/>
@@ -1122,8 +1122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD142BB9-230F-7B49-905A-C5597AFD6720}">
   <dimension ref="B1:P179"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1232,7 +1232,7 @@
         <v>34</v>
       </c>
       <c r="M4" s="28" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="N4" s="50"/>
       <c r="O4" s="52"/>
@@ -3030,7 +3030,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BE1AFB58-885D-224A-A057-9669FDA4BA0C}">
           <x14:formula1>
-            <xm:f>'Pressure layouts'!$I$2:$M$2</xm:f>
+            <xm:f>'Pressure layouts'!$I$2:$N$2</xm:f>
           </x14:formula1>
           <xm:sqref>M4:M179</xm:sqref>
         </x14:dataValidation>
@@ -3106,7 +3106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0A10DB1-E37C-5244-B63B-8274B8B3FC20}">
   <dimension ref="B1:N44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>

--- a/Measurements/template_mastersheet.xlsx
+++ b/Measurements/template_mastersheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Michiel/Dimple - Working Documents/DimpleTech/10 Technology development/01 The Hill/03 Usage/Measurements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD30F57-78B5-F144-AC10-56D3FCC6926D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7692E1EB-7FE4-4B48-BA83-0FE6B478A4A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19600" xr2:uid="{E12EEECC-AC3A-F945-9F00-751131698F74}"/>
+    <workbookView xWindow="-5900" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{E12EEECC-AC3A-F945-9F00-751131698F74}"/>
   </bookViews>
   <sheets>
     <sheet name="Measurements" sheetId="1" r:id="rId1"/>
@@ -254,7 +254,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -304,7 +304,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="20"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -312,21 +312,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="5"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -502,7 +487,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -511,7 +496,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -609,15 +593,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -628,17 +608,255 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -668,36 +886,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -762,23 +950,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0D57EA5C-1A4F-0145-8A61-4E1C87C46D31}" name="Table2" displayName="Table2" ref="B3:P179" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0D57EA5C-1A4F-0145-8A61-4E1C87C46D31}" name="Table2" displayName="Table2" ref="B3:P179" totalsRowShown="0" dataDxfId="0">
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{6DFEB069-213E-4C41-A41E-B4525AFCB2C5}" name="Id" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{87672AE0-6118-BA4E-80BF-19BC32FE0220}" name="Date" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{52BA862C-27CE-674B-9CD3-5E4429C9669C}" name="Name (no special char.)"/>
-    <tableColumn id="11" xr3:uid="{95B20B57-5110-3C4A-9DFD-CA76DA8CF6F7}" name="Ref."/>
-    <tableColumn id="9" xr3:uid="{09EC14DE-98CA-AA4D-B6AF-DE382F069FAF}" name="Target"/>
-    <tableColumn id="12" xr3:uid="{BE796C7F-68D0-6645-94AA-B7002E72A59F}" name="Warm-up"/>
-    <tableColumn id="4" xr3:uid="{D1E2BBE1-2BC0-DA4F-8A85-91FFBBD7761C}" name="Description" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{6AC83ACA-4067-CA4C-B370-09E7180994D2}" name="Folder"/>
-    <tableColumn id="6" xr3:uid="{10E836C4-1B84-7B47-BF7E-13EB73A5C4BE}" name="Tunnel automation"/>
-    <tableColumn id="7" xr3:uid="{DEF9CE85-2D37-5140-98E7-8F596283D160}" name="Tunnel data"/>
-    <tableColumn id="8" xr3:uid="{D1756B5F-31B9-864B-91FB-E569CC7771D5}" name="Use tunnel data"/>
-    <tableColumn id="10" xr3:uid="{EBF77888-AC1D-6148-862B-ECBE66202C2A}" name="Pressure config." dataDxfId="11"/>
-    <tableColumn id="13" xr3:uid="{13BEB114-0413-C148-9ED5-91291A5FA7B3}" name="p-channels"/>
-    <tableColumn id="14" xr3:uid="{0922AE5D-D814-114F-B0A8-ACCE925BC7E9}" name="pitot channel"/>
-    <tableColumn id="15" xr3:uid="{7E8D49BF-CD66-4945-B81B-0552B1F6A806}" name="Pitot correct" dataDxfId="10" dataCellStyle="Percent"/>
+    <tableColumn id="1" xr3:uid="{6DFEB069-213E-4C41-A41E-B4525AFCB2C5}" name="Id" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{87672AE0-6118-BA4E-80BF-19BC32FE0220}" name="Date" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{52BA862C-27CE-674B-9CD3-5E4429C9669C}" name="Name (no special char.)" dataDxfId="13"/>
+    <tableColumn id="11" xr3:uid="{95B20B57-5110-3C4A-9DFD-CA76DA8CF6F7}" name="Ref." dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{09EC14DE-98CA-AA4D-B6AF-DE382F069FAF}" name="Target" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{BE796C7F-68D0-6645-94AA-B7002E72A59F}" name="Warm-up" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{D1E2BBE1-2BC0-DA4F-8A85-91FFBBD7761C}" name="Description" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{6AC83ACA-4067-CA4C-B370-09E7180994D2}" name="Folder" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{10E836C4-1B84-7B47-BF7E-13EB73A5C4BE}" name="Tunnel automation" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{DEF9CE85-2D37-5140-98E7-8F596283D160}" name="Tunnel data" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{D1756B5F-31B9-864B-91FB-E569CC7771D5}" name="Use tunnel data" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{EBF77888-AC1D-6148-862B-ECBE66202C2A}" name="Pressure config." dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{13BEB114-0413-C148-9ED5-91291A5FA7B3}" name="p-channels" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{0922AE5D-D814-114F-B0A8-ACCE925BC7E9}" name="pitot channel" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{7E8D49BF-CD66-4945-B81B-0552B1F6A806}" name="Pitot correct" dataDxfId="1" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -794,16 +982,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{38D08E86-0ADB-A042-863B-1132DA5621D6}" name="Table3" displayName="Table3" ref="D2:D4" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{38D08E86-0ADB-A042-863B-1132DA5621D6}" name="Table3" displayName="Table3" ref="D2:D4" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{9A1272F3-10CD-AA44-B7E0-F68FD351534B}" name="Use tunnel data?" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{9A1272F3-10CD-AA44-B7E0-F68FD351534B}" name="Use tunnel data?" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B8FA7679-22F8-BD4B-93AE-D90E20B4EA27}" name="Table46" displayName="Table46" ref="B2:N44" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B8FA7679-22F8-BD4B-93AE-D90E20B4EA27}" name="Table46" displayName="Table46" ref="B2:N44" totalsRowShown="0" headerRowDxfId="22">
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{97DCEB29-EB01-5243-A78E-742014BA2D22}" name="Id"/>
     <tableColumn id="12" xr3:uid="{B180BC18-C432-FA48-81A4-D190A45717D0}" name=" "/>
@@ -812,12 +1000,12 @@
     <tableColumn id="9" xr3:uid="{8D2A9EBF-0B1F-9D43-8CE2-9A744D3AEC6B}" name="    "/>
     <tableColumn id="8" xr3:uid="{9AABFB41-6943-AD42-8C3F-93E09B253B30}" name="     "/>
     <tableColumn id="7" xr3:uid="{A1F0A29F-12F2-9B47-BBFF-FC955A2F7D37}" name="        "/>
-    <tableColumn id="2" xr3:uid="{4AF53202-BBD5-424D-9EA7-05556A059C24}" name="1" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{705DBEB1-426E-3648-9DF3-A189389E8557}" name="2" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{397A62C7-6707-DF4F-8DDE-16066A85C00B}" name="3" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{10784330-8FAE-2346-8490-16F7F7CE6B31}" name="4" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{D40F3563-8485-AE45-8F1F-BB3B1F18E98D}" name="5" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{9DD5C194-C7C4-3F49-92AE-8F12CB585810}" name="6" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{4AF53202-BBD5-424D-9EA7-05556A059C24}" name="1" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{705DBEB1-426E-3648-9DF3-A189389E8557}" name="2" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{397A62C7-6707-DF4F-8DDE-16066A85C00B}" name="3" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{10784330-8FAE-2346-8490-16F7F7CE6B31}" name="4" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{D40F3563-8485-AE45-8F1F-BB3B1F18E98D}" name="5" dataDxfId="17"/>
+    <tableColumn id="13" xr3:uid="{9DD5C194-C7C4-3F49-92AE-8F12CB585810}" name="6" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1122,15 +1310,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD142BB9-230F-7B49-905A-C5597AFD6720}">
   <dimension ref="B1:P179"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="5.83203125" customWidth="1"/>
     <col min="2" max="2" width="5.1640625" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="4" customWidth="1"/>
     <col min="4" max="4" width="40.1640625" customWidth="1"/>
     <col min="5" max="6" width="11.5" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" customWidth="1"/>
@@ -1138,18 +1326,18 @@
     <col min="9" max="9" width="38.83203125" customWidth="1"/>
     <col min="10" max="11" width="19.1640625" customWidth="1"/>
     <col min="12" max="13" width="16.6640625" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="12" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5" style="43" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="16" max="16" width="11.5" style="42" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="42" customHeight="1">
       <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="57" t="s">
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="44" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1157,7 +1345,7 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
@@ -1196,1817 +1384,3373 @@
       <c r="O3" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="43" t="s">
+      <c r="P3" s="42" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="2:16">
-      <c r="B4" s="4">
+      <c r="B4" s="45">
         <v>0</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="46">
         <v>43831</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="I4" t="s">
+      <c r="H4" s="48"/>
+      <c r="I4" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="28" t="s">
+      <c r="M4" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="N4" s="50"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="53">
-        <v>8.7999999999999995E-2</v>
-      </c>
+      <c r="N4" s="47"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="50"/>
     </row>
     <row r="5" spans="2:16">
-      <c r="B5" s="4">
+      <c r="B5" s="45">
         <v>1</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="53">
-        <v>8.7999999999999995E-2</v>
-      </c>
+      <c r="C5" s="46"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="50"/>
     </row>
     <row r="6" spans="2:16">
-      <c r="B6" s="4">
+      <c r="B6" s="45">
         <v>2</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="53">
-        <v>8.7999999999999995E-2</v>
-      </c>
+      <c r="C6" s="46"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="50"/>
     </row>
     <row r="7" spans="2:16">
-      <c r="B7" s="4">
+      <c r="B7" s="45">
         <v>3</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="53">
-        <v>8.7999999999999995E-2</v>
-      </c>
+      <c r="C7" s="46"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="50"/>
     </row>
     <row r="8" spans="2:16">
-      <c r="B8" s="4">
+      <c r="B8" s="45">
         <v>4</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="53">
-        <v>8.7999999999999995E-2</v>
-      </c>
+      <c r="C8" s="46"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="50"/>
     </row>
     <row r="9" spans="2:16">
-      <c r="B9" s="4">
+      <c r="B9" s="45">
         <v>5</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="53">
-        <v>8.7999999999999995E-2</v>
-      </c>
+      <c r="C9" s="46"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="50"/>
     </row>
     <row r="10" spans="2:16">
-      <c r="B10" s="4">
+      <c r="B10" s="45">
         <v>6</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="48">
-        <v>8.7999999999999995E-2</v>
-      </c>
+      <c r="C10" s="46"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="50"/>
     </row>
     <row r="11" spans="2:16">
-      <c r="B11" s="4">
+      <c r="B11" s="45">
         <v>7</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="53">
-        <v>8.7999999999999995E-2</v>
-      </c>
+      <c r="C11" s="46"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="50"/>
     </row>
     <row r="12" spans="2:16">
-      <c r="B12" s="4">
+      <c r="B12" s="45">
         <v>8</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="50">
+      <c r="C12" s="46"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="50"/>
+    </row>
+    <row r="13" spans="2:16">
+      <c r="B13" s="45">
+        <v>9</v>
+      </c>
+      <c r="C13" s="46"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="50"/>
+    </row>
+    <row r="14" spans="2:16">
+      <c r="B14" s="45">
         <v>10</v>
       </c>
-      <c r="O12" s="52">
-        <v>10</v>
-      </c>
-      <c r="P12" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16">
-      <c r="B13" s="4">
-        <v>9</v>
-      </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="50">
-        <v>10</v>
-      </c>
-      <c r="O13" s="52">
-        <v>10</v>
-      </c>
-      <c r="P13" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16">
-      <c r="B14" s="4">
-        <v>10</v>
-      </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="50">
-        <v>10</v>
-      </c>
-      <c r="O14" s="52">
-        <v>10</v>
-      </c>
-      <c r="P14" s="53">
-        <v>0</v>
-      </c>
+      <c r="C14" s="46"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="50"/>
     </row>
     <row r="15" spans="2:16">
-      <c r="B15" s="4">
+      <c r="B15" s="45">
         <v>11</v>
       </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="50">
+      <c r="C15" s="46"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="50"/>
+    </row>
+    <row r="16" spans="2:16">
+      <c r="B16" s="45">
         <v>12</v>
       </c>
-      <c r="O15" s="52">
-        <v>11</v>
-      </c>
-      <c r="P15" s="53">
-        <v>8.7999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16">
-      <c r="B16" s="4">
-        <v>12</v>
-      </c>
-      <c r="C16" s="49"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="50">
-        <v>12</v>
-      </c>
-      <c r="O16" s="52">
-        <v>11</v>
-      </c>
-      <c r="P16" s="53">
-        <v>8.7999999999999995E-2</v>
-      </c>
+      <c r="C16" s="46"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="50"/>
     </row>
     <row r="17" spans="2:16">
-      <c r="B17" s="4">
+      <c r="B17" s="45">
         <v>13</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="53">
-        <v>8.7999999999999995E-2</v>
-      </c>
+      <c r="C17" s="46"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="50"/>
     </row>
     <row r="18" spans="2:16">
-      <c r="B18" s="4">
+      <c r="B18" s="45">
         <v>14</v>
       </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="50">
-        <v>1</v>
-      </c>
-      <c r="O18" s="52">
-        <v>1</v>
-      </c>
-      <c r="P18" s="53">
-        <v>8.7999999999999995E-2</v>
-      </c>
+      <c r="C18" s="46"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="50"/>
     </row>
     <row r="19" spans="2:16">
-      <c r="B19" s="4">
+      <c r="B19" s="45">
         <v>15</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="46">
-        <v>1</v>
-      </c>
-      <c r="O19" s="47">
-        <v>1</v>
-      </c>
-      <c r="P19" s="48">
-        <v>8.7999999999999995E-2</v>
-      </c>
+      <c r="C19" s="46"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="50"/>
     </row>
     <row r="20" spans="2:16">
-      <c r="B20" s="4">
+      <c r="B20" s="45">
         <v>16</v>
       </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="50">
-        <v>1</v>
-      </c>
-      <c r="O20" s="52">
-        <v>1</v>
-      </c>
-      <c r="P20" s="53">
-        <v>8.7999999999999995E-2</v>
-      </c>
+      <c r="C20" s="46"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="50"/>
     </row>
     <row r="21" spans="2:16">
-      <c r="B21" s="4">
+      <c r="B21" s="45">
         <v>17</v>
       </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="46">
-        <v>1</v>
-      </c>
-      <c r="O21" s="47">
-        <v>1</v>
-      </c>
-      <c r="P21" s="48">
-        <v>8.7999999999999995E-2</v>
-      </c>
+      <c r="C21" s="46"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="50"/>
     </row>
     <row r="22" spans="2:16">
-      <c r="B22" s="4">
+      <c r="B22" s="45">
         <v>18</v>
       </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="50">
-        <v>1</v>
-      </c>
-      <c r="O22" s="52">
-        <v>1</v>
-      </c>
-      <c r="P22" s="53">
-        <v>8.7999999999999995E-2</v>
-      </c>
+      <c r="C22" s="46"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="50"/>
     </row>
     <row r="23" spans="2:16">
-      <c r="B23" s="4">
+      <c r="B23" s="45">
         <v>19</v>
       </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="50">
-        <v>1</v>
-      </c>
-      <c r="O23" s="52">
-        <v>1</v>
-      </c>
-      <c r="P23" s="53">
-        <v>8.7999999999999995E-2</v>
-      </c>
+      <c r="C23" s="46"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="50"/>
     </row>
     <row r="24" spans="2:16">
-      <c r="B24" s="4">
+      <c r="B24" s="45">
         <v>20</v>
       </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="46">
-        <v>1</v>
-      </c>
-      <c r="O24" s="47">
-        <v>1</v>
-      </c>
-      <c r="P24" s="48">
-        <v>8.7999999999999995E-2</v>
-      </c>
+      <c r="C24" s="46"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="50"/>
     </row>
     <row r="25" spans="2:16">
-      <c r="B25" s="4">
+      <c r="B25" s="45">
         <v>21</v>
       </c>
-      <c r="C25" s="49"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="50">
-        <v>1</v>
-      </c>
-      <c r="O25" s="52">
-        <v>1</v>
-      </c>
-      <c r="P25" s="53">
-        <v>8.7999999999999995E-2</v>
-      </c>
+      <c r="C25" s="46"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="50"/>
     </row>
     <row r="26" spans="2:16">
-      <c r="B26" s="4">
+      <c r="B26" s="45">
         <v>22</v>
       </c>
-      <c r="C26" s="49"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="50">
-        <v>1</v>
-      </c>
-      <c r="O26" s="52">
-        <v>1</v>
-      </c>
-      <c r="P26" s="53">
-        <v>8.7999999999999995E-2</v>
-      </c>
+      <c r="C26" s="46"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="50"/>
     </row>
     <row r="27" spans="2:16">
-      <c r="B27" s="4">
+      <c r="B27" s="45">
         <v>23</v>
       </c>
-      <c r="C27" s="49"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="50">
-        <v>1</v>
-      </c>
-      <c r="O27" s="52">
-        <v>1</v>
-      </c>
-      <c r="P27" s="53">
-        <v>8.7999999999999995E-2</v>
-      </c>
+      <c r="C27" s="46"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="50"/>
     </row>
     <row r="28" spans="2:16">
-      <c r="B28" s="4">
+      <c r="B28" s="45">
         <v>24</v>
       </c>
-      <c r="C28" s="49"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="50">
-        <v>1</v>
-      </c>
-      <c r="O28" s="52">
-        <v>1</v>
-      </c>
-      <c r="P28" s="53">
-        <v>8.7999999999999995E-2</v>
-      </c>
+      <c r="C28" s="46"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="50"/>
     </row>
     <row r="29" spans="2:16">
-      <c r="B29" s="4">
+      <c r="B29" s="45">
         <v>25</v>
       </c>
-      <c r="C29" s="49"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="50">
-        <v>1</v>
-      </c>
-      <c r="O29" s="52">
-        <v>1</v>
-      </c>
-      <c r="P29" s="53">
-        <v>8.7999999999999995E-2</v>
-      </c>
+      <c r="C29" s="46"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="50"/>
     </row>
     <row r="30" spans="2:16">
-      <c r="B30" s="4">
+      <c r="B30" s="45">
         <v>26</v>
       </c>
-      <c r="C30" s="49"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="50">
-        <v>1</v>
-      </c>
-      <c r="O30" s="52">
-        <v>1</v>
-      </c>
-      <c r="P30" s="53">
-        <v>8.7999999999999995E-2</v>
-      </c>
+      <c r="C30" s="46"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="50"/>
     </row>
     <row r="31" spans="2:16">
-      <c r="B31" s="4">
+      <c r="B31" s="45">
         <v>27</v>
       </c>
-      <c r="C31" s="49"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="50">
-        <v>1</v>
-      </c>
-      <c r="O31" s="52">
-        <v>1</v>
-      </c>
-      <c r="P31" s="53">
-        <v>8.7999999999999995E-2</v>
-      </c>
+      <c r="C31" s="46"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="50"/>
     </row>
     <row r="32" spans="2:16">
-      <c r="B32" s="4">
+      <c r="B32" s="45">
         <v>28</v>
       </c>
-      <c r="C32" s="49"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="50">
-        <v>1</v>
-      </c>
-      <c r="O32" s="52">
-        <v>1</v>
-      </c>
-      <c r="P32" s="53">
-        <v>8.7999999999999995E-2</v>
-      </c>
+      <c r="C32" s="46"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="50"/>
     </row>
     <row r="33" spans="2:16">
-      <c r="B33" s="4">
+      <c r="B33" s="45">
         <v>29</v>
       </c>
-      <c r="H33"/>
-      <c r="M33" s="28"/>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33" s="28">
-        <v>1</v>
-      </c>
-      <c r="P33" s="43">
-        <v>8.7999999999999995E-2</v>
-      </c>
+      <c r="C33" s="46"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="47"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="50"/>
     </row>
     <row r="34" spans="2:16">
-      <c r="B34" s="4">
+      <c r="B34" s="45">
         <v>30</v>
       </c>
-      <c r="H34"/>
-      <c r="M34" s="28"/>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34" s="28">
-        <v>1</v>
-      </c>
-      <c r="P34" s="43">
-        <v>8.7999999999999995E-2</v>
-      </c>
+      <c r="C34" s="46"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="47"/>
+      <c r="O34" s="49"/>
+      <c r="P34" s="50"/>
     </row>
     <row r="35" spans="2:16">
-      <c r="B35" s="4">
+      <c r="B35" s="45">
         <v>31</v>
       </c>
-      <c r="H35"/>
-      <c r="M35" s="28"/>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35" s="28">
-        <v>1</v>
-      </c>
-      <c r="P35" s="43">
-        <v>8.7999999999999995E-2</v>
-      </c>
+      <c r="C35" s="46"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="50"/>
     </row>
     <row r="36" spans="2:16">
-      <c r="B36" s="4">
+      <c r="B36" s="45">
         <v>32</v>
       </c>
-      <c r="H36"/>
-      <c r="M36" s="28"/>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36" s="28">
-        <v>1</v>
-      </c>
-      <c r="P36" s="43">
-        <v>8.7999999999999995E-2</v>
-      </c>
+      <c r="C36" s="46"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="50"/>
     </row>
     <row r="37" spans="2:16">
-      <c r="B37" s="4">
+      <c r="B37" s="45">
         <v>33</v>
       </c>
-      <c r="H37"/>
-      <c r="M37" s="28"/>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37" s="28">
-        <v>1</v>
-      </c>
-      <c r="P37" s="43">
-        <v>8.7999999999999995E-2</v>
-      </c>
+      <c r="C37" s="46"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="47"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="50"/>
     </row>
     <row r="38" spans="2:16">
-      <c r="B38" s="4">
+      <c r="B38" s="45">
         <v>34</v>
       </c>
-      <c r="H38"/>
-      <c r="M38" s="28"/>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38" s="28">
-        <v>1</v>
-      </c>
-      <c r="P38" s="43">
-        <v>8.7999999999999995E-2</v>
-      </c>
+      <c r="C38" s="46"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="47"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="47"/>
+      <c r="O38" s="49"/>
+      <c r="P38" s="50"/>
     </row>
     <row r="39" spans="2:16">
-      <c r="B39" s="4">
+      <c r="B39" s="45">
         <v>35</v>
       </c>
-      <c r="H39"/>
-      <c r="M39" s="28"/>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39" s="28">
-        <v>1</v>
-      </c>
-      <c r="P39" s="43">
-        <v>8.7999999999999995E-2</v>
-      </c>
+      <c r="C39" s="46"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="47"/>
+      <c r="O39" s="49"/>
+      <c r="P39" s="50"/>
     </row>
     <row r="40" spans="2:16">
-      <c r="B40" s="4">
+      <c r="B40" s="45">
         <v>36</v>
       </c>
-      <c r="H40"/>
-      <c r="M40" s="28"/>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40" s="28">
-        <v>1</v>
-      </c>
-      <c r="P40" s="43">
-        <v>8.7999999999999995E-2</v>
-      </c>
+      <c r="C40" s="46"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="47"/>
+      <c r="O40" s="49"/>
+      <c r="P40" s="50"/>
     </row>
     <row r="41" spans="2:16">
-      <c r="B41" s="4">
+      <c r="B41" s="45">
         <v>37</v>
       </c>
-      <c r="H41"/>
-      <c r="M41" s="28"/>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41" s="28">
-        <v>1</v>
-      </c>
-      <c r="P41" s="43">
-        <v>8.7999999999999995E-2</v>
-      </c>
+      <c r="C41" s="46"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="49"/>
+      <c r="N41" s="47"/>
+      <c r="O41" s="49"/>
+      <c r="P41" s="50"/>
     </row>
     <row r="42" spans="2:16">
-      <c r="B42" s="4">
+      <c r="B42" s="45">
         <v>38</v>
       </c>
-      <c r="M42" s="28"/>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42" s="28">
-        <v>1</v>
-      </c>
-      <c r="P42" s="43">
-        <v>8.7999999999999995E-2</v>
-      </c>
+      <c r="C42" s="46"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="49"/>
+      <c r="N42" s="47"/>
+      <c r="O42" s="49"/>
+      <c r="P42" s="50"/>
     </row>
     <row r="43" spans="2:16">
-      <c r="B43" s="4">
+      <c r="B43" s="45">
         <v>39</v>
       </c>
-      <c r="C43" s="45"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="46"/>
-      <c r="J43" s="46"/>
-      <c r="K43" s="46"/>
-      <c r="L43" s="46"/>
-      <c r="M43" s="47"/>
-      <c r="N43" s="46">
-        <v>1</v>
-      </c>
-      <c r="O43" s="47">
-        <v>1</v>
-      </c>
-      <c r="P43" s="48">
-        <v>8.7999999999999995E-2</v>
-      </c>
+      <c r="C43" s="46"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="47"/>
+      <c r="L43" s="47"/>
+      <c r="M43" s="49"/>
+      <c r="N43" s="47"/>
+      <c r="O43" s="49"/>
+      <c r="P43" s="50"/>
     </row>
     <row r="44" spans="2:16">
-      <c r="B44" s="4">
+      <c r="B44" s="45">
         <v>40</v>
       </c>
-      <c r="M44" s="28"/>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44" s="28">
-        <v>1</v>
-      </c>
-      <c r="P44" s="43">
-        <v>8.7999999999999995E-2</v>
-      </c>
+      <c r="C44" s="46"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="49"/>
+      <c r="N44" s="47"/>
+      <c r="O44" s="49"/>
+      <c r="P44" s="50"/>
     </row>
     <row r="45" spans="2:16">
-      <c r="B45" s="4">
+      <c r="B45" s="45">
         <v>41</v>
       </c>
-      <c r="M45" s="28"/>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45" s="28">
-        <v>1</v>
-      </c>
-      <c r="P45" s="43">
-        <v>8.7999999999999995E-2</v>
-      </c>
+      <c r="C45" s="46"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="49"/>
+      <c r="N45" s="47"/>
+      <c r="O45" s="49"/>
+      <c r="P45" s="50"/>
     </row>
     <row r="46" spans="2:16">
-      <c r="B46" s="4">
+      <c r="B46" s="45">
         <v>42</v>
       </c>
-      <c r="M46" s="28"/>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46" s="28">
-        <v>1</v>
-      </c>
-      <c r="P46" s="43">
-        <v>8.7999999999999995E-2</v>
-      </c>
+      <c r="C46" s="46"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="49"/>
+      <c r="N46" s="47"/>
+      <c r="O46" s="49"/>
+      <c r="P46" s="50"/>
     </row>
     <row r="47" spans="2:16">
-      <c r="B47" s="4">
+      <c r="B47" s="45">
         <v>43</v>
       </c>
-      <c r="M47" s="28"/>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47" s="28">
-        <v>1</v>
-      </c>
-      <c r="P47" s="43">
-        <v>8.7999999999999995E-2</v>
-      </c>
+      <c r="C47" s="46"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="47"/>
+      <c r="K47" s="47"/>
+      <c r="L47" s="47"/>
+      <c r="M47" s="49"/>
+      <c r="N47" s="47"/>
+      <c r="O47" s="49"/>
+      <c r="P47" s="50"/>
     </row>
     <row r="48" spans="2:16">
-      <c r="B48" s="4">
+      <c r="B48" s="45">
         <v>44</v>
       </c>
-      <c r="M48" s="28"/>
-      <c r="O48" s="28"/>
-      <c r="P48" s="43">
-        <v>0</v>
-      </c>
+      <c r="C48" s="46"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="47"/>
+      <c r="K48" s="47"/>
+      <c r="L48" s="47"/>
+      <c r="M48" s="49"/>
+      <c r="N48" s="47"/>
+      <c r="O48" s="49"/>
+      <c r="P48" s="50"/>
     </row>
     <row r="49" spans="2:16">
-      <c r="B49" s="4">
+      <c r="B49" s="45">
         <v>45</v>
       </c>
-      <c r="M49" s="28"/>
-      <c r="O49" s="28"/>
-      <c r="P49" s="43">
-        <v>0</v>
-      </c>
+      <c r="C49" s="46"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="47"/>
+      <c r="J49" s="47"/>
+      <c r="K49" s="47"/>
+      <c r="L49" s="47"/>
+      <c r="M49" s="49"/>
+      <c r="N49" s="47"/>
+      <c r="O49" s="49"/>
+      <c r="P49" s="50"/>
     </row>
     <row r="50" spans="2:16">
-      <c r="B50" s="4">
+      <c r="B50" s="45">
         <v>46</v>
       </c>
-      <c r="M50" s="28"/>
-      <c r="O50" s="28"/>
-      <c r="P50" s="43">
-        <v>0</v>
-      </c>
+      <c r="C50" s="46"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="47"/>
+      <c r="J50" s="47"/>
+      <c r="K50" s="47"/>
+      <c r="L50" s="47"/>
+      <c r="M50" s="49"/>
+      <c r="N50" s="47"/>
+      <c r="O50" s="49"/>
+      <c r="P50" s="50"/>
     </row>
     <row r="51" spans="2:16">
-      <c r="B51" s="4">
+      <c r="B51" s="45">
         <v>47</v>
       </c>
-      <c r="M51" s="28"/>
-      <c r="O51" s="28"/>
-      <c r="P51" s="43">
-        <v>0</v>
-      </c>
+      <c r="C51" s="46"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="47"/>
+      <c r="K51" s="47"/>
+      <c r="L51" s="47"/>
+      <c r="M51" s="49"/>
+      <c r="N51" s="47"/>
+      <c r="O51" s="49"/>
+      <c r="P51" s="50"/>
     </row>
     <row r="52" spans="2:16">
-      <c r="B52" s="4">
+      <c r="B52" s="45">
         <v>48</v>
       </c>
-      <c r="M52" s="28"/>
-      <c r="O52" s="28"/>
-      <c r="P52" s="43">
-        <v>0</v>
-      </c>
+      <c r="C52" s="46"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="47"/>
+      <c r="J52" s="47"/>
+      <c r="K52" s="47"/>
+      <c r="L52" s="47"/>
+      <c r="M52" s="49"/>
+      <c r="N52" s="47"/>
+      <c r="O52" s="49"/>
+      <c r="P52" s="50"/>
     </row>
     <row r="53" spans="2:16">
-      <c r="B53" s="4">
+      <c r="B53" s="45">
         <v>49</v>
       </c>
-      <c r="M53" s="28"/>
-      <c r="O53" s="28"/>
-      <c r="P53" s="43">
-        <v>0</v>
-      </c>
+      <c r="C53" s="46"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="47"/>
+      <c r="K53" s="47"/>
+      <c r="L53" s="47"/>
+      <c r="M53" s="49"/>
+      <c r="N53" s="47"/>
+      <c r="O53" s="49"/>
+      <c r="P53" s="50"/>
     </row>
     <row r="54" spans="2:16">
-      <c r="B54" s="4">
+      <c r="B54" s="45">
         <v>50</v>
       </c>
-      <c r="M54" s="28"/>
-      <c r="O54" s="28"/>
-      <c r="P54" s="43">
-        <v>0</v>
-      </c>
+      <c r="C54" s="46"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="47"/>
+      <c r="J54" s="47"/>
+      <c r="K54" s="47"/>
+      <c r="L54" s="47"/>
+      <c r="M54" s="49"/>
+      <c r="N54" s="47"/>
+      <c r="O54" s="49"/>
+      <c r="P54" s="50"/>
     </row>
     <row r="55" spans="2:16">
-      <c r="B55" s="4">
+      <c r="B55" s="45">
         <v>51</v>
       </c>
-      <c r="M55" s="28"/>
-      <c r="O55" s="28"/>
-      <c r="P55" s="43">
-        <v>0</v>
-      </c>
+      <c r="C55" s="46"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="47"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="47"/>
+      <c r="J55" s="47"/>
+      <c r="K55" s="47"/>
+      <c r="L55" s="47"/>
+      <c r="M55" s="49"/>
+      <c r="N55" s="47"/>
+      <c r="O55" s="49"/>
+      <c r="P55" s="50"/>
     </row>
     <row r="56" spans="2:16" ht="17" customHeight="1">
-      <c r="B56" s="4">
+      <c r="B56" s="45">
         <v>52</v>
       </c>
-      <c r="M56" s="28"/>
-      <c r="O56" s="28"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="48"/>
+      <c r="I56" s="47"/>
+      <c r="J56" s="47"/>
+      <c r="K56" s="47"/>
+      <c r="L56" s="47"/>
+      <c r="M56" s="49"/>
+      <c r="N56" s="47"/>
+      <c r="O56" s="49"/>
+      <c r="P56" s="50"/>
     </row>
     <row r="57" spans="2:16" ht="17" customHeight="1">
-      <c r="B57" s="4">
+      <c r="B57" s="45">
         <v>53</v>
       </c>
-      <c r="M57" s="28"/>
-      <c r="O57" s="28"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="48"/>
+      <c r="I57" s="47"/>
+      <c r="J57" s="47"/>
+      <c r="K57" s="47"/>
+      <c r="L57" s="47"/>
+      <c r="M57" s="49"/>
+      <c r="N57" s="47"/>
+      <c r="O57" s="49"/>
+      <c r="P57" s="50"/>
     </row>
     <row r="58" spans="2:16">
-      <c r="B58" s="4">
+      <c r="B58" s="45">
         <v>54</v>
       </c>
-      <c r="M58" s="28"/>
-      <c r="O58" s="28"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="47"/>
+      <c r="H58" s="48"/>
+      <c r="I58" s="47"/>
+      <c r="J58" s="47"/>
+      <c r="K58" s="47"/>
+      <c r="L58" s="47"/>
+      <c r="M58" s="49"/>
+      <c r="N58" s="47"/>
+      <c r="O58" s="49"/>
+      <c r="P58" s="50"/>
     </row>
     <row r="59" spans="2:16">
-      <c r="B59" s="4">
+      <c r="B59" s="45">
         <v>55</v>
       </c>
-      <c r="M59" s="28"/>
-      <c r="O59" s="28"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="47"/>
+      <c r="E59" s="47"/>
+      <c r="F59" s="47"/>
+      <c r="G59" s="47"/>
+      <c r="H59" s="48"/>
+      <c r="I59" s="47"/>
+      <c r="J59" s="47"/>
+      <c r="K59" s="47"/>
+      <c r="L59" s="47"/>
+      <c r="M59" s="49"/>
+      <c r="N59" s="47"/>
+      <c r="O59" s="49"/>
+      <c r="P59" s="50"/>
     </row>
     <row r="60" spans="2:16">
-      <c r="B60" s="4">
+      <c r="B60" s="45">
         <v>56</v>
       </c>
-      <c r="M60" s="28"/>
-      <c r="O60" s="28"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="47"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="47"/>
+      <c r="G60" s="47"/>
+      <c r="H60" s="48"/>
+      <c r="I60" s="47"/>
+      <c r="J60" s="47"/>
+      <c r="K60" s="47"/>
+      <c r="L60" s="47"/>
+      <c r="M60" s="49"/>
+      <c r="N60" s="47"/>
+      <c r="O60" s="49"/>
+      <c r="P60" s="50"/>
     </row>
     <row r="61" spans="2:16">
-      <c r="B61" s="4">
+      <c r="B61" s="45">
         <v>57</v>
       </c>
-      <c r="M61" s="28"/>
-      <c r="O61" s="28"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="47"/>
+      <c r="H61" s="48"/>
+      <c r="I61" s="47"/>
+      <c r="J61" s="47"/>
+      <c r="K61" s="47"/>
+      <c r="L61" s="47"/>
+      <c r="M61" s="49"/>
+      <c r="N61" s="47"/>
+      <c r="O61" s="49"/>
+      <c r="P61" s="50"/>
     </row>
     <row r="62" spans="2:16">
-      <c r="B62" s="4">
+      <c r="B62" s="45">
         <v>58</v>
       </c>
-      <c r="M62" s="28"/>
-      <c r="O62" s="28"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="47"/>
+      <c r="E62" s="47"/>
+      <c r="F62" s="47"/>
+      <c r="G62" s="47"/>
+      <c r="H62" s="48"/>
+      <c r="I62" s="47"/>
+      <c r="J62" s="47"/>
+      <c r="K62" s="47"/>
+      <c r="L62" s="47"/>
+      <c r="M62" s="49"/>
+      <c r="N62" s="47"/>
+      <c r="O62" s="49"/>
+      <c r="P62" s="50"/>
     </row>
     <row r="63" spans="2:16">
-      <c r="B63" s="4">
+      <c r="B63" s="45">
         <v>59</v>
       </c>
-      <c r="M63" s="28"/>
-      <c r="O63" s="28"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="47"/>
+      <c r="E63" s="47"/>
+      <c r="F63" s="47"/>
+      <c r="G63" s="47"/>
+      <c r="H63" s="48"/>
+      <c r="I63" s="47"/>
+      <c r="J63" s="47"/>
+      <c r="K63" s="47"/>
+      <c r="L63" s="47"/>
+      <c r="M63" s="49"/>
+      <c r="N63" s="47"/>
+      <c r="O63" s="49"/>
+      <c r="P63" s="50"/>
     </row>
     <row r="64" spans="2:16">
-      <c r="B64" s="4">
+      <c r="B64" s="45">
         <v>60</v>
       </c>
-      <c r="M64" s="28"/>
-    </row>
-    <row r="65" spans="2:13" ht="17" customHeight="1">
-      <c r="B65" s="4">
+      <c r="C64" s="46"/>
+      <c r="D64" s="47"/>
+      <c r="E64" s="47"/>
+      <c r="F64" s="47"/>
+      <c r="G64" s="47"/>
+      <c r="H64" s="48"/>
+      <c r="I64" s="47"/>
+      <c r="J64" s="47"/>
+      <c r="K64" s="47"/>
+      <c r="L64" s="47"/>
+      <c r="M64" s="49"/>
+      <c r="N64" s="47"/>
+      <c r="O64" s="47"/>
+      <c r="P64" s="50"/>
+    </row>
+    <row r="65" spans="2:16" ht="17" customHeight="1">
+      <c r="B65" s="45">
         <v>61</v>
       </c>
-      <c r="M65" s="28"/>
-    </row>
-    <row r="66" spans="2:13" ht="17" customHeight="1">
-      <c r="B66" s="4">
+      <c r="C65" s="46"/>
+      <c r="D65" s="47"/>
+      <c r="E65" s="47"/>
+      <c r="F65" s="47"/>
+      <c r="G65" s="47"/>
+      <c r="H65" s="48"/>
+      <c r="I65" s="47"/>
+      <c r="J65" s="47"/>
+      <c r="K65" s="47"/>
+      <c r="L65" s="47"/>
+      <c r="M65" s="49"/>
+      <c r="N65" s="47"/>
+      <c r="O65" s="47"/>
+      <c r="P65" s="50"/>
+    </row>
+    <row r="66" spans="2:16" ht="17" customHeight="1">
+      <c r="B66" s="45">
         <v>62</v>
       </c>
-      <c r="M66" s="28"/>
-    </row>
-    <row r="67" spans="2:13">
-      <c r="B67" s="4">
+      <c r="C66" s="46"/>
+      <c r="D66" s="47"/>
+      <c r="E66" s="47"/>
+      <c r="F66" s="47"/>
+      <c r="G66" s="47"/>
+      <c r="H66" s="48"/>
+      <c r="I66" s="47"/>
+      <c r="J66" s="47"/>
+      <c r="K66" s="47"/>
+      <c r="L66" s="47"/>
+      <c r="M66" s="49"/>
+      <c r="N66" s="47"/>
+      <c r="O66" s="47"/>
+      <c r="P66" s="50"/>
+    </row>
+    <row r="67" spans="2:16">
+      <c r="B67" s="45">
         <v>63</v>
       </c>
-      <c r="M67" s="28"/>
-    </row>
-    <row r="68" spans="2:13">
-      <c r="B68" s="4">
+      <c r="C67" s="46"/>
+      <c r="D67" s="47"/>
+      <c r="E67" s="47"/>
+      <c r="F67" s="47"/>
+      <c r="G67" s="47"/>
+      <c r="H67" s="48"/>
+      <c r="I67" s="47"/>
+      <c r="J67" s="47"/>
+      <c r="K67" s="47"/>
+      <c r="L67" s="47"/>
+      <c r="M67" s="49"/>
+      <c r="N67" s="47"/>
+      <c r="O67" s="47"/>
+      <c r="P67" s="50"/>
+    </row>
+    <row r="68" spans="2:16">
+      <c r="B68" s="45">
         <v>64</v>
       </c>
-      <c r="M68" s="28"/>
-    </row>
-    <row r="69" spans="2:13">
-      <c r="B69" s="4">
+      <c r="C68" s="46"/>
+      <c r="D68" s="47"/>
+      <c r="E68" s="47"/>
+      <c r="F68" s="47"/>
+      <c r="G68" s="47"/>
+      <c r="H68" s="48"/>
+      <c r="I68" s="47"/>
+      <c r="J68" s="47"/>
+      <c r="K68" s="47"/>
+      <c r="L68" s="47"/>
+      <c r="M68" s="49"/>
+      <c r="N68" s="47"/>
+      <c r="O68" s="47"/>
+      <c r="P68" s="50"/>
+    </row>
+    <row r="69" spans="2:16">
+      <c r="B69" s="45">
         <v>65</v>
       </c>
-      <c r="M69" s="28"/>
-    </row>
-    <row r="70" spans="2:13">
-      <c r="B70" s="4">
+      <c r="C69" s="46"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="48"/>
+      <c r="I69" s="47"/>
+      <c r="J69" s="47"/>
+      <c r="K69" s="47"/>
+      <c r="L69" s="47"/>
+      <c r="M69" s="49"/>
+      <c r="N69" s="47"/>
+      <c r="O69" s="47"/>
+      <c r="P69" s="50"/>
+    </row>
+    <row r="70" spans="2:16">
+      <c r="B70" s="45">
         <v>66</v>
       </c>
-      <c r="M70" s="28"/>
-    </row>
-    <row r="71" spans="2:13">
-      <c r="B71" s="4">
+      <c r="C70" s="46"/>
+      <c r="D70" s="47"/>
+      <c r="E70" s="47"/>
+      <c r="F70" s="47"/>
+      <c r="G70" s="47"/>
+      <c r="H70" s="48"/>
+      <c r="I70" s="47"/>
+      <c r="J70" s="47"/>
+      <c r="K70" s="47"/>
+      <c r="L70" s="47"/>
+      <c r="M70" s="49"/>
+      <c r="N70" s="47"/>
+      <c r="O70" s="47"/>
+      <c r="P70" s="50"/>
+    </row>
+    <row r="71" spans="2:16">
+      <c r="B71" s="45">
         <v>67</v>
       </c>
-      <c r="M71" s="28"/>
-    </row>
-    <row r="72" spans="2:13">
-      <c r="B72" s="4">
+      <c r="C71" s="46"/>
+      <c r="D71" s="47"/>
+      <c r="E71" s="47"/>
+      <c r="F71" s="47"/>
+      <c r="G71" s="47"/>
+      <c r="H71" s="48"/>
+      <c r="I71" s="47"/>
+      <c r="J71" s="47"/>
+      <c r="K71" s="47"/>
+      <c r="L71" s="47"/>
+      <c r="M71" s="49"/>
+      <c r="N71" s="47"/>
+      <c r="O71" s="47"/>
+      <c r="P71" s="50"/>
+    </row>
+    <row r="72" spans="2:16">
+      <c r="B72" s="45">
         <v>68</v>
       </c>
-      <c r="M72" s="28"/>
-    </row>
-    <row r="73" spans="2:13">
-      <c r="B73" s="4">
+      <c r="C72" s="46"/>
+      <c r="D72" s="47"/>
+      <c r="E72" s="47"/>
+      <c r="F72" s="47"/>
+      <c r="G72" s="47"/>
+      <c r="H72" s="48"/>
+      <c r="I72" s="47"/>
+      <c r="J72" s="47"/>
+      <c r="K72" s="47"/>
+      <c r="L72" s="47"/>
+      <c r="M72" s="49"/>
+      <c r="N72" s="47"/>
+      <c r="O72" s="47"/>
+      <c r="P72" s="50"/>
+    </row>
+    <row r="73" spans="2:16">
+      <c r="B73" s="45">
         <v>69</v>
       </c>
-      <c r="M73" s="28"/>
-    </row>
-    <row r="74" spans="2:13">
-      <c r="B74" s="4">
+      <c r="C73" s="46"/>
+      <c r="D73" s="47"/>
+      <c r="E73" s="47"/>
+      <c r="F73" s="47"/>
+      <c r="G73" s="47"/>
+      <c r="H73" s="48"/>
+      <c r="I73" s="47"/>
+      <c r="J73" s="47"/>
+      <c r="K73" s="47"/>
+      <c r="L73" s="47"/>
+      <c r="M73" s="49"/>
+      <c r="N73" s="47"/>
+      <c r="O73" s="47"/>
+      <c r="P73" s="50"/>
+    </row>
+    <row r="74" spans="2:16">
+      <c r="B74" s="45">
         <v>70</v>
       </c>
-      <c r="M74" s="28"/>
-    </row>
-    <row r="75" spans="2:13">
-      <c r="B75" s="4">
+      <c r="C74" s="46"/>
+      <c r="D74" s="47"/>
+      <c r="E74" s="47"/>
+      <c r="F74" s="47"/>
+      <c r="G74" s="47"/>
+      <c r="H74" s="48"/>
+      <c r="I74" s="47"/>
+      <c r="J74" s="47"/>
+      <c r="K74" s="47"/>
+      <c r="L74" s="47"/>
+      <c r="M74" s="49"/>
+      <c r="N74" s="47"/>
+      <c r="O74" s="47"/>
+      <c r="P74" s="50"/>
+    </row>
+    <row r="75" spans="2:16">
+      <c r="B75" s="45">
         <v>71</v>
       </c>
-      <c r="M75" s="28"/>
-    </row>
-    <row r="76" spans="2:13">
-      <c r="B76" s="4">
+      <c r="C75" s="46"/>
+      <c r="D75" s="47"/>
+      <c r="E75" s="47"/>
+      <c r="F75" s="47"/>
+      <c r="G75" s="47"/>
+      <c r="H75" s="48"/>
+      <c r="I75" s="47"/>
+      <c r="J75" s="47"/>
+      <c r="K75" s="47"/>
+      <c r="L75" s="47"/>
+      <c r="M75" s="49"/>
+      <c r="N75" s="47"/>
+      <c r="O75" s="47"/>
+      <c r="P75" s="50"/>
+    </row>
+    <row r="76" spans="2:16">
+      <c r="B76" s="45">
         <v>72</v>
       </c>
-      <c r="M76" s="28"/>
-    </row>
-    <row r="77" spans="2:13">
-      <c r="B77" s="4">
+      <c r="C76" s="46"/>
+      <c r="D76" s="47"/>
+      <c r="E76" s="47"/>
+      <c r="F76" s="47"/>
+      <c r="G76" s="47"/>
+      <c r="H76" s="48"/>
+      <c r="I76" s="47"/>
+      <c r="J76" s="47"/>
+      <c r="K76" s="47"/>
+      <c r="L76" s="47"/>
+      <c r="M76" s="49"/>
+      <c r="N76" s="47"/>
+      <c r="O76" s="47"/>
+      <c r="P76" s="50"/>
+    </row>
+    <row r="77" spans="2:16">
+      <c r="B77" s="45">
         <v>73</v>
       </c>
-      <c r="M77" s="28"/>
-    </row>
-    <row r="78" spans="2:13">
-      <c r="B78" s="4">
+      <c r="C77" s="46"/>
+      <c r="D77" s="47"/>
+      <c r="E77" s="47"/>
+      <c r="F77" s="47"/>
+      <c r="G77" s="47"/>
+      <c r="H77" s="48"/>
+      <c r="I77" s="47"/>
+      <c r="J77" s="47"/>
+      <c r="K77" s="47"/>
+      <c r="L77" s="47"/>
+      <c r="M77" s="49"/>
+      <c r="N77" s="47"/>
+      <c r="O77" s="47"/>
+      <c r="P77" s="50"/>
+    </row>
+    <row r="78" spans="2:16">
+      <c r="B78" s="45">
         <v>74</v>
       </c>
-      <c r="M78" s="28"/>
-    </row>
-    <row r="79" spans="2:13">
-      <c r="B79" s="4">
+      <c r="C78" s="46"/>
+      <c r="D78" s="47"/>
+      <c r="E78" s="47"/>
+      <c r="F78" s="47"/>
+      <c r="G78" s="47"/>
+      <c r="H78" s="48"/>
+      <c r="I78" s="47"/>
+      <c r="J78" s="47"/>
+      <c r="K78" s="47"/>
+      <c r="L78" s="47"/>
+      <c r="M78" s="49"/>
+      <c r="N78" s="47"/>
+      <c r="O78" s="47"/>
+      <c r="P78" s="50"/>
+    </row>
+    <row r="79" spans="2:16">
+      <c r="B79" s="45">
         <v>75</v>
       </c>
-      <c r="M79" s="28"/>
-    </row>
-    <row r="80" spans="2:13">
-      <c r="B80" s="4">
+      <c r="C79" s="46"/>
+      <c r="D79" s="47"/>
+      <c r="E79" s="47"/>
+      <c r="F79" s="47"/>
+      <c r="G79" s="47"/>
+      <c r="H79" s="48"/>
+      <c r="I79" s="47"/>
+      <c r="J79" s="47"/>
+      <c r="K79" s="47"/>
+      <c r="L79" s="47"/>
+      <c r="M79" s="49"/>
+      <c r="N79" s="47"/>
+      <c r="O79" s="47"/>
+      <c r="P79" s="50"/>
+    </row>
+    <row r="80" spans="2:16">
+      <c r="B80" s="45">
         <v>76</v>
       </c>
-      <c r="M80" s="28"/>
-    </row>
-    <row r="81" spans="2:13">
-      <c r="B81" s="4">
+      <c r="C80" s="46"/>
+      <c r="D80" s="47"/>
+      <c r="E80" s="47"/>
+      <c r="F80" s="47"/>
+      <c r="G80" s="47"/>
+      <c r="H80" s="48"/>
+      <c r="I80" s="47"/>
+      <c r="J80" s="47"/>
+      <c r="K80" s="47"/>
+      <c r="L80" s="47"/>
+      <c r="M80" s="49"/>
+      <c r="N80" s="47"/>
+      <c r="O80" s="47"/>
+      <c r="P80" s="50"/>
+    </row>
+    <row r="81" spans="2:16">
+      <c r="B81" s="45">
         <v>77</v>
       </c>
-      <c r="M81" s="28"/>
-    </row>
-    <row r="82" spans="2:13">
-      <c r="B82" s="4">
+      <c r="C81" s="46"/>
+      <c r="D81" s="47"/>
+      <c r="E81" s="47"/>
+      <c r="F81" s="47"/>
+      <c r="G81" s="47"/>
+      <c r="H81" s="48"/>
+      <c r="I81" s="47"/>
+      <c r="J81" s="47"/>
+      <c r="K81" s="47"/>
+      <c r="L81" s="47"/>
+      <c r="M81" s="49"/>
+      <c r="N81" s="47"/>
+      <c r="O81" s="47"/>
+      <c r="P81" s="50"/>
+    </row>
+    <row r="82" spans="2:16">
+      <c r="B82" s="45">
         <v>78</v>
       </c>
-      <c r="M82" s="28"/>
-    </row>
-    <row r="83" spans="2:13">
-      <c r="B83" s="4">
+      <c r="C82" s="46"/>
+      <c r="D82" s="47"/>
+      <c r="E82" s="47"/>
+      <c r="F82" s="47"/>
+      <c r="G82" s="47"/>
+      <c r="H82" s="48"/>
+      <c r="I82" s="47"/>
+      <c r="J82" s="47"/>
+      <c r="K82" s="47"/>
+      <c r="L82" s="47"/>
+      <c r="M82" s="49"/>
+      <c r="N82" s="47"/>
+      <c r="O82" s="47"/>
+      <c r="P82" s="50"/>
+    </row>
+    <row r="83" spans="2:16">
+      <c r="B83" s="45">
         <v>79</v>
       </c>
-      <c r="M83" s="28"/>
-    </row>
-    <row r="84" spans="2:13">
-      <c r="B84" s="4">
+      <c r="C83" s="46"/>
+      <c r="D83" s="47"/>
+      <c r="E83" s="47"/>
+      <c r="F83" s="47"/>
+      <c r="G83" s="47"/>
+      <c r="H83" s="48"/>
+      <c r="I83" s="47"/>
+      <c r="J83" s="47"/>
+      <c r="K83" s="47"/>
+      <c r="L83" s="47"/>
+      <c r="M83" s="49"/>
+      <c r="N83" s="47"/>
+      <c r="O83" s="47"/>
+      <c r="P83" s="50"/>
+    </row>
+    <row r="84" spans="2:16">
+      <c r="B84" s="45">
         <v>80</v>
       </c>
-      <c r="M84" s="28"/>
-    </row>
-    <row r="85" spans="2:13">
-      <c r="B85" s="4">
+      <c r="C84" s="46"/>
+      <c r="D84" s="47"/>
+      <c r="E84" s="47"/>
+      <c r="F84" s="47"/>
+      <c r="G84" s="47"/>
+      <c r="H84" s="48"/>
+      <c r="I84" s="47"/>
+      <c r="J84" s="47"/>
+      <c r="K84" s="47"/>
+      <c r="L84" s="47"/>
+      <c r="M84" s="49"/>
+      <c r="N84" s="47"/>
+      <c r="O84" s="47"/>
+      <c r="P84" s="50"/>
+    </row>
+    <row r="85" spans="2:16">
+      <c r="B85" s="45">
         <v>81</v>
       </c>
-      <c r="M85" s="28"/>
-    </row>
-    <row r="86" spans="2:13">
-      <c r="B86" s="4">
+      <c r="C85" s="46"/>
+      <c r="D85" s="47"/>
+      <c r="E85" s="47"/>
+      <c r="F85" s="47"/>
+      <c r="G85" s="47"/>
+      <c r="H85" s="48"/>
+      <c r="I85" s="47"/>
+      <c r="J85" s="47"/>
+      <c r="K85" s="47"/>
+      <c r="L85" s="47"/>
+      <c r="M85" s="49"/>
+      <c r="N85" s="47"/>
+      <c r="O85" s="47"/>
+      <c r="P85" s="50"/>
+    </row>
+    <row r="86" spans="2:16">
+      <c r="B86" s="45">
         <v>82</v>
       </c>
-      <c r="M86" s="28"/>
-    </row>
-    <row r="87" spans="2:13">
-      <c r="B87" s="4">
+      <c r="C86" s="46"/>
+      <c r="D86" s="47"/>
+      <c r="E86" s="47"/>
+      <c r="F86" s="47"/>
+      <c r="G86" s="47"/>
+      <c r="H86" s="48"/>
+      <c r="I86" s="47"/>
+      <c r="J86" s="47"/>
+      <c r="K86" s="47"/>
+      <c r="L86" s="47"/>
+      <c r="M86" s="49"/>
+      <c r="N86" s="47"/>
+      <c r="O86" s="47"/>
+      <c r="P86" s="50"/>
+    </row>
+    <row r="87" spans="2:16">
+      <c r="B87" s="45">
         <v>83</v>
       </c>
-      <c r="M87" s="28"/>
-    </row>
-    <row r="88" spans="2:13">
-      <c r="B88" s="4">
+      <c r="C87" s="46"/>
+      <c r="D87" s="47"/>
+      <c r="E87" s="47"/>
+      <c r="F87" s="47"/>
+      <c r="G87" s="47"/>
+      <c r="H87" s="48"/>
+      <c r="I87" s="47"/>
+      <c r="J87" s="47"/>
+      <c r="K87" s="47"/>
+      <c r="L87" s="47"/>
+      <c r="M87" s="49"/>
+      <c r="N87" s="47"/>
+      <c r="O87" s="47"/>
+      <c r="P87" s="50"/>
+    </row>
+    <row r="88" spans="2:16">
+      <c r="B88" s="45">
         <v>84</v>
       </c>
-      <c r="M88" s="28"/>
-    </row>
-    <row r="89" spans="2:13">
-      <c r="B89" s="4">
+      <c r="C88" s="46"/>
+      <c r="D88" s="47"/>
+      <c r="E88" s="47"/>
+      <c r="F88" s="47"/>
+      <c r="G88" s="47"/>
+      <c r="H88" s="48"/>
+      <c r="I88" s="47"/>
+      <c r="J88" s="47"/>
+      <c r="K88" s="47"/>
+      <c r="L88" s="47"/>
+      <c r="M88" s="49"/>
+      <c r="N88" s="47"/>
+      <c r="O88" s="47"/>
+      <c r="P88" s="50"/>
+    </row>
+    <row r="89" spans="2:16">
+      <c r="B89" s="45">
         <v>85</v>
       </c>
-      <c r="M89" s="28"/>
-    </row>
-    <row r="90" spans="2:13">
-      <c r="B90" s="4">
+      <c r="C89" s="46"/>
+      <c r="D89" s="47"/>
+      <c r="E89" s="47"/>
+      <c r="F89" s="47"/>
+      <c r="G89" s="47"/>
+      <c r="H89" s="48"/>
+      <c r="I89" s="47"/>
+      <c r="J89" s="47"/>
+      <c r="K89" s="47"/>
+      <c r="L89" s="47"/>
+      <c r="M89" s="49"/>
+      <c r="N89" s="47"/>
+      <c r="O89" s="47"/>
+      <c r="P89" s="50"/>
+    </row>
+    <row r="90" spans="2:16">
+      <c r="B90" s="45">
         <v>86</v>
       </c>
-      <c r="M90" s="28"/>
-    </row>
-    <row r="91" spans="2:13">
-      <c r="B91" s="4">
+      <c r="C90" s="46"/>
+      <c r="D90" s="47"/>
+      <c r="E90" s="47"/>
+      <c r="F90" s="47"/>
+      <c r="G90" s="47"/>
+      <c r="H90" s="48"/>
+      <c r="I90" s="47"/>
+      <c r="J90" s="47"/>
+      <c r="K90" s="47"/>
+      <c r="L90" s="47"/>
+      <c r="M90" s="49"/>
+      <c r="N90" s="47"/>
+      <c r="O90" s="47"/>
+      <c r="P90" s="50"/>
+    </row>
+    <row r="91" spans="2:16">
+      <c r="B91" s="45">
         <v>87</v>
       </c>
-      <c r="M91" s="28"/>
-    </row>
-    <row r="92" spans="2:13">
-      <c r="B92" s="4">
+      <c r="C91" s="46"/>
+      <c r="D91" s="47"/>
+      <c r="E91" s="47"/>
+      <c r="F91" s="47"/>
+      <c r="G91" s="47"/>
+      <c r="H91" s="48"/>
+      <c r="I91" s="47"/>
+      <c r="J91" s="47"/>
+      <c r="K91" s="47"/>
+      <c r="L91" s="47"/>
+      <c r="M91" s="49"/>
+      <c r="N91" s="47"/>
+      <c r="O91" s="47"/>
+      <c r="P91" s="50"/>
+    </row>
+    <row r="92" spans="2:16">
+      <c r="B92" s="45">
         <v>88</v>
       </c>
-      <c r="M92" s="28"/>
-    </row>
-    <row r="93" spans="2:13">
-      <c r="B93" s="4">
+      <c r="C92" s="46"/>
+      <c r="D92" s="47"/>
+      <c r="E92" s="47"/>
+      <c r="F92" s="47"/>
+      <c r="G92" s="47"/>
+      <c r="H92" s="48"/>
+      <c r="I92" s="47"/>
+      <c r="J92" s="47"/>
+      <c r="K92" s="47"/>
+      <c r="L92" s="47"/>
+      <c r="M92" s="49"/>
+      <c r="N92" s="47"/>
+      <c r="O92" s="47"/>
+      <c r="P92" s="50"/>
+    </row>
+    <row r="93" spans="2:16">
+      <c r="B93" s="45">
         <v>89</v>
       </c>
-      <c r="M93" s="28"/>
-    </row>
-    <row r="94" spans="2:13">
-      <c r="B94" s="4">
+      <c r="C93" s="46"/>
+      <c r="D93" s="47"/>
+      <c r="E93" s="47"/>
+      <c r="F93" s="47"/>
+      <c r="G93" s="47"/>
+      <c r="H93" s="48"/>
+      <c r="I93" s="47"/>
+      <c r="J93" s="47"/>
+      <c r="K93" s="47"/>
+      <c r="L93" s="47"/>
+      <c r="M93" s="49"/>
+      <c r="N93" s="47"/>
+      <c r="O93" s="47"/>
+      <c r="P93" s="50"/>
+    </row>
+    <row r="94" spans="2:16">
+      <c r="B94" s="45">
         <v>90</v>
       </c>
-      <c r="M94" s="28"/>
-    </row>
-    <row r="95" spans="2:13">
-      <c r="B95" s="4">
+      <c r="C94" s="46"/>
+      <c r="D94" s="47"/>
+      <c r="E94" s="47"/>
+      <c r="F94" s="47"/>
+      <c r="G94" s="47"/>
+      <c r="H94" s="48"/>
+      <c r="I94" s="47"/>
+      <c r="J94" s="47"/>
+      <c r="K94" s="47"/>
+      <c r="L94" s="47"/>
+      <c r="M94" s="49"/>
+      <c r="N94" s="47"/>
+      <c r="O94" s="47"/>
+      <c r="P94" s="50"/>
+    </row>
+    <row r="95" spans="2:16">
+      <c r="B95" s="45">
         <v>91</v>
       </c>
-      <c r="M95" s="28"/>
-    </row>
-    <row r="96" spans="2:13">
-      <c r="B96" s="4">
+      <c r="C95" s="46"/>
+      <c r="D95" s="47"/>
+      <c r="E95" s="47"/>
+      <c r="F95" s="47"/>
+      <c r="G95" s="47"/>
+      <c r="H95" s="48"/>
+      <c r="I95" s="47"/>
+      <c r="J95" s="47"/>
+      <c r="K95" s="47"/>
+      <c r="L95" s="47"/>
+      <c r="M95" s="49"/>
+      <c r="N95" s="47"/>
+      <c r="O95" s="47"/>
+      <c r="P95" s="50"/>
+    </row>
+    <row r="96" spans="2:16">
+      <c r="B96" s="45">
         <v>92</v>
       </c>
-      <c r="M96" s="28"/>
-    </row>
-    <row r="97" spans="2:13">
-      <c r="B97" s="4">
+      <c r="C96" s="46"/>
+      <c r="D96" s="47"/>
+      <c r="E96" s="47"/>
+      <c r="F96" s="47"/>
+      <c r="G96" s="47"/>
+      <c r="H96" s="48"/>
+      <c r="I96" s="47"/>
+      <c r="J96" s="47"/>
+      <c r="K96" s="47"/>
+      <c r="L96" s="47"/>
+      <c r="M96" s="49"/>
+      <c r="N96" s="47"/>
+      <c r="O96" s="47"/>
+      <c r="P96" s="50"/>
+    </row>
+    <row r="97" spans="2:16">
+      <c r="B97" s="45">
         <v>93</v>
       </c>
-      <c r="M97" s="28"/>
-    </row>
-    <row r="98" spans="2:13">
-      <c r="B98" s="4">
+      <c r="C97" s="46"/>
+      <c r="D97" s="47"/>
+      <c r="E97" s="47"/>
+      <c r="F97" s="47"/>
+      <c r="G97" s="47"/>
+      <c r="H97" s="48"/>
+      <c r="I97" s="47"/>
+      <c r="J97" s="47"/>
+      <c r="K97" s="47"/>
+      <c r="L97" s="47"/>
+      <c r="M97" s="49"/>
+      <c r="N97" s="47"/>
+      <c r="O97" s="47"/>
+      <c r="P97" s="50"/>
+    </row>
+    <row r="98" spans="2:16">
+      <c r="B98" s="45">
         <v>94</v>
       </c>
-      <c r="M98" s="28"/>
-    </row>
-    <row r="99" spans="2:13">
-      <c r="B99" s="4">
+      <c r="C98" s="46"/>
+      <c r="D98" s="47"/>
+      <c r="E98" s="47"/>
+      <c r="F98" s="47"/>
+      <c r="G98" s="47"/>
+      <c r="H98" s="48"/>
+      <c r="I98" s="47"/>
+      <c r="J98" s="47"/>
+      <c r="K98" s="47"/>
+      <c r="L98" s="47"/>
+      <c r="M98" s="49"/>
+      <c r="N98" s="47"/>
+      <c r="O98" s="47"/>
+      <c r="P98" s="50"/>
+    </row>
+    <row r="99" spans="2:16">
+      <c r="B99" s="45">
         <v>95</v>
       </c>
-      <c r="M99" s="28"/>
-    </row>
-    <row r="100" spans="2:13">
-      <c r="B100" s="4">
+      <c r="C99" s="46"/>
+      <c r="D99" s="47"/>
+      <c r="E99" s="47"/>
+      <c r="F99" s="47"/>
+      <c r="G99" s="47"/>
+      <c r="H99" s="48"/>
+      <c r="I99" s="47"/>
+      <c r="J99" s="47"/>
+      <c r="K99" s="47"/>
+      <c r="L99" s="47"/>
+      <c r="M99" s="49"/>
+      <c r="N99" s="47"/>
+      <c r="O99" s="47"/>
+      <c r="P99" s="50"/>
+    </row>
+    <row r="100" spans="2:16">
+      <c r="B100" s="45">
         <v>96</v>
       </c>
-      <c r="M100" s="28"/>
-    </row>
-    <row r="101" spans="2:13">
-      <c r="B101" s="4">
+      <c r="C100" s="46"/>
+      <c r="D100" s="47"/>
+      <c r="E100" s="47"/>
+      <c r="F100" s="47"/>
+      <c r="G100" s="47"/>
+      <c r="H100" s="48"/>
+      <c r="I100" s="47"/>
+      <c r="J100" s="47"/>
+      <c r="K100" s="47"/>
+      <c r="L100" s="47"/>
+      <c r="M100" s="49"/>
+      <c r="N100" s="47"/>
+      <c r="O100" s="47"/>
+      <c r="P100" s="50"/>
+    </row>
+    <row r="101" spans="2:16">
+      <c r="B101" s="45">
         <v>97</v>
       </c>
-      <c r="I101" s="55"/>
-      <c r="M101" s="28"/>
-    </row>
-    <row r="102" spans="2:13">
-      <c r="B102" s="4">
+      <c r="C101" s="46"/>
+      <c r="D101" s="47"/>
+      <c r="E101" s="47"/>
+      <c r="F101" s="47"/>
+      <c r="G101" s="47"/>
+      <c r="H101" s="48"/>
+      <c r="I101" s="52"/>
+      <c r="J101" s="47"/>
+      <c r="K101" s="47"/>
+      <c r="L101" s="47"/>
+      <c r="M101" s="49"/>
+      <c r="N101" s="47"/>
+      <c r="O101" s="47"/>
+      <c r="P101" s="50"/>
+    </row>
+    <row r="102" spans="2:16">
+      <c r="B102" s="45">
         <v>98</v>
       </c>
-      <c r="M102" s="28"/>
-    </row>
-    <row r="103" spans="2:13">
-      <c r="B103" s="4">
+      <c r="C102" s="46"/>
+      <c r="D102" s="47"/>
+      <c r="E102" s="47"/>
+      <c r="F102" s="47"/>
+      <c r="G102" s="47"/>
+      <c r="H102" s="48"/>
+      <c r="I102" s="47"/>
+      <c r="J102" s="47"/>
+      <c r="K102" s="47"/>
+      <c r="L102" s="47"/>
+      <c r="M102" s="49"/>
+      <c r="N102" s="47"/>
+      <c r="O102" s="47"/>
+      <c r="P102" s="50"/>
+    </row>
+    <row r="103" spans="2:16">
+      <c r="B103" s="45">
         <v>99</v>
       </c>
-      <c r="M103" s="28"/>
-    </row>
-    <row r="104" spans="2:13">
-      <c r="B104" s="4">
+      <c r="C103" s="46"/>
+      <c r="D103" s="47"/>
+      <c r="E103" s="47"/>
+      <c r="F103" s="47"/>
+      <c r="G103" s="47"/>
+      <c r="H103" s="48"/>
+      <c r="I103" s="47"/>
+      <c r="J103" s="47"/>
+      <c r="K103" s="47"/>
+      <c r="L103" s="47"/>
+      <c r="M103" s="49"/>
+      <c r="N103" s="47"/>
+      <c r="O103" s="47"/>
+      <c r="P103" s="50"/>
+    </row>
+    <row r="104" spans="2:16">
+      <c r="B104" s="45">
         <v>100</v>
       </c>
-      <c r="M104" s="28"/>
-    </row>
-    <row r="105" spans="2:13">
-      <c r="B105" s="4">
+      <c r="C104" s="46"/>
+      <c r="D104" s="47"/>
+      <c r="E104" s="47"/>
+      <c r="F104" s="47"/>
+      <c r="G104" s="47"/>
+      <c r="H104" s="48"/>
+      <c r="I104" s="47"/>
+      <c r="J104" s="47"/>
+      <c r="K104" s="47"/>
+      <c r="L104" s="47"/>
+      <c r="M104" s="49"/>
+      <c r="N104" s="47"/>
+      <c r="O104" s="47"/>
+      <c r="P104" s="50"/>
+    </row>
+    <row r="105" spans="2:16">
+      <c r="B105" s="45">
         <v>101</v>
       </c>
-      <c r="M105" s="28"/>
-    </row>
-    <row r="106" spans="2:13">
-      <c r="B106" s="4">
+      <c r="C105" s="46"/>
+      <c r="D105" s="47"/>
+      <c r="E105" s="47"/>
+      <c r="F105" s="47"/>
+      <c r="G105" s="47"/>
+      <c r="H105" s="48"/>
+      <c r="I105" s="47"/>
+      <c r="J105" s="47"/>
+      <c r="K105" s="47"/>
+      <c r="L105" s="47"/>
+      <c r="M105" s="49"/>
+      <c r="N105" s="47"/>
+      <c r="O105" s="47"/>
+      <c r="P105" s="50"/>
+    </row>
+    <row r="106" spans="2:16">
+      <c r="B106" s="45">
         <v>102</v>
       </c>
-      <c r="M106" s="28"/>
-    </row>
-    <row r="107" spans="2:13">
-      <c r="B107" s="4">
+      <c r="C106" s="46"/>
+      <c r="D106" s="47"/>
+      <c r="E106" s="47"/>
+      <c r="F106" s="47"/>
+      <c r="G106" s="47"/>
+      <c r="H106" s="48"/>
+      <c r="I106" s="47"/>
+      <c r="J106" s="47"/>
+      <c r="K106" s="47"/>
+      <c r="L106" s="47"/>
+      <c r="M106" s="49"/>
+      <c r="N106" s="47"/>
+      <c r="O106" s="47"/>
+      <c r="P106" s="50"/>
+    </row>
+    <row r="107" spans="2:16">
+      <c r="B107" s="45">
         <v>103</v>
       </c>
-      <c r="M107" s="28"/>
-    </row>
-    <row r="108" spans="2:13">
-      <c r="B108" s="4">
+      <c r="C107" s="46"/>
+      <c r="D107" s="47"/>
+      <c r="E107" s="47"/>
+      <c r="F107" s="47"/>
+      <c r="G107" s="47"/>
+      <c r="H107" s="48"/>
+      <c r="I107" s="47"/>
+      <c r="J107" s="47"/>
+      <c r="K107" s="47"/>
+      <c r="L107" s="47"/>
+      <c r="M107" s="49"/>
+      <c r="N107" s="47"/>
+      <c r="O107" s="47"/>
+      <c r="P107" s="50"/>
+    </row>
+    <row r="108" spans="2:16">
+      <c r="B108" s="45">
         <v>104</v>
       </c>
-      <c r="M108" s="28"/>
-    </row>
-    <row r="109" spans="2:13">
-      <c r="B109" s="4">
+      <c r="C108" s="46"/>
+      <c r="D108" s="47"/>
+      <c r="E108" s="47"/>
+      <c r="F108" s="47"/>
+      <c r="G108" s="47"/>
+      <c r="H108" s="48"/>
+      <c r="I108" s="47"/>
+      <c r="J108" s="47"/>
+      <c r="K108" s="47"/>
+      <c r="L108" s="47"/>
+      <c r="M108" s="49"/>
+      <c r="N108" s="47"/>
+      <c r="O108" s="47"/>
+      <c r="P108" s="50"/>
+    </row>
+    <row r="109" spans="2:16">
+      <c r="B109" s="45">
         <v>105</v>
       </c>
-      <c r="M109" s="28"/>
-    </row>
-    <row r="110" spans="2:13">
-      <c r="B110" s="4">
+      <c r="C109" s="46"/>
+      <c r="D109" s="47"/>
+      <c r="E109" s="47"/>
+      <c r="F109" s="47"/>
+      <c r="G109" s="47"/>
+      <c r="H109" s="48"/>
+      <c r="I109" s="47"/>
+      <c r="J109" s="47"/>
+      <c r="K109" s="47"/>
+      <c r="L109" s="47"/>
+      <c r="M109" s="49"/>
+      <c r="N109" s="47"/>
+      <c r="O109" s="47"/>
+      <c r="P109" s="50"/>
+    </row>
+    <row r="110" spans="2:16">
+      <c r="B110" s="45">
         <v>106</v>
       </c>
-      <c r="M110" s="28"/>
-    </row>
-    <row r="111" spans="2:13">
-      <c r="B111" s="4">
+      <c r="C110" s="46"/>
+      <c r="D110" s="47"/>
+      <c r="E110" s="47"/>
+      <c r="F110" s="47"/>
+      <c r="G110" s="47"/>
+      <c r="H110" s="48"/>
+      <c r="I110" s="47"/>
+      <c r="J110" s="47"/>
+      <c r="K110" s="47"/>
+      <c r="L110" s="47"/>
+      <c r="M110" s="49"/>
+      <c r="N110" s="47"/>
+      <c r="O110" s="47"/>
+      <c r="P110" s="50"/>
+    </row>
+    <row r="111" spans="2:16">
+      <c r="B111" s="45">
         <v>107</v>
       </c>
-      <c r="M111" s="28"/>
-    </row>
-    <row r="112" spans="2:13">
-      <c r="B112" s="4">
+      <c r="C111" s="46"/>
+      <c r="D111" s="47"/>
+      <c r="E111" s="47"/>
+      <c r="F111" s="47"/>
+      <c r="G111" s="47"/>
+      <c r="H111" s="48"/>
+      <c r="I111" s="47"/>
+      <c r="J111" s="47"/>
+      <c r="K111" s="47"/>
+      <c r="L111" s="47"/>
+      <c r="M111" s="49"/>
+      <c r="N111" s="47"/>
+      <c r="O111" s="47"/>
+      <c r="P111" s="50"/>
+    </row>
+    <row r="112" spans="2:16">
+      <c r="B112" s="45">
         <v>108</v>
       </c>
-      <c r="M112" s="28"/>
-    </row>
-    <row r="113" spans="2:13">
-      <c r="B113" s="4">
+      <c r="C112" s="46"/>
+      <c r="D112" s="47"/>
+      <c r="E112" s="47"/>
+      <c r="F112" s="47"/>
+      <c r="G112" s="47"/>
+      <c r="H112" s="48"/>
+      <c r="I112" s="47"/>
+      <c r="J112" s="47"/>
+      <c r="K112" s="47"/>
+      <c r="L112" s="47"/>
+      <c r="M112" s="49"/>
+      <c r="N112" s="47"/>
+      <c r="O112" s="47"/>
+      <c r="P112" s="50"/>
+    </row>
+    <row r="113" spans="2:16">
+      <c r="B113" s="45">
         <v>109</v>
       </c>
-      <c r="M113" s="28"/>
-    </row>
-    <row r="114" spans="2:13">
-      <c r="B114" s="4">
+      <c r="C113" s="46"/>
+      <c r="D113" s="47"/>
+      <c r="E113" s="47"/>
+      <c r="F113" s="47"/>
+      <c r="G113" s="47"/>
+      <c r="H113" s="48"/>
+      <c r="I113" s="47"/>
+      <c r="J113" s="47"/>
+      <c r="K113" s="47"/>
+      <c r="L113" s="47"/>
+      <c r="M113" s="49"/>
+      <c r="N113" s="47"/>
+      <c r="O113" s="47"/>
+      <c r="P113" s="50"/>
+    </row>
+    <row r="114" spans="2:16">
+      <c r="B114" s="45">
         <v>110</v>
       </c>
-      <c r="M114" s="28"/>
-    </row>
-    <row r="115" spans="2:13">
-      <c r="B115" s="4">
+      <c r="C114" s="46"/>
+      <c r="D114" s="47"/>
+      <c r="E114" s="47"/>
+      <c r="F114" s="47"/>
+      <c r="G114" s="47"/>
+      <c r="H114" s="48"/>
+      <c r="I114" s="47"/>
+      <c r="J114" s="47"/>
+      <c r="K114" s="47"/>
+      <c r="L114" s="47"/>
+      <c r="M114" s="49"/>
+      <c r="N114" s="47"/>
+      <c r="O114" s="47"/>
+      <c r="P114" s="50"/>
+    </row>
+    <row r="115" spans="2:16">
+      <c r="B115" s="45">
         <v>111</v>
       </c>
-      <c r="M115" s="28"/>
-    </row>
-    <row r="116" spans="2:13">
-      <c r="B116" s="4">
+      <c r="C115" s="46"/>
+      <c r="D115" s="47"/>
+      <c r="E115" s="47"/>
+      <c r="F115" s="47"/>
+      <c r="G115" s="47"/>
+      <c r="H115" s="48"/>
+      <c r="I115" s="47"/>
+      <c r="J115" s="47"/>
+      <c r="K115" s="47"/>
+      <c r="L115" s="47"/>
+      <c r="M115" s="49"/>
+      <c r="N115" s="47"/>
+      <c r="O115" s="47"/>
+      <c r="P115" s="50"/>
+    </row>
+    <row r="116" spans="2:16">
+      <c r="B116" s="45">
         <v>112</v>
       </c>
-      <c r="M116" s="28"/>
-    </row>
-    <row r="117" spans="2:13">
-      <c r="B117" s="4">
+      <c r="C116" s="46"/>
+      <c r="D116" s="47"/>
+      <c r="E116" s="47"/>
+      <c r="F116" s="47"/>
+      <c r="G116" s="47"/>
+      <c r="H116" s="48"/>
+      <c r="I116" s="47"/>
+      <c r="J116" s="47"/>
+      <c r="K116" s="47"/>
+      <c r="L116" s="47"/>
+      <c r="M116" s="49"/>
+      <c r="N116" s="47"/>
+      <c r="O116" s="47"/>
+      <c r="P116" s="50"/>
+    </row>
+    <row r="117" spans="2:16">
+      <c r="B117" s="45">
         <v>113</v>
       </c>
-      <c r="M117" s="28"/>
-    </row>
-    <row r="118" spans="2:13">
-      <c r="B118" s="4">
+      <c r="C117" s="46"/>
+      <c r="D117" s="47"/>
+      <c r="E117" s="47"/>
+      <c r="F117" s="47"/>
+      <c r="G117" s="47"/>
+      <c r="H117" s="48"/>
+      <c r="I117" s="47"/>
+      <c r="J117" s="47"/>
+      <c r="K117" s="47"/>
+      <c r="L117" s="47"/>
+      <c r="M117" s="49"/>
+      <c r="N117" s="47"/>
+      <c r="O117" s="47"/>
+      <c r="P117" s="50"/>
+    </row>
+    <row r="118" spans="2:16">
+      <c r="B118" s="45">
         <v>114</v>
       </c>
-      <c r="M118" s="28"/>
-    </row>
-    <row r="119" spans="2:13">
-      <c r="B119" s="4">
+      <c r="C118" s="46"/>
+      <c r="D118" s="47"/>
+      <c r="E118" s="47"/>
+      <c r="F118" s="47"/>
+      <c r="G118" s="47"/>
+      <c r="H118" s="48"/>
+      <c r="I118" s="47"/>
+      <c r="J118" s="47"/>
+      <c r="K118" s="47"/>
+      <c r="L118" s="47"/>
+      <c r="M118" s="49"/>
+      <c r="N118" s="47"/>
+      <c r="O118" s="47"/>
+      <c r="P118" s="50"/>
+    </row>
+    <row r="119" spans="2:16">
+      <c r="B119" s="45">
         <v>115</v>
       </c>
-      <c r="M119" s="28"/>
-    </row>
-    <row r="120" spans="2:13">
-      <c r="B120" s="4">
+      <c r="C119" s="46"/>
+      <c r="D119" s="47"/>
+      <c r="E119" s="47"/>
+      <c r="F119" s="47"/>
+      <c r="G119" s="47"/>
+      <c r="H119" s="48"/>
+      <c r="I119" s="47"/>
+      <c r="J119" s="47"/>
+      <c r="K119" s="47"/>
+      <c r="L119" s="47"/>
+      <c r="M119" s="49"/>
+      <c r="N119" s="47"/>
+      <c r="O119" s="47"/>
+      <c r="P119" s="50"/>
+    </row>
+    <row r="120" spans="2:16">
+      <c r="B120" s="45">
         <v>116</v>
       </c>
-      <c r="M120" s="28"/>
-    </row>
-    <row r="121" spans="2:13">
-      <c r="B121" s="4">
+      <c r="C120" s="46"/>
+      <c r="D120" s="47"/>
+      <c r="E120" s="47"/>
+      <c r="F120" s="47"/>
+      <c r="G120" s="47"/>
+      <c r="H120" s="48"/>
+      <c r="I120" s="47"/>
+      <c r="J120" s="47"/>
+      <c r="K120" s="47"/>
+      <c r="L120" s="47"/>
+      <c r="M120" s="49"/>
+      <c r="N120" s="47"/>
+      <c r="O120" s="47"/>
+      <c r="P120" s="50"/>
+    </row>
+    <row r="121" spans="2:16">
+      <c r="B121" s="45">
         <v>117</v>
       </c>
-      <c r="M121" s="28"/>
-    </row>
-    <row r="122" spans="2:13">
-      <c r="B122" s="4">
+      <c r="C121" s="46"/>
+      <c r="D121" s="47"/>
+      <c r="E121" s="47"/>
+      <c r="F121" s="47"/>
+      <c r="G121" s="47"/>
+      <c r="H121" s="48"/>
+      <c r="I121" s="47"/>
+      <c r="J121" s="47"/>
+      <c r="K121" s="47"/>
+      <c r="L121" s="47"/>
+      <c r="M121" s="49"/>
+      <c r="N121" s="47"/>
+      <c r="O121" s="47"/>
+      <c r="P121" s="50"/>
+    </row>
+    <row r="122" spans="2:16">
+      <c r="B122" s="45">
         <v>118</v>
       </c>
-      <c r="M122" s="28"/>
-    </row>
-    <row r="123" spans="2:13">
-      <c r="B123" s="4">
+      <c r="C122" s="46"/>
+      <c r="D122" s="47"/>
+      <c r="E122" s="47"/>
+      <c r="F122" s="47"/>
+      <c r="G122" s="47"/>
+      <c r="H122" s="48"/>
+      <c r="I122" s="47"/>
+      <c r="J122" s="47"/>
+      <c r="K122" s="47"/>
+      <c r="L122" s="47"/>
+      <c r="M122" s="49"/>
+      <c r="N122" s="47"/>
+      <c r="O122" s="47"/>
+      <c r="P122" s="50"/>
+    </row>
+    <row r="123" spans="2:16">
+      <c r="B123" s="45">
         <v>119</v>
       </c>
-      <c r="M123" s="28"/>
-    </row>
-    <row r="124" spans="2:13">
-      <c r="B124" s="4">
+      <c r="C123" s="46"/>
+      <c r="D123" s="47"/>
+      <c r="E123" s="47"/>
+      <c r="F123" s="47"/>
+      <c r="G123" s="47"/>
+      <c r="H123" s="48"/>
+      <c r="I123" s="47"/>
+      <c r="J123" s="47"/>
+      <c r="K123" s="47"/>
+      <c r="L123" s="47"/>
+      <c r="M123" s="49"/>
+      <c r="N123" s="47"/>
+      <c r="O123" s="47"/>
+      <c r="P123" s="50"/>
+    </row>
+    <row r="124" spans="2:16">
+      <c r="B124" s="45">
         <v>120</v>
       </c>
-      <c r="M124" s="28"/>
-    </row>
-    <row r="125" spans="2:13">
-      <c r="B125" s="4">
+      <c r="C124" s="46"/>
+      <c r="D124" s="47"/>
+      <c r="E124" s="47"/>
+      <c r="F124" s="47"/>
+      <c r="G124" s="47"/>
+      <c r="H124" s="48"/>
+      <c r="I124" s="47"/>
+      <c r="J124" s="47"/>
+      <c r="K124" s="47"/>
+      <c r="L124" s="47"/>
+      <c r="M124" s="49"/>
+      <c r="N124" s="47"/>
+      <c r="O124" s="47"/>
+      <c r="P124" s="50"/>
+    </row>
+    <row r="125" spans="2:16">
+      <c r="B125" s="45">
         <v>121</v>
       </c>
-      <c r="M125" s="28"/>
-    </row>
-    <row r="126" spans="2:13">
-      <c r="B126" s="4">
+      <c r="C125" s="46"/>
+      <c r="D125" s="47"/>
+      <c r="E125" s="47"/>
+      <c r="F125" s="47"/>
+      <c r="G125" s="47"/>
+      <c r="H125" s="48"/>
+      <c r="I125" s="47"/>
+      <c r="J125" s="47"/>
+      <c r="K125" s="47"/>
+      <c r="L125" s="47"/>
+      <c r="M125" s="49"/>
+      <c r="N125" s="47"/>
+      <c r="O125" s="47"/>
+      <c r="P125" s="50"/>
+    </row>
+    <row r="126" spans="2:16">
+      <c r="B126" s="45">
         <v>122</v>
       </c>
-      <c r="M126" s="28"/>
-    </row>
-    <row r="127" spans="2:13">
-      <c r="B127" s="4">
+      <c r="C126" s="46"/>
+      <c r="D126" s="47"/>
+      <c r="E126" s="47"/>
+      <c r="F126" s="47"/>
+      <c r="G126" s="47"/>
+      <c r="H126" s="48"/>
+      <c r="I126" s="47"/>
+      <c r="J126" s="47"/>
+      <c r="K126" s="47"/>
+      <c r="L126" s="47"/>
+      <c r="M126" s="49"/>
+      <c r="N126" s="47"/>
+      <c r="O126" s="47"/>
+      <c r="P126" s="50"/>
+    </row>
+    <row r="127" spans="2:16">
+      <c r="B127" s="45">
         <v>123</v>
       </c>
-      <c r="M127" s="28"/>
-    </row>
-    <row r="128" spans="2:13">
-      <c r="B128" s="4">
+      <c r="C127" s="46"/>
+      <c r="D127" s="47"/>
+      <c r="E127" s="47"/>
+      <c r="F127" s="47"/>
+      <c r="G127" s="47"/>
+      <c r="H127" s="48"/>
+      <c r="I127" s="47"/>
+      <c r="J127" s="47"/>
+      <c r="K127" s="47"/>
+      <c r="L127" s="47"/>
+      <c r="M127" s="49"/>
+      <c r="N127" s="47"/>
+      <c r="O127" s="47"/>
+      <c r="P127" s="50"/>
+    </row>
+    <row r="128" spans="2:16">
+      <c r="B128" s="45">
         <v>124</v>
       </c>
-      <c r="M128" s="28"/>
-    </row>
-    <row r="129" spans="2:13">
-      <c r="B129" s="4">
+      <c r="C128" s="46"/>
+      <c r="D128" s="47"/>
+      <c r="E128" s="47"/>
+      <c r="F128" s="47"/>
+      <c r="G128" s="47"/>
+      <c r="H128" s="48"/>
+      <c r="I128" s="47"/>
+      <c r="J128" s="47"/>
+      <c r="K128" s="47"/>
+      <c r="L128" s="47"/>
+      <c r="M128" s="49"/>
+      <c r="N128" s="47"/>
+      <c r="O128" s="47"/>
+      <c r="P128" s="50"/>
+    </row>
+    <row r="129" spans="2:16">
+      <c r="B129" s="45">
         <v>125</v>
       </c>
-      <c r="M129" s="28"/>
-    </row>
-    <row r="130" spans="2:13">
-      <c r="B130" s="4">
+      <c r="C129" s="46"/>
+      <c r="D129" s="47"/>
+      <c r="E129" s="47"/>
+      <c r="F129" s="47"/>
+      <c r="G129" s="47"/>
+      <c r="H129" s="48"/>
+      <c r="I129" s="47"/>
+      <c r="J129" s="47"/>
+      <c r="K129" s="47"/>
+      <c r="L129" s="47"/>
+      <c r="M129" s="49"/>
+      <c r="N129" s="47"/>
+      <c r="O129" s="47"/>
+      <c r="P129" s="50"/>
+    </row>
+    <row r="130" spans="2:16">
+      <c r="B130" s="45">
         <v>126</v>
       </c>
-      <c r="M130" s="28"/>
-    </row>
-    <row r="131" spans="2:13">
-      <c r="B131" s="4">
+      <c r="C130" s="46"/>
+      <c r="D130" s="47"/>
+      <c r="E130" s="47"/>
+      <c r="F130" s="47"/>
+      <c r="G130" s="47"/>
+      <c r="H130" s="48"/>
+      <c r="I130" s="47"/>
+      <c r="J130" s="47"/>
+      <c r="K130" s="47"/>
+      <c r="L130" s="47"/>
+      <c r="M130" s="49"/>
+      <c r="N130" s="47"/>
+      <c r="O130" s="47"/>
+      <c r="P130" s="50"/>
+    </row>
+    <row r="131" spans="2:16">
+      <c r="B131" s="45">
         <v>127</v>
       </c>
-      <c r="M131" s="28"/>
-    </row>
-    <row r="132" spans="2:13">
-      <c r="B132" s="4">
+      <c r="C131" s="46"/>
+      <c r="D131" s="47"/>
+      <c r="E131" s="47"/>
+      <c r="F131" s="47"/>
+      <c r="G131" s="47"/>
+      <c r="H131" s="48"/>
+      <c r="I131" s="47"/>
+      <c r="J131" s="47"/>
+      <c r="K131" s="47"/>
+      <c r="L131" s="47"/>
+      <c r="M131" s="49"/>
+      <c r="N131" s="47"/>
+      <c r="O131" s="47"/>
+      <c r="P131" s="50"/>
+    </row>
+    <row r="132" spans="2:16">
+      <c r="B132" s="45">
         <v>128</v>
       </c>
-      <c r="M132" s="28"/>
-    </row>
-    <row r="133" spans="2:13">
-      <c r="B133" s="4">
+      <c r="C132" s="46"/>
+      <c r="D132" s="47"/>
+      <c r="E132" s="47"/>
+      <c r="F132" s="47"/>
+      <c r="G132" s="47"/>
+      <c r="H132" s="48"/>
+      <c r="I132" s="47"/>
+      <c r="J132" s="47"/>
+      <c r="K132" s="47"/>
+      <c r="L132" s="47"/>
+      <c r="M132" s="49"/>
+      <c r="N132" s="47"/>
+      <c r="O132" s="47"/>
+      <c r="P132" s="50"/>
+    </row>
+    <row r="133" spans="2:16">
+      <c r="B133" s="45">
         <v>129</v>
       </c>
-      <c r="M133" s="28"/>
-    </row>
-    <row r="134" spans="2:13">
-      <c r="B134" s="4">
+      <c r="C133" s="46"/>
+      <c r="D133" s="47"/>
+      <c r="E133" s="47"/>
+      <c r="F133" s="47"/>
+      <c r="G133" s="47"/>
+      <c r="H133" s="48"/>
+      <c r="I133" s="47"/>
+      <c r="J133" s="47"/>
+      <c r="K133" s="47"/>
+      <c r="L133" s="47"/>
+      <c r="M133" s="49"/>
+      <c r="N133" s="47"/>
+      <c r="O133" s="47"/>
+      <c r="P133" s="50"/>
+    </row>
+    <row r="134" spans="2:16">
+      <c r="B134" s="45">
         <v>130</v>
       </c>
-      <c r="M134" s="28"/>
-    </row>
-    <row r="135" spans="2:13">
-      <c r="B135" s="4">
+      <c r="C134" s="46"/>
+      <c r="D134" s="47"/>
+      <c r="E134" s="47"/>
+      <c r="F134" s="47"/>
+      <c r="G134" s="47"/>
+      <c r="H134" s="48"/>
+      <c r="I134" s="47"/>
+      <c r="J134" s="47"/>
+      <c r="K134" s="47"/>
+      <c r="L134" s="47"/>
+      <c r="M134" s="49"/>
+      <c r="N134" s="47"/>
+      <c r="O134" s="47"/>
+      <c r="P134" s="50"/>
+    </row>
+    <row r="135" spans="2:16">
+      <c r="B135" s="45">
         <v>131</v>
       </c>
-      <c r="M135" s="28"/>
-    </row>
-    <row r="136" spans="2:13">
-      <c r="B136" s="4">
+      <c r="C135" s="46"/>
+      <c r="D135" s="47"/>
+      <c r="E135" s="47"/>
+      <c r="F135" s="47"/>
+      <c r="G135" s="47"/>
+      <c r="H135" s="48"/>
+      <c r="I135" s="47"/>
+      <c r="J135" s="47"/>
+      <c r="K135" s="47"/>
+      <c r="L135" s="47"/>
+      <c r="M135" s="49"/>
+      <c r="N135" s="47"/>
+      <c r="O135" s="47"/>
+      <c r="P135" s="50"/>
+    </row>
+    <row r="136" spans="2:16">
+      <c r="B136" s="45">
         <v>132</v>
       </c>
-      <c r="M136" s="28"/>
-    </row>
-    <row r="137" spans="2:13">
-      <c r="B137" s="4">
+      <c r="C136" s="46"/>
+      <c r="D136" s="47"/>
+      <c r="E136" s="47"/>
+      <c r="F136" s="47"/>
+      <c r="G136" s="47"/>
+      <c r="H136" s="48"/>
+      <c r="I136" s="47"/>
+      <c r="J136" s="47"/>
+      <c r="K136" s="47"/>
+      <c r="L136" s="47"/>
+      <c r="M136" s="49"/>
+      <c r="N136" s="47"/>
+      <c r="O136" s="47"/>
+      <c r="P136" s="50"/>
+    </row>
+    <row r="137" spans="2:16">
+      <c r="B137" s="45">
         <v>133</v>
       </c>
-      <c r="M137" s="28"/>
-    </row>
-    <row r="138" spans="2:13">
-      <c r="B138" s="4">
+      <c r="C137" s="46"/>
+      <c r="D137" s="47"/>
+      <c r="E137" s="47"/>
+      <c r="F137" s="47"/>
+      <c r="G137" s="47"/>
+      <c r="H137" s="48"/>
+      <c r="I137" s="47"/>
+      <c r="J137" s="47"/>
+      <c r="K137" s="47"/>
+      <c r="L137" s="47"/>
+      <c r="M137" s="49"/>
+      <c r="N137" s="47"/>
+      <c r="O137" s="47"/>
+      <c r="P137" s="50"/>
+    </row>
+    <row r="138" spans="2:16">
+      <c r="B138" s="45">
         <v>134</v>
       </c>
-      <c r="M138" s="28"/>
-    </row>
-    <row r="139" spans="2:13">
-      <c r="B139" s="4">
+      <c r="C138" s="46"/>
+      <c r="D138" s="47"/>
+      <c r="E138" s="47"/>
+      <c r="F138" s="47"/>
+      <c r="G138" s="47"/>
+      <c r="H138" s="48"/>
+      <c r="I138" s="47"/>
+      <c r="J138" s="47"/>
+      <c r="K138" s="47"/>
+      <c r="L138" s="47"/>
+      <c r="M138" s="49"/>
+      <c r="N138" s="47"/>
+      <c r="O138" s="47"/>
+      <c r="P138" s="50"/>
+    </row>
+    <row r="139" spans="2:16">
+      <c r="B139" s="45">
         <v>135</v>
       </c>
-      <c r="M139" s="28"/>
-    </row>
-    <row r="140" spans="2:13">
-      <c r="B140" s="4">
+      <c r="C139" s="46"/>
+      <c r="D139" s="47"/>
+      <c r="E139" s="47"/>
+      <c r="F139" s="47"/>
+      <c r="G139" s="47"/>
+      <c r="H139" s="48"/>
+      <c r="I139" s="47"/>
+      <c r="J139" s="47"/>
+      <c r="K139" s="47"/>
+      <c r="L139" s="47"/>
+      <c r="M139" s="49"/>
+      <c r="N139" s="47"/>
+      <c r="O139" s="47"/>
+      <c r="P139" s="50"/>
+    </row>
+    <row r="140" spans="2:16">
+      <c r="B140" s="45">
         <v>136</v>
       </c>
-      <c r="M140" s="28"/>
-    </row>
-    <row r="141" spans="2:13">
-      <c r="B141" s="4">
+      <c r="C140" s="46"/>
+      <c r="D140" s="47"/>
+      <c r="E140" s="47"/>
+      <c r="F140" s="47"/>
+      <c r="G140" s="47"/>
+      <c r="H140" s="48"/>
+      <c r="I140" s="47"/>
+      <c r="J140" s="47"/>
+      <c r="K140" s="47"/>
+      <c r="L140" s="47"/>
+      <c r="M140" s="49"/>
+      <c r="N140" s="47"/>
+      <c r="O140" s="47"/>
+      <c r="P140" s="50"/>
+    </row>
+    <row r="141" spans="2:16">
+      <c r="B141" s="45">
         <v>137</v>
       </c>
-      <c r="M141" s="28"/>
-    </row>
-    <row r="142" spans="2:13">
-      <c r="B142" s="4">
+      <c r="C141" s="46"/>
+      <c r="D141" s="47"/>
+      <c r="E141" s="47"/>
+      <c r="F141" s="47"/>
+      <c r="G141" s="47"/>
+      <c r="H141" s="48"/>
+      <c r="I141" s="47"/>
+      <c r="J141" s="47"/>
+      <c r="K141" s="47"/>
+      <c r="L141" s="47"/>
+      <c r="M141" s="49"/>
+      <c r="N141" s="47"/>
+      <c r="O141" s="47"/>
+      <c r="P141" s="50"/>
+    </row>
+    <row r="142" spans="2:16">
+      <c r="B142" s="45">
         <v>138</v>
       </c>
-      <c r="M142" s="28"/>
-    </row>
-    <row r="143" spans="2:13">
-      <c r="B143" s="4">
+      <c r="C142" s="46"/>
+      <c r="D142" s="47"/>
+      <c r="E142" s="47"/>
+      <c r="F142" s="47"/>
+      <c r="G142" s="47"/>
+      <c r="H142" s="48"/>
+      <c r="I142" s="47"/>
+      <c r="J142" s="47"/>
+      <c r="K142" s="47"/>
+      <c r="L142" s="47"/>
+      <c r="M142" s="49"/>
+      <c r="N142" s="47"/>
+      <c r="O142" s="47"/>
+      <c r="P142" s="50"/>
+    </row>
+    <row r="143" spans="2:16">
+      <c r="B143" s="45">
         <v>139</v>
       </c>
-      <c r="M143" s="28"/>
-    </row>
-    <row r="144" spans="2:13">
-      <c r="B144" s="4">
+      <c r="C143" s="46"/>
+      <c r="D143" s="47"/>
+      <c r="E143" s="47"/>
+      <c r="F143" s="47"/>
+      <c r="G143" s="47"/>
+      <c r="H143" s="48"/>
+      <c r="I143" s="47"/>
+      <c r="J143" s="47"/>
+      <c r="K143" s="47"/>
+      <c r="L143" s="47"/>
+      <c r="M143" s="49"/>
+      <c r="N143" s="47"/>
+      <c r="O143" s="47"/>
+      <c r="P143" s="50"/>
+    </row>
+    <row r="144" spans="2:16">
+      <c r="B144" s="45">
         <v>140</v>
       </c>
-      <c r="E144" s="55"/>
-      <c r="M144" s="28"/>
-    </row>
-    <row r="145" spans="2:13">
-      <c r="B145" s="4">
+      <c r="C144" s="46"/>
+      <c r="D144" s="47"/>
+      <c r="E144" s="52"/>
+      <c r="F144" s="47"/>
+      <c r="G144" s="47"/>
+      <c r="H144" s="48"/>
+      <c r="I144" s="47"/>
+      <c r="J144" s="47"/>
+      <c r="K144" s="47"/>
+      <c r="L144" s="47"/>
+      <c r="M144" s="49"/>
+      <c r="N144" s="47"/>
+      <c r="O144" s="47"/>
+      <c r="P144" s="50"/>
+    </row>
+    <row r="145" spans="2:16">
+      <c r="B145" s="45">
         <v>141</v>
       </c>
-      <c r="E145" s="55"/>
-      <c r="M145" s="28"/>
-    </row>
-    <row r="146" spans="2:13">
-      <c r="B146" s="4">
+      <c r="C145" s="46"/>
+      <c r="D145" s="47"/>
+      <c r="E145" s="52"/>
+      <c r="F145" s="47"/>
+      <c r="G145" s="47"/>
+      <c r="H145" s="48"/>
+      <c r="I145" s="47"/>
+      <c r="J145" s="47"/>
+      <c r="K145" s="47"/>
+      <c r="L145" s="47"/>
+      <c r="M145" s="49"/>
+      <c r="N145" s="47"/>
+      <c r="O145" s="47"/>
+      <c r="P145" s="50"/>
+    </row>
+    <row r="146" spans="2:16">
+      <c r="B146" s="45">
         <v>142</v>
       </c>
-      <c r="E146" s="55"/>
-      <c r="M146" s="28"/>
-    </row>
-    <row r="147" spans="2:13">
-      <c r="B147" s="4">
+      <c r="C146" s="46"/>
+      <c r="D146" s="47"/>
+      <c r="E146" s="52"/>
+      <c r="F146" s="47"/>
+      <c r="G146" s="47"/>
+      <c r="H146" s="48"/>
+      <c r="I146" s="47"/>
+      <c r="J146" s="47"/>
+      <c r="K146" s="47"/>
+      <c r="L146" s="47"/>
+      <c r="M146" s="49"/>
+      <c r="N146" s="47"/>
+      <c r="O146" s="47"/>
+      <c r="P146" s="50"/>
+    </row>
+    <row r="147" spans="2:16">
+      <c r="B147" s="45">
         <v>143</v>
       </c>
-      <c r="E147" s="55"/>
-      <c r="M147" s="28"/>
-    </row>
-    <row r="148" spans="2:13">
-      <c r="B148" s="4">
+      <c r="C147" s="46"/>
+      <c r="D147" s="47"/>
+      <c r="E147" s="52"/>
+      <c r="F147" s="47"/>
+      <c r="G147" s="47"/>
+      <c r="H147" s="48"/>
+      <c r="I147" s="47"/>
+      <c r="J147" s="47"/>
+      <c r="K147" s="47"/>
+      <c r="L147" s="47"/>
+      <c r="M147" s="49"/>
+      <c r="N147" s="47"/>
+      <c r="O147" s="47"/>
+      <c r="P147" s="50"/>
+    </row>
+    <row r="148" spans="2:16">
+      <c r="B148" s="45">
         <v>144</v>
       </c>
-      <c r="E148" s="55"/>
-      <c r="M148" s="28"/>
-    </row>
-    <row r="149" spans="2:13">
-      <c r="B149" s="4">
+      <c r="C148" s="46"/>
+      <c r="D148" s="47"/>
+      <c r="E148" s="52"/>
+      <c r="F148" s="47"/>
+      <c r="G148" s="47"/>
+      <c r="H148" s="48"/>
+      <c r="I148" s="47"/>
+      <c r="J148" s="47"/>
+      <c r="K148" s="47"/>
+      <c r="L148" s="47"/>
+      <c r="M148" s="49"/>
+      <c r="N148" s="47"/>
+      <c r="O148" s="47"/>
+      <c r="P148" s="50"/>
+    </row>
+    <row r="149" spans="2:16">
+      <c r="B149" s="45">
         <v>145</v>
       </c>
-      <c r="E149" s="55"/>
-      <c r="M149" s="28"/>
-    </row>
-    <row r="150" spans="2:13">
-      <c r="B150" s="4">
+      <c r="C149" s="46"/>
+      <c r="D149" s="47"/>
+      <c r="E149" s="52"/>
+      <c r="F149" s="47"/>
+      <c r="G149" s="47"/>
+      <c r="H149" s="48"/>
+      <c r="I149" s="47"/>
+      <c r="J149" s="47"/>
+      <c r="K149" s="47"/>
+      <c r="L149" s="47"/>
+      <c r="M149" s="49"/>
+      <c r="N149" s="47"/>
+      <c r="O149" s="47"/>
+      <c r="P149" s="50"/>
+    </row>
+    <row r="150" spans="2:16">
+      <c r="B150" s="45">
         <v>146</v>
       </c>
-      <c r="E150" s="55"/>
-      <c r="M150" s="28"/>
-    </row>
-    <row r="151" spans="2:13">
-      <c r="B151" s="4">
+      <c r="C150" s="46"/>
+      <c r="D150" s="47"/>
+      <c r="E150" s="52"/>
+      <c r="F150" s="47"/>
+      <c r="G150" s="47"/>
+      <c r="H150" s="48"/>
+      <c r="I150" s="47"/>
+      <c r="J150" s="47"/>
+      <c r="K150" s="47"/>
+      <c r="L150" s="47"/>
+      <c r="M150" s="49"/>
+      <c r="N150" s="47"/>
+      <c r="O150" s="47"/>
+      <c r="P150" s="50"/>
+    </row>
+    <row r="151" spans="2:16">
+      <c r="B151" s="45">
         <v>147</v>
       </c>
-      <c r="E151" s="55"/>
-      <c r="M151" s="28"/>
-    </row>
-    <row r="152" spans="2:13">
-      <c r="B152" s="4">
+      <c r="C151" s="46"/>
+      <c r="D151" s="47"/>
+      <c r="E151" s="52"/>
+      <c r="F151" s="47"/>
+      <c r="G151" s="47"/>
+      <c r="H151" s="48"/>
+      <c r="I151" s="47"/>
+      <c r="J151" s="47"/>
+      <c r="K151" s="47"/>
+      <c r="L151" s="47"/>
+      <c r="M151" s="49"/>
+      <c r="N151" s="47"/>
+      <c r="O151" s="47"/>
+      <c r="P151" s="50"/>
+    </row>
+    <row r="152" spans="2:16">
+      <c r="B152" s="45">
         <v>148</v>
       </c>
-      <c r="E152" s="55"/>
-      <c r="M152" s="28"/>
-    </row>
-    <row r="153" spans="2:13">
-      <c r="B153" s="4">
+      <c r="C152" s="46"/>
+      <c r="D152" s="47"/>
+      <c r="E152" s="52"/>
+      <c r="F152" s="47"/>
+      <c r="G152" s="47"/>
+      <c r="H152" s="48"/>
+      <c r="I152" s="47"/>
+      <c r="J152" s="47"/>
+      <c r="K152" s="47"/>
+      <c r="L152" s="47"/>
+      <c r="M152" s="49"/>
+      <c r="N152" s="47"/>
+      <c r="O152" s="47"/>
+      <c r="P152" s="50"/>
+    </row>
+    <row r="153" spans="2:16">
+      <c r="B153" s="45">
         <v>149</v>
       </c>
-      <c r="E153" s="55"/>
-      <c r="M153" s="28"/>
-    </row>
-    <row r="154" spans="2:13">
-      <c r="B154" s="4">
+      <c r="C153" s="46"/>
+      <c r="D153" s="47"/>
+      <c r="E153" s="52"/>
+      <c r="F153" s="47"/>
+      <c r="G153" s="47"/>
+      <c r="H153" s="48"/>
+      <c r="I153" s="47"/>
+      <c r="J153" s="47"/>
+      <c r="K153" s="47"/>
+      <c r="L153" s="47"/>
+      <c r="M153" s="49"/>
+      <c r="N153" s="47"/>
+      <c r="O153" s="47"/>
+      <c r="P153" s="50"/>
+    </row>
+    <row r="154" spans="2:16">
+      <c r="B154" s="45">
         <v>150</v>
       </c>
-      <c r="E154" s="55"/>
-      <c r="F154" s="55"/>
-      <c r="M154" s="28"/>
-    </row>
-    <row r="155" spans="2:13">
-      <c r="B155" s="4">
+      <c r="C154" s="46"/>
+      <c r="D154" s="47"/>
+      <c r="E154" s="52"/>
+      <c r="F154" s="52"/>
+      <c r="G154" s="47"/>
+      <c r="H154" s="48"/>
+      <c r="I154" s="47"/>
+      <c r="J154" s="47"/>
+      <c r="K154" s="47"/>
+      <c r="L154" s="47"/>
+      <c r="M154" s="49"/>
+      <c r="N154" s="47"/>
+      <c r="O154" s="47"/>
+      <c r="P154" s="50"/>
+    </row>
+    <row r="155" spans="2:16">
+      <c r="B155" s="45">
         <v>151</v>
       </c>
-      <c r="E155" s="55"/>
-      <c r="M155" s="28"/>
-    </row>
-    <row r="156" spans="2:13">
-      <c r="B156" s="4">
+      <c r="C155" s="46"/>
+      <c r="D155" s="47"/>
+      <c r="E155" s="52"/>
+      <c r="F155" s="47"/>
+      <c r="G155" s="47"/>
+      <c r="H155" s="48"/>
+      <c r="I155" s="47"/>
+      <c r="J155" s="47"/>
+      <c r="K155" s="47"/>
+      <c r="L155" s="47"/>
+      <c r="M155" s="49"/>
+      <c r="N155" s="47"/>
+      <c r="O155" s="47"/>
+      <c r="P155" s="50"/>
+    </row>
+    <row r="156" spans="2:16">
+      <c r="B156" s="45">
         <v>152</v>
       </c>
-      <c r="E156" s="55"/>
-      <c r="M156" s="28"/>
-    </row>
-    <row r="157" spans="2:13">
-      <c r="B157" s="4">
+      <c r="C156" s="46"/>
+      <c r="D156" s="47"/>
+      <c r="E156" s="52"/>
+      <c r="F156" s="47"/>
+      <c r="G156" s="47"/>
+      <c r="H156" s="48"/>
+      <c r="I156" s="47"/>
+      <c r="J156" s="47"/>
+      <c r="K156" s="47"/>
+      <c r="L156" s="47"/>
+      <c r="M156" s="49"/>
+      <c r="N156" s="47"/>
+      <c r="O156" s="47"/>
+      <c r="P156" s="50"/>
+    </row>
+    <row r="157" spans="2:16">
+      <c r="B157" s="45">
         <v>153</v>
       </c>
-      <c r="E157" s="55"/>
-      <c r="M157" s="28"/>
-    </row>
-    <row r="158" spans="2:13">
-      <c r="B158" s="4">
+      <c r="C157" s="46"/>
+      <c r="D157" s="47"/>
+      <c r="E157" s="52"/>
+      <c r="F157" s="47"/>
+      <c r="G157" s="47"/>
+      <c r="H157" s="48"/>
+      <c r="I157" s="47"/>
+      <c r="J157" s="47"/>
+      <c r="K157" s="47"/>
+      <c r="L157" s="47"/>
+      <c r="M157" s="49"/>
+      <c r="N157" s="47"/>
+      <c r="O157" s="47"/>
+      <c r="P157" s="50"/>
+    </row>
+    <row r="158" spans="2:16">
+      <c r="B158" s="45">
         <v>154</v>
       </c>
-      <c r="E158" s="55"/>
-      <c r="M158" s="28"/>
-    </row>
-    <row r="159" spans="2:13">
-      <c r="B159" s="4">
+      <c r="C158" s="46"/>
+      <c r="D158" s="47"/>
+      <c r="E158" s="52"/>
+      <c r="F158" s="47"/>
+      <c r="G158" s="47"/>
+      <c r="H158" s="48"/>
+      <c r="I158" s="47"/>
+      <c r="J158" s="47"/>
+      <c r="K158" s="47"/>
+      <c r="L158" s="47"/>
+      <c r="M158" s="49"/>
+      <c r="N158" s="47"/>
+      <c r="O158" s="47"/>
+      <c r="P158" s="50"/>
+    </row>
+    <row r="159" spans="2:16">
+      <c r="B159" s="45">
         <v>155</v>
       </c>
-      <c r="E159" s="55"/>
-      <c r="M159" s="28"/>
-    </row>
-    <row r="160" spans="2:13">
-      <c r="B160" s="4">
+      <c r="C159" s="46"/>
+      <c r="D159" s="47"/>
+      <c r="E159" s="52"/>
+      <c r="F159" s="47"/>
+      <c r="G159" s="47"/>
+      <c r="H159" s="48"/>
+      <c r="I159" s="47"/>
+      <c r="J159" s="47"/>
+      <c r="K159" s="47"/>
+      <c r="L159" s="47"/>
+      <c r="M159" s="49"/>
+      <c r="N159" s="47"/>
+      <c r="O159" s="47"/>
+      <c r="P159" s="50"/>
+    </row>
+    <row r="160" spans="2:16">
+      <c r="B160" s="45">
         <v>156</v>
       </c>
-      <c r="E160" s="55"/>
-      <c r="M160" s="28"/>
-    </row>
-    <row r="161" spans="2:13">
-      <c r="B161" s="4">
+      <c r="C160" s="46"/>
+      <c r="D160" s="47"/>
+      <c r="E160" s="52"/>
+      <c r="F160" s="47"/>
+      <c r="G160" s="47"/>
+      <c r="H160" s="48"/>
+      <c r="I160" s="47"/>
+      <c r="J160" s="47"/>
+      <c r="K160" s="47"/>
+      <c r="L160" s="47"/>
+      <c r="M160" s="49"/>
+      <c r="N160" s="47"/>
+      <c r="O160" s="47"/>
+      <c r="P160" s="50"/>
+    </row>
+    <row r="161" spans="2:16">
+      <c r="B161" s="45">
         <v>157</v>
       </c>
-      <c r="E161" s="55"/>
-      <c r="F161" s="55"/>
-      <c r="M161" s="28"/>
-    </row>
-    <row r="162" spans="2:13">
-      <c r="B162" s="4">
+      <c r="C161" s="46"/>
+      <c r="D161" s="47"/>
+      <c r="E161" s="52"/>
+      <c r="F161" s="52"/>
+      <c r="G161" s="47"/>
+      <c r="H161" s="48"/>
+      <c r="I161" s="47"/>
+      <c r="J161" s="47"/>
+      <c r="K161" s="47"/>
+      <c r="L161" s="47"/>
+      <c r="M161" s="49"/>
+      <c r="N161" s="47"/>
+      <c r="O161" s="47"/>
+      <c r="P161" s="50"/>
+    </row>
+    <row r="162" spans="2:16">
+      <c r="B162" s="45">
         <v>158</v>
       </c>
-      <c r="M162" s="28"/>
-    </row>
-    <row r="163" spans="2:13">
-      <c r="B163" s="4">
+      <c r="C162" s="46"/>
+      <c r="D162" s="47"/>
+      <c r="E162" s="47"/>
+      <c r="F162" s="47"/>
+      <c r="G162" s="47"/>
+      <c r="H162" s="48"/>
+      <c r="I162" s="47"/>
+      <c r="J162" s="47"/>
+      <c r="K162" s="47"/>
+      <c r="L162" s="47"/>
+      <c r="M162" s="49"/>
+      <c r="N162" s="47"/>
+      <c r="O162" s="47"/>
+      <c r="P162" s="50"/>
+    </row>
+    <row r="163" spans="2:16">
+      <c r="B163" s="45">
         <v>159</v>
       </c>
-      <c r="M163" s="28"/>
-    </row>
-    <row r="164" spans="2:13">
-      <c r="B164" s="4">
+      <c r="C163" s="46"/>
+      <c r="D163" s="47"/>
+      <c r="E163" s="47"/>
+      <c r="F163" s="47"/>
+      <c r="G163" s="47"/>
+      <c r="H163" s="48"/>
+      <c r="I163" s="47"/>
+      <c r="J163" s="47"/>
+      <c r="K163" s="47"/>
+      <c r="L163" s="47"/>
+      <c r="M163" s="49"/>
+      <c r="N163" s="47"/>
+      <c r="O163" s="47"/>
+      <c r="P163" s="50"/>
+    </row>
+    <row r="164" spans="2:16">
+      <c r="B164" s="45">
         <v>160</v>
       </c>
-      <c r="E164" s="55"/>
-      <c r="F164" s="55"/>
-      <c r="M164" s="28"/>
-    </row>
-    <row r="165" spans="2:13">
-      <c r="B165" s="4">
+      <c r="C164" s="46"/>
+      <c r="D164" s="47"/>
+      <c r="E164" s="52"/>
+      <c r="F164" s="52"/>
+      <c r="G164" s="47"/>
+      <c r="H164" s="48"/>
+      <c r="I164" s="47"/>
+      <c r="J164" s="47"/>
+      <c r="K164" s="47"/>
+      <c r="L164" s="47"/>
+      <c r="M164" s="49"/>
+      <c r="N164" s="47"/>
+      <c r="O164" s="47"/>
+      <c r="P164" s="50"/>
+    </row>
+    <row r="165" spans="2:16">
+      <c r="B165" s="45">
         <v>161</v>
       </c>
-      <c r="E165" s="55"/>
-      <c r="M165" s="28"/>
-    </row>
-    <row r="166" spans="2:13">
-      <c r="B166" s="4">
+      <c r="C165" s="46"/>
+      <c r="D165" s="47"/>
+      <c r="E165" s="52"/>
+      <c r="F165" s="47"/>
+      <c r="G165" s="47"/>
+      <c r="H165" s="48"/>
+      <c r="I165" s="47"/>
+      <c r="J165" s="47"/>
+      <c r="K165" s="47"/>
+      <c r="L165" s="47"/>
+      <c r="M165" s="49"/>
+      <c r="N165" s="47"/>
+      <c r="O165" s="47"/>
+      <c r="P165" s="50"/>
+    </row>
+    <row r="166" spans="2:16">
+      <c r="B166" s="45">
         <v>162</v>
       </c>
-      <c r="M166" s="28"/>
-    </row>
-    <row r="167" spans="2:13">
-      <c r="B167" s="4">
+      <c r="C166" s="46"/>
+      <c r="D166" s="47"/>
+      <c r="E166" s="47"/>
+      <c r="F166" s="47"/>
+      <c r="G166" s="47"/>
+      <c r="H166" s="48"/>
+      <c r="I166" s="47"/>
+      <c r="J166" s="47"/>
+      <c r="K166" s="47"/>
+      <c r="L166" s="47"/>
+      <c r="M166" s="49"/>
+      <c r="N166" s="47"/>
+      <c r="O166" s="47"/>
+      <c r="P166" s="50"/>
+    </row>
+    <row r="167" spans="2:16">
+      <c r="B167" s="45">
         <v>163</v>
       </c>
-      <c r="M167" s="28"/>
-    </row>
-    <row r="168" spans="2:13">
-      <c r="B168" s="4">
+      <c r="C167" s="46"/>
+      <c r="D167" s="47"/>
+      <c r="E167" s="47"/>
+      <c r="F167" s="47"/>
+      <c r="G167" s="47"/>
+      <c r="H167" s="48"/>
+      <c r="I167" s="47"/>
+      <c r="J167" s="47"/>
+      <c r="K167" s="47"/>
+      <c r="L167" s="47"/>
+      <c r="M167" s="49"/>
+      <c r="N167" s="47"/>
+      <c r="O167" s="47"/>
+      <c r="P167" s="50"/>
+    </row>
+    <row r="168" spans="2:16">
+      <c r="B168" s="45">
         <v>164</v>
       </c>
-      <c r="M168" s="28"/>
-    </row>
-    <row r="169" spans="2:13">
-      <c r="B169" s="4">
+      <c r="C168" s="46"/>
+      <c r="D168" s="47"/>
+      <c r="E168" s="47"/>
+      <c r="F168" s="47"/>
+      <c r="G168" s="47"/>
+      <c r="H168" s="48"/>
+      <c r="I168" s="47"/>
+      <c r="J168" s="47"/>
+      <c r="K168" s="47"/>
+      <c r="L168" s="47"/>
+      <c r="M168" s="49"/>
+      <c r="N168" s="47"/>
+      <c r="O168" s="47"/>
+      <c r="P168" s="50"/>
+    </row>
+    <row r="169" spans="2:16">
+      <c r="B169" s="45">
         <v>165</v>
       </c>
-      <c r="M169" s="28"/>
-    </row>
-    <row r="170" spans="2:13">
-      <c r="B170" s="4">
+      <c r="C169" s="46"/>
+      <c r="D169" s="47"/>
+      <c r="E169" s="47"/>
+      <c r="F169" s="47"/>
+      <c r="G169" s="47"/>
+      <c r="H169" s="48"/>
+      <c r="I169" s="47"/>
+      <c r="J169" s="47"/>
+      <c r="K169" s="47"/>
+      <c r="L169" s="47"/>
+      <c r="M169" s="49"/>
+      <c r="N169" s="47"/>
+      <c r="O169" s="47"/>
+      <c r="P169" s="50"/>
+    </row>
+    <row r="170" spans="2:16">
+      <c r="B170" s="45">
         <v>166</v>
       </c>
-      <c r="M170" s="28"/>
-    </row>
-    <row r="171" spans="2:13">
-      <c r="B171" s="4">
+      <c r="C170" s="46"/>
+      <c r="D170" s="47"/>
+      <c r="E170" s="47"/>
+      <c r="F170" s="47"/>
+      <c r="G170" s="47"/>
+      <c r="H170" s="48"/>
+      <c r="I170" s="47"/>
+      <c r="J170" s="47"/>
+      <c r="K170" s="47"/>
+      <c r="L170" s="47"/>
+      <c r="M170" s="49"/>
+      <c r="N170" s="47"/>
+      <c r="O170" s="47"/>
+      <c r="P170" s="50"/>
+    </row>
+    <row r="171" spans="2:16">
+      <c r="B171" s="45">
         <v>167</v>
       </c>
-      <c r="M171" s="28"/>
-    </row>
-    <row r="172" spans="2:13">
-      <c r="B172" s="4">
+      <c r="C171" s="46"/>
+      <c r="D171" s="47"/>
+      <c r="E171" s="47"/>
+      <c r="F171" s="47"/>
+      <c r="G171" s="47"/>
+      <c r="H171" s="48"/>
+      <c r="I171" s="47"/>
+      <c r="J171" s="47"/>
+      <c r="K171" s="47"/>
+      <c r="L171" s="47"/>
+      <c r="M171" s="49"/>
+      <c r="N171" s="47"/>
+      <c r="O171" s="47"/>
+      <c r="P171" s="50"/>
+    </row>
+    <row r="172" spans="2:16">
+      <c r="B172" s="45">
         <v>168</v>
       </c>
-      <c r="M172" s="28"/>
-    </row>
-    <row r="173" spans="2:13">
-      <c r="B173" s="4">
+      <c r="C172" s="46"/>
+      <c r="D172" s="47"/>
+      <c r="E172" s="47"/>
+      <c r="F172" s="47"/>
+      <c r="G172" s="47"/>
+      <c r="H172" s="48"/>
+      <c r="I172" s="47"/>
+      <c r="J172" s="47"/>
+      <c r="K172" s="47"/>
+      <c r="L172" s="47"/>
+      <c r="M172" s="49"/>
+      <c r="N172" s="47"/>
+      <c r="O172" s="47"/>
+      <c r="P172" s="50"/>
+    </row>
+    <row r="173" spans="2:16">
+      <c r="B173" s="45">
         <v>169</v>
       </c>
-      <c r="M173" s="28"/>
-    </row>
-    <row r="174" spans="2:13">
-      <c r="B174" s="4">
+      <c r="C173" s="46"/>
+      <c r="D173" s="47"/>
+      <c r="E173" s="47"/>
+      <c r="F173" s="47"/>
+      <c r="G173" s="47"/>
+      <c r="H173" s="48"/>
+      <c r="I173" s="47"/>
+      <c r="J173" s="47"/>
+      <c r="K173" s="47"/>
+      <c r="L173" s="47"/>
+      <c r="M173" s="49"/>
+      <c r="N173" s="47"/>
+      <c r="O173" s="47"/>
+      <c r="P173" s="50"/>
+    </row>
+    <row r="174" spans="2:16">
+      <c r="B174" s="45">
         <v>170</v>
       </c>
-      <c r="M174" s="28"/>
-    </row>
-    <row r="175" spans="2:13">
-      <c r="B175" s="4">
+      <c r="C174" s="46"/>
+      <c r="D174" s="47"/>
+      <c r="E174" s="47"/>
+      <c r="F174" s="47"/>
+      <c r="G174" s="47"/>
+      <c r="H174" s="48"/>
+      <c r="I174" s="47"/>
+      <c r="J174" s="47"/>
+      <c r="K174" s="47"/>
+      <c r="L174" s="47"/>
+      <c r="M174" s="49"/>
+      <c r="N174" s="47"/>
+      <c r="O174" s="47"/>
+      <c r="P174" s="50"/>
+    </row>
+    <row r="175" spans="2:16">
+      <c r="B175" s="45">
         <v>171</v>
       </c>
-      <c r="M175" s="28"/>
-    </row>
-    <row r="176" spans="2:13">
-      <c r="B176" s="4">
+      <c r="C175" s="46"/>
+      <c r="D175" s="47"/>
+      <c r="E175" s="47"/>
+      <c r="F175" s="47"/>
+      <c r="G175" s="47"/>
+      <c r="H175" s="48"/>
+      <c r="I175" s="47"/>
+      <c r="J175" s="47"/>
+      <c r="K175" s="47"/>
+      <c r="L175" s="47"/>
+      <c r="M175" s="49"/>
+      <c r="N175" s="47"/>
+      <c r="O175" s="47"/>
+      <c r="P175" s="50"/>
+    </row>
+    <row r="176" spans="2:16">
+      <c r="B176" s="45">
         <v>172</v>
       </c>
-      <c r="M176" s="28"/>
-    </row>
-    <row r="177" spans="2:13">
-      <c r="B177" s="4">
+      <c r="C176" s="46"/>
+      <c r="D176" s="47"/>
+      <c r="E176" s="47"/>
+      <c r="F176" s="47"/>
+      <c r="G176" s="47"/>
+      <c r="H176" s="48"/>
+      <c r="I176" s="47"/>
+      <c r="J176" s="47"/>
+      <c r="K176" s="47"/>
+      <c r="L176" s="47"/>
+      <c r="M176" s="49"/>
+      <c r="N176" s="47"/>
+      <c r="O176" s="47"/>
+      <c r="P176" s="50"/>
+    </row>
+    <row r="177" spans="2:16">
+      <c r="B177" s="45">
         <v>173</v>
       </c>
-      <c r="M177" s="28"/>
-    </row>
-    <row r="178" spans="2:13">
-      <c r="B178" s="4">
+      <c r="C177" s="46"/>
+      <c r="D177" s="47"/>
+      <c r="E177" s="47"/>
+      <c r="F177" s="47"/>
+      <c r="G177" s="47"/>
+      <c r="H177" s="48"/>
+      <c r="I177" s="47"/>
+      <c r="J177" s="47"/>
+      <c r="K177" s="47"/>
+      <c r="L177" s="47"/>
+      <c r="M177" s="49"/>
+      <c r="N177" s="47"/>
+      <c r="O177" s="47"/>
+      <c r="P177" s="50"/>
+    </row>
+    <row r="178" spans="2:16">
+      <c r="B178" s="45">
         <v>174</v>
       </c>
-      <c r="M178" s="28"/>
-    </row>
-    <row r="179" spans="2:13">
-      <c r="B179" s="4">
+      <c r="C178" s="46"/>
+      <c r="D178" s="47"/>
+      <c r="E178" s="47"/>
+      <c r="F178" s="47"/>
+      <c r="G178" s="47"/>
+      <c r="H178" s="48"/>
+      <c r="I178" s="47"/>
+      <c r="J178" s="47"/>
+      <c r="K178" s="47"/>
+      <c r="L178" s="47"/>
+      <c r="M178" s="49"/>
+      <c r="N178" s="47"/>
+      <c r="O178" s="47"/>
+      <c r="P178" s="50"/>
+    </row>
+    <row r="179" spans="2:16">
+      <c r="B179" s="45">
         <v>175</v>
       </c>
-      <c r="M179" s="28"/>
+      <c r="C179" s="46"/>
+      <c r="D179" s="47"/>
+      <c r="E179" s="47"/>
+      <c r="F179" s="47"/>
+      <c r="G179" s="47"/>
+      <c r="H179" s="48"/>
+      <c r="I179" s="47"/>
+      <c r="J179" s="47"/>
+      <c r="K179" s="47"/>
+      <c r="L179" s="47"/>
+      <c r="M179" s="49"/>
+      <c r="N179" s="47"/>
+      <c r="O179" s="47"/>
+      <c r="P179" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3106,8 +4850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0A10DB1-E37C-5244-B63B-8274B8B3FC20}">
   <dimension ref="B1:N44"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -3117,140 +4861,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="22" customHeight="1"/>
-    <row r="2" spans="2:14" s="9" customFormat="1">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="2:14" s="8" customFormat="1">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="2:14" s="7" customFormat="1" ht="60" customHeight="1">
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="2:14" s="6" customFormat="1" ht="60" customHeight="1">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="11" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="2:14" s="7" customFormat="1" ht="17">
-      <c r="B4" s="8" t="s">
+    <row r="4" spans="2:14" s="6" customFormat="1" ht="17">
+      <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="N4" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="22">
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="21">
         <f>16+1</f>
         <v>17</v>
       </c>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22">
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21">
         <v>4</v>
       </c>
-      <c r="M5" s="22">
+      <c r="M5" s="21">
         <v>1</v>
       </c>
-      <c r="N5" s="22">
+      <c r="N5" s="21">
         <v>1</v>
       </c>
     </row>
@@ -3258,30 +5002,30 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="23">
         <v>1</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26">
+      <c r="E6" s="24"/>
+      <c r="F6" s="25">
         <v>-405</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="26">
         <v>-14.5</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="27">
         <v>-169</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22">
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21">
         <v>20</v>
       </c>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22">
+      <c r="M6" s="21"/>
+      <c r="N6" s="21">
         <v>25</v>
       </c>
     </row>
@@ -3289,28 +5033,28 @@
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="23">
         <v>2</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="26">
+      <c r="E7" s="24"/>
+      <c r="F7" s="25">
         <v>-405</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="26">
         <v>-14.5</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="27">
         <v>111</v>
       </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22">
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21">
         <v>33</v>
       </c>
     </row>
@@ -3318,136 +5062,136 @@
       <c r="B8">
         <v>3</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="23">
         <v>3</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="26">
+      <c r="E8" s="24"/>
+      <c r="F8" s="25">
         <v>-284</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="26">
         <v>-13</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="27">
         <v>-160</v>
       </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
     </row>
     <row r="9" spans="2:14">
       <c r="B9">
         <v>4</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="23">
         <v>4</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="26">
+      <c r="E9" s="24"/>
+      <c r="F9" s="25">
         <v>-284</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="26">
         <v>-13</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="27">
         <v>160</v>
       </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
     </row>
     <row r="10" spans="2:14">
       <c r="B10">
         <v>5</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="23">
         <v>5</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="26">
+      <c r="E10" s="24"/>
+      <c r="F10" s="25">
         <v>284</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="26">
         <v>-13</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="27">
         <v>-160</v>
       </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
     </row>
     <row r="11" spans="2:14">
       <c r="B11">
         <v>6</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="23">
         <v>6</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26">
+      <c r="E11" s="24"/>
+      <c r="F11" s="25">
         <v>284</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="26">
         <v>-13</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="27">
         <v>160</v>
       </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
     </row>
     <row r="12" spans="2:14">
       <c r="B12">
         <v>7</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="23">
         <v>7</v>
       </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="26">
+      <c r="E12" s="24"/>
+      <c r="F12" s="25">
         <v>405</v>
       </c>
-      <c r="G12" s="27">
+      <c r="G12" s="26">
         <v>-14.5</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="27">
         <v>-169</v>
       </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22">
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21">
         <v>10</v>
       </c>
     </row>
@@ -3455,28 +5199,28 @@
       <c r="B13">
         <v>8</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="23">
         <v>8</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="26">
+      <c r="E13" s="24"/>
+      <c r="F13" s="25">
         <v>405</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G13" s="26">
         <v>-14.5</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="27">
         <v>111</v>
       </c>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22">
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21">
         <v>18</v>
       </c>
     </row>
@@ -3484,38 +5228,38 @@
       <c r="B14">
         <v>9</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="23">
         <v>1</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="26">
+      <c r="E14" s="24"/>
+      <c r="F14" s="25">
         <v>-445</v>
       </c>
-      <c r="G14" s="27">
+      <c r="G14" s="26">
         <v>-5</v>
       </c>
-      <c r="H14" s="28">
+      <c r="H14" s="27">
         <v>-182.3</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="21">
         <f>16+6</f>
         <v>22</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="21">
         <f>16+6</f>
         <v>22</v>
       </c>
-      <c r="K14" s="22">
+      <c r="K14" s="21">
         <v>15</v>
       </c>
-      <c r="L14" s="22">
+      <c r="L14" s="21">
         <v>11</v>
       </c>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22">
+      <c r="M14" s="21"/>
+      <c r="N14" s="21">
         <v>30</v>
       </c>
     </row>
@@ -3523,32 +5267,32 @@
       <c r="B15">
         <v>10</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="23">
         <v>2</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="26">
+      <c r="E15" s="24"/>
+      <c r="F15" s="25">
         <v>-445</v>
       </c>
-      <c r="G15" s="27">
+      <c r="G15" s="26">
         <v>-5</v>
       </c>
-      <c r="H15" s="28">
+      <c r="H15" s="27">
         <v>-121.5</v>
       </c>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22">
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21">
         <v>14</v>
       </c>
-      <c r="L15" s="22">
+      <c r="L15" s="21">
         <v>12</v>
       </c>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22">
+      <c r="M15" s="21"/>
+      <c r="N15" s="21">
         <v>21</v>
       </c>
     </row>
@@ -3556,32 +5300,32 @@
       <c r="B16">
         <v>11</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="23">
         <v>3</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="26">
+      <c r="E16" s="24"/>
+      <c r="F16" s="25">
         <v>-445</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="26">
         <v>-5</v>
       </c>
-      <c r="H16" s="28">
+      <c r="H16" s="27">
         <v>-60.7</v>
       </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22">
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21">
         <v>13</v>
       </c>
-      <c r="L16" s="22">
+      <c r="L16" s="21">
         <v>13</v>
       </c>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22">
+      <c r="M16" s="21"/>
+      <c r="N16" s="21">
         <v>29</v>
       </c>
     </row>
@@ -3589,38 +5333,38 @@
       <c r="B17">
         <v>12</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="23">
         <v>4</v>
       </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="26">
+      <c r="E17" s="24"/>
+      <c r="F17" s="25">
         <v>-445</v>
       </c>
-      <c r="G17" s="27">
+      <c r="G17" s="26">
         <v>-5</v>
       </c>
-      <c r="H17" s="28">
+      <c r="H17" s="27">
         <v>0</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="21">
         <f>16+5</f>
         <v>21</v>
       </c>
-      <c r="J17" s="22">
+      <c r="J17" s="21">
         <f>16+5</f>
         <v>21</v>
       </c>
-      <c r="K17" s="22">
+      <c r="K17" s="21">
         <v>12</v>
       </c>
-      <c r="L17" s="22">
+      <c r="L17" s="21">
         <v>14</v>
       </c>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22">
+      <c r="M17" s="21"/>
+      <c r="N17" s="21">
         <v>22</v>
       </c>
     </row>
@@ -3628,32 +5372,32 @@
       <c r="B18">
         <v>13</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="23">
         <v>5</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="26">
+      <c r="E18" s="24"/>
+      <c r="F18" s="25">
         <v>-445</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="26">
         <v>-5</v>
       </c>
-      <c r="H18" s="28">
+      <c r="H18" s="27">
         <v>60.7</v>
       </c>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22">
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21">
         <v>11</v>
       </c>
-      <c r="L18" s="22">
+      <c r="L18" s="21">
         <v>15</v>
       </c>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22">
+      <c r="M18" s="21"/>
+      <c r="N18" s="21">
         <v>34</v>
       </c>
     </row>
@@ -3661,34 +5405,34 @@
       <c r="B19">
         <v>14</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="23">
         <v>6</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="26">
+      <c r="E19" s="24"/>
+      <c r="F19" s="25">
         <v>-445</v>
       </c>
-      <c r="G19" s="27">
+      <c r="G19" s="26">
         <v>-5</v>
       </c>
-      <c r="H19" s="28">
+      <c r="H19" s="27">
         <v>121.5</v>
       </c>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22">
+      <c r="I19" s="21"/>
+      <c r="J19" s="21">
         <v>17</v>
       </c>
-      <c r="K19" s="22">
+      <c r="K19" s="21">
         <v>10</v>
       </c>
-      <c r="L19" s="22">
+      <c r="L19" s="21">
         <v>16</v>
       </c>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22">
+      <c r="M19" s="21"/>
+      <c r="N19" s="21">
         <v>36</v>
       </c>
     </row>
@@ -3696,38 +5440,38 @@
       <c r="B20">
         <v>15</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D20" s="23">
         <v>7</v>
       </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="26">
+      <c r="E20" s="24"/>
+      <c r="F20" s="25">
         <v>-445</v>
       </c>
-      <c r="G20" s="27">
+      <c r="G20" s="26">
         <v>-5</v>
       </c>
-      <c r="H20" s="28">
+      <c r="H20" s="27">
         <v>182.3</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I20" s="21">
         <f>16+4</f>
         <v>20</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J20" s="21">
         <f>16+4</f>
         <v>20</v>
       </c>
-      <c r="K20" s="22">
+      <c r="K20" s="21">
         <v>9</v>
       </c>
-      <c r="L20" s="22">
+      <c r="L20" s="21">
         <v>17</v>
       </c>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22">
+      <c r="M20" s="21"/>
+      <c r="N20" s="21">
         <v>35</v>
       </c>
     </row>
@@ -3735,37 +5479,37 @@
       <c r="B21">
         <v>16</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21" s="23">
         <v>1</v>
       </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="26">
+      <c r="E21" s="24"/>
+      <c r="F21" s="25">
         <v>445</v>
       </c>
-      <c r="G21" s="27">
+      <c r="G21" s="26">
         <v>-5</v>
       </c>
-      <c r="H21" s="28">
+      <c r="H21" s="27">
         <v>-182.3</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I21" s="21">
         <f>16+3</f>
         <v>19</v>
       </c>
-      <c r="J21" s="22">
+      <c r="J21" s="21">
         <v>23</v>
       </c>
-      <c r="K21" s="22">
+      <c r="K21" s="21">
         <v>1</v>
       </c>
-      <c r="L21" s="22">
+      <c r="L21" s="21">
         <v>1</v>
       </c>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22">
+      <c r="M21" s="21"/>
+      <c r="N21" s="21">
         <v>5</v>
       </c>
     </row>
@@ -3773,32 +5517,32 @@
       <c r="B22">
         <v>17</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="23">
         <v>2</v>
       </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="26">
+      <c r="E22" s="24"/>
+      <c r="F22" s="25">
         <v>445</v>
       </c>
-      <c r="G22" s="27">
+      <c r="G22" s="26">
         <v>-5</v>
       </c>
-      <c r="H22" s="28">
+      <c r="H22" s="27">
         <v>-121.5</v>
       </c>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22">
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21">
         <v>2</v>
       </c>
-      <c r="L22" s="22">
+      <c r="L22" s="21">
         <v>2</v>
       </c>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22">
+      <c r="M22" s="21"/>
+      <c r="N22" s="21">
         <v>6</v>
       </c>
     </row>
@@ -3806,32 +5550,32 @@
       <c r="B23">
         <v>18</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="24">
+      <c r="D23" s="23">
         <v>3</v>
       </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="26">
+      <c r="E23" s="24"/>
+      <c r="F23" s="25">
         <v>445</v>
       </c>
-      <c r="G23" s="27">
+      <c r="G23" s="26">
         <v>-5</v>
       </c>
-      <c r="H23" s="28">
+      <c r="H23" s="27">
         <v>-60.7</v>
       </c>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22">
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21">
         <v>3</v>
       </c>
-      <c r="L23" s="22">
+      <c r="L23" s="21">
         <v>3</v>
       </c>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22">
+      <c r="M23" s="21"/>
+      <c r="N23" s="21">
         <v>4</v>
       </c>
     </row>
@@ -3839,39 +5583,39 @@
       <c r="B24">
         <v>19</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="23">
         <v>4</v>
       </c>
-      <c r="E24" s="31" t="s">
+      <c r="E24" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="26">
+      <c r="F24" s="25">
         <v>445</v>
       </c>
-      <c r="G24" s="27">
+      <c r="G24" s="26">
         <v>-7.5</v>
       </c>
-      <c r="H24" s="28">
+      <c r="H24" s="27">
         <v>0</v>
       </c>
-      <c r="I24" s="22">
+      <c r="I24" s="21">
         <f>16+7</f>
         <v>23</v>
       </c>
-      <c r="J24" s="22">
+      <c r="J24" s="21">
         <v>18</v>
       </c>
-      <c r="K24" s="22">
+      <c r="K24" s="21">
         <v>4</v>
       </c>
-      <c r="L24" s="22">
+      <c r="L24" s="21">
         <v>6</v>
       </c>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22">
+      <c r="M24" s="21"/>
+      <c r="N24" s="21">
         <v>3</v>
       </c>
     </row>
@@ -3879,39 +5623,39 @@
       <c r="B25">
         <v>20</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="23">
         <v>4</v>
       </c>
-      <c r="E25" s="32" t="s">
+      <c r="E25" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="26">
+      <c r="F25" s="25">
         <v>445</v>
       </c>
-      <c r="G25" s="27">
+      <c r="G25" s="26">
         <v>-2.5</v>
       </c>
-      <c r="H25" s="28">
+      <c r="H25" s="27">
         <v>0</v>
       </c>
-      <c r="I25" s="22">
+      <c r="I25" s="21">
         <f>16+8</f>
         <v>24</v>
       </c>
-      <c r="J25" s="22">
+      <c r="J25" s="21">
         <v>19</v>
       </c>
-      <c r="K25" s="22">
+      <c r="K25" s="21">
         <v>5</v>
       </c>
-      <c r="L25" s="22">
+      <c r="L25" s="21">
         <v>5</v>
       </c>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22">
+      <c r="M25" s="21"/>
+      <c r="N25" s="21">
         <v>12</v>
       </c>
     </row>
@@ -3919,32 +5663,32 @@
       <c r="B26">
         <v>21</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="24">
+      <c r="D26" s="23">
         <v>5</v>
       </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="26">
+      <c r="E26" s="24"/>
+      <c r="F26" s="25">
         <v>445</v>
       </c>
-      <c r="G26" s="27">
+      <c r="G26" s="26">
         <v>-5</v>
       </c>
-      <c r="H26" s="28">
+      <c r="H26" s="27">
         <v>60.7</v>
       </c>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22">
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21">
         <v>6</v>
       </c>
-      <c r="L26" s="22">
+      <c r="L26" s="21">
         <v>7</v>
       </c>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22">
+      <c r="M26" s="21"/>
+      <c r="N26" s="21">
         <v>19</v>
       </c>
     </row>
@@ -3952,32 +5696,32 @@
       <c r="B27">
         <v>22</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="24">
+      <c r="D27" s="23">
         <v>6</v>
       </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="26">
+      <c r="E27" s="24"/>
+      <c r="F27" s="25">
         <v>445</v>
       </c>
-      <c r="G27" s="27">
+      <c r="G27" s="26">
         <v>-5</v>
       </c>
-      <c r="H27" s="28">
+      <c r="H27" s="27">
         <v>121.5</v>
       </c>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22">
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21">
         <v>7</v>
       </c>
-      <c r="L27" s="22">
+      <c r="L27" s="21">
         <v>8</v>
       </c>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22">
+      <c r="M27" s="21"/>
+      <c r="N27" s="21">
         <v>11</v>
       </c>
     </row>
@@ -3985,37 +5729,37 @@
       <c r="B28">
         <v>23</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="23">
         <v>7</v>
       </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="26">
+      <c r="E28" s="24"/>
+      <c r="F28" s="25">
         <v>445</v>
       </c>
-      <c r="G28" s="27">
+      <c r="G28" s="26">
         <v>-5</v>
       </c>
-      <c r="H28" s="28">
+      <c r="H28" s="27">
         <v>182.3</v>
       </c>
-      <c r="I28" s="22">
+      <c r="I28" s="21">
         <f>16+2</f>
         <v>18</v>
       </c>
-      <c r="J28" s="22">
+      <c r="J28" s="21">
         <v>24</v>
       </c>
-      <c r="K28" s="22">
+      <c r="K28" s="21">
         <v>8</v>
       </c>
-      <c r="L28" s="22">
+      <c r="L28" s="21">
         <v>9</v>
       </c>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22">
+      <c r="M28" s="21"/>
+      <c r="N28" s="21">
         <v>20</v>
       </c>
     </row>
@@ -4023,28 +5767,28 @@
       <c r="B29">
         <v>24</v>
       </c>
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="24">
+      <c r="D29" s="23">
         <v>1</v>
       </c>
-      <c r="E29" s="25"/>
-      <c r="F29" s="26">
+      <c r="E29" s="24"/>
+      <c r="F29" s="25">
         <v>-395</v>
       </c>
-      <c r="G29" s="27">
+      <c r="G29" s="26">
         <v>-5</v>
       </c>
-      <c r="H29" s="28">
+      <c r="H29" s="27">
         <v>-187.5</v>
       </c>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22">
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21">
         <v>28</v>
       </c>
     </row>
@@ -4052,32 +5796,32 @@
       <c r="B30">
         <v>25</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="24">
+      <c r="D30" s="23">
         <v>1</v>
       </c>
-      <c r="E30" s="34" t="s">
+      <c r="E30" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="F30" s="26">
+      <c r="F30" s="25">
         <v>-395</v>
       </c>
-      <c r="G30" s="27">
+      <c r="G30" s="26">
         <v>0</v>
       </c>
-      <c r="H30" s="28">
+      <c r="H30" s="27">
         <v>-187.5</v>
       </c>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22">
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21">
         <v>18</v>
       </c>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22">
+      <c r="M30" s="21"/>
+      <c r="N30" s="21">
         <v>23</v>
       </c>
     </row>
@@ -4085,28 +5829,28 @@
       <c r="B31">
         <v>26</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="24">
+      <c r="D31" s="23">
         <v>2</v>
       </c>
-      <c r="E31" s="25"/>
-      <c r="F31" s="26">
+      <c r="E31" s="24"/>
+      <c r="F31" s="25">
         <v>-125</v>
       </c>
-      <c r="G31" s="27">
+      <c r="G31" s="26">
         <v>-5</v>
       </c>
-      <c r="H31" s="28">
+      <c r="H31" s="27">
         <v>-187.5</v>
       </c>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22">
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21">
         <v>24</v>
       </c>
     </row>
@@ -4114,32 +5858,32 @@
       <c r="B32">
         <v>27</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="24">
+      <c r="D32" s="23">
         <v>2</v>
       </c>
-      <c r="E32" s="34" t="s">
+      <c r="E32" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="F32" s="26">
+      <c r="F32" s="25">
         <v>-125</v>
       </c>
-      <c r="G32" s="27">
+      <c r="G32" s="26">
         <v>0</v>
       </c>
-      <c r="H32" s="28">
+      <c r="H32" s="27">
         <v>-187.5</v>
       </c>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22">
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21">
         <v>19</v>
       </c>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22">
+      <c r="M32" s="21"/>
+      <c r="N32" s="21">
         <v>26</v>
       </c>
     </row>
@@ -4147,84 +5891,84 @@
       <c r="B33">
         <v>28</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="24">
+      <c r="D33" s="23">
         <v>3</v>
       </c>
-      <c r="E33" s="25"/>
-      <c r="F33" s="26">
+      <c r="E33" s="24"/>
+      <c r="F33" s="25">
         <v>125</v>
       </c>
-      <c r="G33" s="27">
+      <c r="G33" s="26">
         <v>-5</v>
       </c>
-      <c r="H33" s="28">
+      <c r="H33" s="27">
         <v>-187.5</v>
       </c>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
     </row>
     <row r="34" spans="2:14">
       <c r="B34">
         <v>29</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="24">
+      <c r="D34" s="23">
         <v>3</v>
       </c>
-      <c r="E34" s="34" t="s">
+      <c r="E34" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="F34" s="26">
+      <c r="F34" s="25">
         <v>125</v>
       </c>
-      <c r="G34" s="27">
+      <c r="G34" s="26">
         <v>0</v>
       </c>
-      <c r="H34" s="28">
+      <c r="H34" s="27">
         <v>-187.5</v>
       </c>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
     </row>
     <row r="35" spans="2:14">
       <c r="B35">
         <v>30</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="24">
+      <c r="D35" s="23">
         <v>4</v>
       </c>
-      <c r="E35" s="25"/>
-      <c r="F35" s="26">
+      <c r="E35" s="24"/>
+      <c r="F35" s="25">
         <v>395</v>
       </c>
-      <c r="G35" s="27">
+      <c r="G35" s="26">
         <v>-5</v>
       </c>
-      <c r="H35" s="28">
+      <c r="H35" s="27">
         <v>-187.5</v>
       </c>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22">
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21">
         <v>9</v>
       </c>
     </row>
@@ -4232,30 +5976,30 @@
       <c r="B36">
         <v>31</v>
       </c>
-      <c r="C36" s="33" t="s">
+      <c r="C36" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="24">
+      <c r="D36" s="23">
         <v>4</v>
       </c>
-      <c r="E36" s="34" t="s">
+      <c r="E36" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="F36" s="26">
+      <c r="F36" s="25">
         <v>395</v>
       </c>
-      <c r="G36" s="27">
+      <c r="G36" s="26">
         <v>0</v>
       </c>
-      <c r="H36" s="28">
+      <c r="H36" s="27">
         <v>-187.5</v>
       </c>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22">
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21">
         <v>8</v>
       </c>
     </row>
@@ -4263,28 +6007,28 @@
       <c r="B37">
         <v>32</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="D37" s="24">
+      <c r="D37" s="23">
         <v>1</v>
       </c>
-      <c r="E37" s="25"/>
-      <c r="F37" s="26">
+      <c r="E37" s="24"/>
+      <c r="F37" s="25">
         <v>-395</v>
       </c>
-      <c r="G37" s="27">
+      <c r="G37" s="26">
         <v>-5</v>
       </c>
-      <c r="H37" s="28">
+      <c r="H37" s="27">
         <v>187.5</v>
       </c>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22">
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21">
         <v>32</v>
       </c>
     </row>
@@ -4292,30 +6036,30 @@
       <c r="B38">
         <v>33</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="D38" s="24">
+      <c r="D38" s="23">
         <v>1</v>
       </c>
-      <c r="E38" s="36" t="s">
+      <c r="E38" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="F38" s="26">
+      <c r="F38" s="25">
         <v>-395</v>
       </c>
-      <c r="G38" s="27">
+      <c r="G38" s="26">
         <v>0</v>
       </c>
-      <c r="H38" s="28">
+      <c r="H38" s="27">
         <v>187.5</v>
       </c>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22">
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21">
         <v>38</v>
       </c>
     </row>
@@ -4323,28 +6067,28 @@
       <c r="B39">
         <v>34</v>
       </c>
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="24">
+      <c r="D39" s="23">
         <v>2</v>
       </c>
-      <c r="E39" s="37"/>
-      <c r="F39" s="26">
+      <c r="E39" s="36"/>
+      <c r="F39" s="25">
         <v>-125</v>
       </c>
-      <c r="G39" s="27">
+      <c r="G39" s="26">
         <v>-5</v>
       </c>
-      <c r="H39" s="28">
+      <c r="H39" s="27">
         <v>187.5</v>
       </c>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22">
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21">
         <v>39</v>
       </c>
     </row>
@@ -4352,30 +6096,30 @@
       <c r="B40">
         <v>35</v>
       </c>
-      <c r="C40" s="35" t="s">
+      <c r="C40" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="D40" s="24">
+      <c r="D40" s="23">
         <v>2</v>
       </c>
-      <c r="E40" s="36" t="s">
+      <c r="E40" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="F40" s="26">
+      <c r="F40" s="25">
         <v>-125</v>
       </c>
-      <c r="G40" s="27">
+      <c r="G40" s="26">
         <v>0</v>
       </c>
-      <c r="H40" s="28">
+      <c r="H40" s="27">
         <v>187.5</v>
       </c>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="22">
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21">
         <v>31</v>
       </c>
     </row>
@@ -4383,28 +6127,28 @@
       <c r="B41">
         <v>36</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="24">
+      <c r="D41" s="23">
         <v>3</v>
       </c>
-      <c r="E41" s="37"/>
-      <c r="F41" s="26">
+      <c r="E41" s="36"/>
+      <c r="F41" s="25">
         <v>125</v>
       </c>
-      <c r="G41" s="27">
+      <c r="G41" s="26">
         <v>-5</v>
       </c>
-      <c r="H41" s="28">
+      <c r="H41" s="27">
         <v>187.5</v>
       </c>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="22">
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21">
         <v>13</v>
       </c>
     </row>
@@ -4412,30 +6156,30 @@
       <c r="B42">
         <v>37</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="24">
+      <c r="D42" s="23">
         <v>3</v>
       </c>
-      <c r="E42" s="36" t="s">
+      <c r="E42" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="F42" s="26">
+      <c r="F42" s="25">
         <v>125</v>
       </c>
-      <c r="G42" s="27">
+      <c r="G42" s="26">
         <v>0</v>
       </c>
-      <c r="H42" s="28">
+      <c r="H42" s="27">
         <v>187.5</v>
       </c>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22">
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21">
         <v>14</v>
       </c>
     </row>
@@ -4443,28 +6187,28 @@
       <c r="B43">
         <v>38</v>
       </c>
-      <c r="C43" s="35" t="s">
+      <c r="C43" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="D43" s="24">
+      <c r="D43" s="23">
         <v>4</v>
       </c>
-      <c r="E43" s="37"/>
-      <c r="F43" s="26">
+      <c r="E43" s="36"/>
+      <c r="F43" s="25">
         <v>395</v>
       </c>
-      <c r="G43" s="27">
+      <c r="G43" s="26">
         <v>-5</v>
       </c>
-      <c r="H43" s="28">
+      <c r="H43" s="27">
         <v>187.5</v>
       </c>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="22">
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21">
         <v>15</v>
       </c>
     </row>
@@ -4472,30 +6216,30 @@
       <c r="B44">
         <v>39</v>
       </c>
-      <c r="C44" s="38" t="s">
+      <c r="C44" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="39">
+      <c r="D44" s="38">
         <v>4</v>
       </c>
-      <c r="E44" s="40" t="s">
+      <c r="E44" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="F44" s="41">
+      <c r="F44" s="40">
         <v>395</v>
       </c>
-      <c r="G44" s="42">
+      <c r="G44" s="41">
         <v>0</v>
       </c>
-      <c r="H44" s="28">
+      <c r="H44" s="27">
         <v>187.5</v>
       </c>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="22">
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21">
         <v>16</v>
       </c>
     </row>

--- a/Measurements/template_mastersheet.xlsx
+++ b/Measurements/template_mastersheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Michiel/Dimple - Working Documents/DimpleTech/10 Technology development/01 The Hill/03 Usage/Measurements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7692E1EB-7FE4-4B48-BA83-0FE6B478A4A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8410FD41-EFAC-EC41-B623-2B7CD988122C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5900" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{E12EEECC-AC3A-F945-9F00-751131698F74}"/>
+    <workbookView xWindow="940" yWindow="1300" windowWidth="38400" windowHeight="21100" xr2:uid="{E12EEECC-AC3A-F945-9F00-751131698F74}"/>
   </bookViews>
   <sheets>
     <sheet name="Measurements" sheetId="1" r:id="rId1"/>
@@ -616,18 +616,34 @@
   </cellStyles>
   <dxfs count="26">
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -858,34 +874,18 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -950,23 +950,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0D57EA5C-1A4F-0145-8A61-4E1C87C46D31}" name="Table2" displayName="Table2" ref="B3:P179" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0D57EA5C-1A4F-0145-8A61-4E1C87C46D31}" name="Table2" displayName="Table2" ref="B3:P179" totalsRowShown="0" dataDxfId="25">
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{6DFEB069-213E-4C41-A41E-B4525AFCB2C5}" name="Id" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{87672AE0-6118-BA4E-80BF-19BC32FE0220}" name="Date" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{52BA862C-27CE-674B-9CD3-5E4429C9669C}" name="Name (no special char.)" dataDxfId="13"/>
-    <tableColumn id="11" xr3:uid="{95B20B57-5110-3C4A-9DFD-CA76DA8CF6F7}" name="Ref." dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{09EC14DE-98CA-AA4D-B6AF-DE382F069FAF}" name="Target" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{BE796C7F-68D0-6645-94AA-B7002E72A59F}" name="Warm-up" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{D1E2BBE1-2BC0-DA4F-8A85-91FFBBD7761C}" name="Description" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{6AC83ACA-4067-CA4C-B370-09E7180994D2}" name="Folder" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{10E836C4-1B84-7B47-BF7E-13EB73A5C4BE}" name="Tunnel automation" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{DEF9CE85-2D37-5140-98E7-8F596283D160}" name="Tunnel data" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{D1756B5F-31B9-864B-91FB-E569CC7771D5}" name="Use tunnel data" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{EBF77888-AC1D-6148-862B-ECBE66202C2A}" name="Pressure config." dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{13BEB114-0413-C148-9ED5-91291A5FA7B3}" name="p-channels" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{0922AE5D-D814-114F-B0A8-ACCE925BC7E9}" name="pitot channel" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{7E8D49BF-CD66-4945-B81B-0552B1F6A806}" name="Pitot correct" dataDxfId="1" dataCellStyle="Percent"/>
+    <tableColumn id="1" xr3:uid="{6DFEB069-213E-4C41-A41E-B4525AFCB2C5}" name="Id" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{87672AE0-6118-BA4E-80BF-19BC32FE0220}" name="Date" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{52BA862C-27CE-674B-9CD3-5E4429C9669C}" name="Name (no special char.)" dataDxfId="22"/>
+    <tableColumn id="11" xr3:uid="{95B20B57-5110-3C4A-9DFD-CA76DA8CF6F7}" name="Ref." dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{09EC14DE-98CA-AA4D-B6AF-DE382F069FAF}" name="Target" dataDxfId="20"/>
+    <tableColumn id="12" xr3:uid="{BE796C7F-68D0-6645-94AA-B7002E72A59F}" name="Warm-up" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{D1E2BBE1-2BC0-DA4F-8A85-91FFBBD7761C}" name="Description" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{6AC83ACA-4067-CA4C-B370-09E7180994D2}" name="Folder" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{10E836C4-1B84-7B47-BF7E-13EB73A5C4BE}" name="Tunnel automation" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{DEF9CE85-2D37-5140-98E7-8F596283D160}" name="Tunnel data" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{D1756B5F-31B9-864B-91FB-E569CC7771D5}" name="Use tunnel data" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{EBF77888-AC1D-6148-862B-ECBE66202C2A}" name="Pressure config." dataDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{13BEB114-0413-C148-9ED5-91291A5FA7B3}" name="p-channels" dataDxfId="12"/>
+    <tableColumn id="14" xr3:uid="{0922AE5D-D814-114F-B0A8-ACCE925BC7E9}" name="pitot channel" dataDxfId="11"/>
+    <tableColumn id="15" xr3:uid="{7E8D49BF-CD66-4945-B81B-0552B1F6A806}" name="Pitot correct" dataDxfId="10" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -982,16 +982,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{38D08E86-0ADB-A042-863B-1132DA5621D6}" name="Table3" displayName="Table3" ref="D2:D4" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{38D08E86-0ADB-A042-863B-1132DA5621D6}" name="Table3" displayName="Table3" ref="D2:D4" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{9A1272F3-10CD-AA44-B7E0-F68FD351534B}" name="Use tunnel data?" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{9A1272F3-10CD-AA44-B7E0-F68FD351534B}" name="Use tunnel data?" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B8FA7679-22F8-BD4B-93AE-D90E20B4EA27}" name="Table46" displayName="Table46" ref="B2:N44" totalsRowShown="0" headerRowDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B8FA7679-22F8-BD4B-93AE-D90E20B4EA27}" name="Table46" displayName="Table46" ref="B2:N44" totalsRowShown="0" headerRowDxfId="6">
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{97DCEB29-EB01-5243-A78E-742014BA2D22}" name="Id"/>
     <tableColumn id="12" xr3:uid="{B180BC18-C432-FA48-81A4-D190A45717D0}" name=" "/>
@@ -1000,12 +1000,12 @@
     <tableColumn id="9" xr3:uid="{8D2A9EBF-0B1F-9D43-8CE2-9A744D3AEC6B}" name="    "/>
     <tableColumn id="8" xr3:uid="{9AABFB41-6943-AD42-8C3F-93E09B253B30}" name="     "/>
     <tableColumn id="7" xr3:uid="{A1F0A29F-12F2-9B47-BBFF-FC955A2F7D37}" name="        "/>
-    <tableColumn id="2" xr3:uid="{4AF53202-BBD5-424D-9EA7-05556A059C24}" name="1" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{705DBEB1-426E-3648-9DF3-A189389E8557}" name="2" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{397A62C7-6707-DF4F-8DDE-16066A85C00B}" name="3" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{10784330-8FAE-2346-8490-16F7F7CE6B31}" name="4" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{D40F3563-8485-AE45-8F1F-BB3B1F18E98D}" name="5" dataDxfId="17"/>
-    <tableColumn id="13" xr3:uid="{9DD5C194-C7C4-3F49-92AE-8F12CB585810}" name="6" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{4AF53202-BBD5-424D-9EA7-05556A059C24}" name="1" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{705DBEB1-426E-3648-9DF3-A189389E8557}" name="2" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{397A62C7-6707-DF4F-8DDE-16066A85C00B}" name="3" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{10784330-8FAE-2346-8490-16F7F7CE6B31}" name="4" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{D40F3563-8485-AE45-8F1F-BB3B1F18E98D}" name="5" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{9DD5C194-C7C4-3F49-92AE-8F12CB585810}" name="6" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1310,8 +1310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD142BB9-230F-7B49-905A-C5597AFD6720}">
   <dimension ref="B1:P179"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1326,9 +1326,9 @@
     <col min="9" max="9" width="38.83203125" customWidth="1"/>
     <col min="10" max="11" width="19.1640625" customWidth="1"/>
     <col min="12" max="13" width="16.6640625" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" customWidth="1"/>
-    <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="11.5" style="42" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="12" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5" style="42" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="42" customHeight="1">
